--- a/自动封片机通讯协议.xlsx
+++ b/自动封片机通讯协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\Glass_Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6674917-D0F9-4596-80BD-6E9315A40843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C83F9FB-172D-48CC-AA0A-B15A7BFB9D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="查询协议" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="396">
   <si>
     <t>查询：状态：在线状态</t>
   </si>
@@ -1723,6 +1723,225 @@
     <t>脉冲值</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>0成功     1失败</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制应答：运行：关机</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0-200</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-6400</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-200</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-200</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-300</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000-2000</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻片夹取检测上升长度GCV_glass_len</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>600-800</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000-1600</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>200-400</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500-2000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00-1500</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-500</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>300-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1000</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400-2600</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cale</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>夹手下降封片位置GCV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_package_pos</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-200</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-100</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1731,7 +1950,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1786,6 +2005,23 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="18">
@@ -2055,7 +2291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2269,26 +2505,113 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2299,77 +2622,23 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2380,17 +2649,17 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2418,18 +2687,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2765,8 +3022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AS110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView topLeftCell="I37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH59" sqref="AH59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2792,29 +3049,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:31" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="M2" s="103" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="M2" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
     </row>
     <row r="3" spans="3:31" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -3054,43 +3311,43 @@
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="87"/>
       <c r="M7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="104" t="s">
+      <c r="N7" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
     </row>
     <row r="9" spans="3:31" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
       <c r="M9" s="32" t="s">
         <v>35</v>
       </c>
@@ -3160,17 +3417,17 @@
       <c r="S10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="88" t="s">
+      <c r="T10" s="78" t="s">
         <v>268</v>
       </c>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="90"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="80"/>
       <c r="AC10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3415,66 +3672,66 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="87"/>
       <c r="M14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="75"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="76"/>
-      <c r="X14" s="76"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="76"/>
-      <c r="AB14" s="76"/>
-      <c r="AC14" s="76"/>
-      <c r="AD14" s="76"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
     </row>
     <row r="17" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="M17" s="99" t="s">
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="M17" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="100"/>
-      <c r="T17" s="100"/>
-      <c r="U17" s="100"/>
-      <c r="V17" s="100"/>
-      <c r="W17" s="100"/>
-      <c r="X17" s="100"/>
-      <c r="Y17" s="100"/>
-      <c r="Z17" s="100"/>
-      <c r="AA17" s="100"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="92"/>
+      <c r="T17" s="92"/>
+      <c r="U17" s="92"/>
+      <c r="V17" s="92"/>
+      <c r="W17" s="92"/>
+      <c r="X17" s="92"/>
+      <c r="Y17" s="92"/>
+      <c r="Z17" s="92"/>
+      <c r="AA17" s="92"/>
     </row>
     <row r="18" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C18" s="1" t="s">
@@ -3525,14 +3782,14 @@
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T18" s="88" t="s">
+      <c r="T18" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="90"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="80"/>
       <c r="Z18" s="1" t="s">
         <v>9</v>
       </c>
@@ -3767,45 +4024,45 @@
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="86"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="87"/>
       <c r="M22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N22" s="75"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="76"/>
-      <c r="T22" s="76"/>
-      <c r="U22" s="76"/>
-      <c r="V22" s="76"/>
-      <c r="W22" s="76"/>
-      <c r="X22" s="76"/>
-      <c r="Y22" s="76"/>
-      <c r="Z22" s="76"/>
-      <c r="AA22" s="76"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="82"/>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="82"/>
     </row>
     <row r="23" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
       <c r="M25" s="33" t="s">
         <v>53</v>
       </c>
@@ -3870,11 +4127,11 @@
       <c r="S26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T26" s="101" t="s">
+      <c r="T26" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="U26" s="102"/>
-      <c r="V26" s="102"/>
+      <c r="U26" s="94"/>
+      <c r="V26" s="94"/>
       <c r="W26" s="1" t="s">
         <v>9</v>
       </c>
@@ -3946,16 +4203,16 @@
       <c r="X27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA27" s="71" t="s">
+      <c r="AA27" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="AB27" s="72"/>
-      <c r="AC27" s="72"/>
-      <c r="AD27" s="72"/>
-      <c r="AE27" s="72"/>
-      <c r="AF27" s="72"/>
-      <c r="AG27" s="72"/>
-      <c r="AH27" s="72"/>
+      <c r="AB27" s="90"/>
+      <c r="AC27" s="90"/>
+      <c r="AD27" s="90"/>
+      <c r="AE27" s="90"/>
+      <c r="AF27" s="90"/>
+      <c r="AG27" s="90"/>
+      <c r="AH27" s="90"/>
     </row>
     <row r="28" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C28" s="1" t="s">
@@ -4139,56 +4396,59 @@
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="84"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="86"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="87"/>
       <c r="M30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N30" s="73"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="74"/>
-      <c r="S30" s="74"/>
-      <c r="T30" s="74"/>
-      <c r="U30" s="74"/>
-      <c r="V30" s="74"/>
-      <c r="W30" s="74"/>
-      <c r="X30" s="74"/>
+      <c r="N30" s="101"/>
+      <c r="O30" s="102"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="102"/>
+      <c r="R30" s="102"/>
+      <c r="S30" s="102"/>
+      <c r="T30" s="102"/>
+      <c r="U30" s="102"/>
+      <c r="V30" s="102"/>
+      <c r="W30" s="102"/>
+      <c r="X30" s="102"/>
+    </row>
+    <row r="35" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="Y35" s="73"/>
     </row>
     <row r="37" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C37" s="77" t="s">
+      <c r="C37" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="M37" s="99" t="s">
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="83"/>
+      <c r="M37" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="N37" s="100"/>
-      <c r="O37" s="100"/>
-      <c r="P37" s="100"/>
-      <c r="Q37" s="100"/>
-      <c r="R37" s="100"/>
-      <c r="S37" s="100"/>
-      <c r="T37" s="100"/>
-      <c r="U37" s="100"/>
-      <c r="V37" s="100"/>
-      <c r="W37" s="100"/>
-      <c r="X37" s="100"/>
-      <c r="Y37" s="100"/>
+      <c r="N37" s="92"/>
+      <c r="O37" s="92"/>
+      <c r="P37" s="92"/>
+      <c r="Q37" s="92"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="92"/>
+      <c r="T37" s="92"/>
+      <c r="U37" s="92"/>
+      <c r="V37" s="92"/>
+      <c r="W37" s="92"/>
+      <c r="X37" s="92"/>
+      <c r="Y37" s="92"/>
     </row>
     <row r="38" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
@@ -4239,12 +4499,12 @@
       <c r="S38" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T38" s="88" t="s">
+      <c r="T38" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="U38" s="89"/>
-      <c r="V38" s="89"/>
-      <c r="W38" s="89"/>
+      <c r="U38" s="79"/>
+      <c r="V38" s="79"/>
+      <c r="W38" s="79"/>
       <c r="X38" s="1" t="s">
         <v>9</v>
       </c>
@@ -4319,16 +4579,16 @@
       <c r="Y39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA39" s="71" t="s">
+      <c r="AA39" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="AB39" s="72"/>
-      <c r="AC39" s="72"/>
-      <c r="AD39" s="72"/>
-      <c r="AE39" s="72"/>
-      <c r="AF39" s="72"/>
-      <c r="AG39" s="72"/>
-      <c r="AH39" s="72"/>
+      <c r="AB39" s="90"/>
+      <c r="AC39" s="90"/>
+      <c r="AD39" s="90"/>
+      <c r="AE39" s="90"/>
+      <c r="AF39" s="90"/>
+      <c r="AG39" s="90"/>
+      <c r="AH39" s="90"/>
     </row>
     <row r="40" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C40" s="1" t="s">
@@ -4502,41 +4762,41 @@
       <c r="C42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="84"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="86"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="87"/>
       <c r="M42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="75"/>
-      <c r="O42" s="76"/>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="76"/>
-      <c r="R42" s="76"/>
-      <c r="S42" s="76"/>
-      <c r="T42" s="76"/>
-      <c r="U42" s="76"/>
-      <c r="V42" s="76"/>
-      <c r="W42" s="76"/>
-      <c r="X42" s="76"/>
-      <c r="Y42" s="76"/>
+      <c r="N42" s="81"/>
+      <c r="O42" s="82"/>
+      <c r="P42" s="82"/>
+      <c r="Q42" s="82"/>
+      <c r="R42" s="82"/>
+      <c r="S42" s="82"/>
+      <c r="T42" s="82"/>
+      <c r="U42" s="82"/>
+      <c r="V42" s="82"/>
+      <c r="W42" s="82"/>
+      <c r="X42" s="82"/>
+      <c r="Y42" s="82"/>
     </row>
     <row r="45" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA45" s="71" t="s">
+      <c r="AA45" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="AB45" s="72"/>
-      <c r="AC45" s="72"/>
-      <c r="AD45" s="72"/>
-      <c r="AE45" s="72"/>
-      <c r="AF45" s="72"/>
-      <c r="AG45" s="72"/>
-      <c r="AH45" s="72"/>
+      <c r="AB45" s="90"/>
+      <c r="AC45" s="90"/>
+      <c r="AD45" s="90"/>
+      <c r="AE45" s="90"/>
+      <c r="AF45" s="90"/>
+      <c r="AG45" s="90"/>
+      <c r="AH45" s="90"/>
     </row>
     <row r="46" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA46" s="4" t="s">
@@ -4581,16 +4841,16 @@
       </c>
     </row>
     <row r="51" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA51" s="71" t="s">
+      <c r="AA51" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="AB51" s="72"/>
-      <c r="AC51" s="72"/>
-      <c r="AD51" s="72"/>
-      <c r="AE51" s="72"/>
-      <c r="AF51" s="72"/>
-      <c r="AG51" s="72"/>
-      <c r="AH51" s="72"/>
+      <c r="AB51" s="90"/>
+      <c r="AC51" s="90"/>
+      <c r="AD51" s="90"/>
+      <c r="AE51" s="90"/>
+      <c r="AF51" s="90"/>
+      <c r="AG51" s="90"/>
+      <c r="AH51" s="90"/>
     </row>
     <row r="52" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA52" s="4" t="s">
@@ -4639,16 +4899,16 @@
       </c>
     </row>
     <row r="57" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA57" s="71" t="s">
+      <c r="AA57" s="89" t="s">
         <v>260</v>
       </c>
-      <c r="AB57" s="72"/>
-      <c r="AC57" s="72"/>
-      <c r="AD57" s="72"/>
-      <c r="AE57" s="72"/>
-      <c r="AF57" s="72"/>
-      <c r="AG57" s="72"/>
-      <c r="AH57" s="72"/>
+      <c r="AB57" s="90"/>
+      <c r="AC57" s="90"/>
+      <c r="AD57" s="90"/>
+      <c r="AE57" s="90"/>
+      <c r="AF57" s="90"/>
+      <c r="AG57" s="90"/>
+      <c r="AH57" s="90"/>
     </row>
     <row r="58" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA58" s="4" t="s">
@@ -4699,33 +4959,33 @@
       </c>
     </row>
     <row r="64" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C64" s="77" t="s">
+      <c r="C64" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="77"/>
-      <c r="H64" s="77"/>
-      <c r="I64" s="77"/>
-      <c r="J64" s="77"/>
-      <c r="K64" s="77"/>
-      <c r="M64" s="96" t="s">
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="83"/>
+      <c r="J64" s="83"/>
+      <c r="K64" s="83"/>
+      <c r="M64" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="N64" s="96"/>
-      <c r="O64" s="96"/>
-      <c r="P64" s="96"/>
-      <c r="Q64" s="96"/>
-      <c r="R64" s="96"/>
-      <c r="S64" s="96"/>
-      <c r="T64" s="96"/>
-      <c r="U64" s="96"/>
-      <c r="V64" s="96"/>
-      <c r="W64" s="96"/>
-      <c r="X64" s="96"/>
-      <c r="Y64" s="96"/>
-      <c r="Z64" s="96"/>
+      <c r="N64" s="95"/>
+      <c r="O64" s="95"/>
+      <c r="P64" s="95"/>
+      <c r="Q64" s="95"/>
+      <c r="R64" s="95"/>
+      <c r="S64" s="95"/>
+      <c r="T64" s="95"/>
+      <c r="U64" s="95"/>
+      <c r="V64" s="95"/>
+      <c r="W64" s="95"/>
+      <c r="X64" s="95"/>
+      <c r="Y64" s="95"/>
+      <c r="Z64" s="95"/>
     </row>
     <row r="65" spans="3:45" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C65" s="1" t="s">
@@ -4776,13 +5036,13 @@
       <c r="S65" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T65" s="97" t="s">
+      <c r="T65" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="U65" s="97"/>
-      <c r="V65" s="97"/>
-      <c r="W65" s="97"/>
-      <c r="X65" s="97"/>
+      <c r="U65" s="96"/>
+      <c r="V65" s="96"/>
+      <c r="W65" s="96"/>
+      <c r="X65" s="96"/>
       <c r="Y65" s="1" t="s">
         <v>9</v>
       </c>
@@ -4998,70 +5258,70 @@
       <c r="C69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D69" s="84" t="s">
+      <c r="D69" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="85"/>
-      <c r="I69" s="85"/>
-      <c r="J69" s="85"/>
-      <c r="K69" s="86"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="H69" s="86"/>
+      <c r="I69" s="86"/>
+      <c r="J69" s="86"/>
+      <c r="K69" s="87"/>
       <c r="M69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N69" s="98" t="s">
+      <c r="N69" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="O69" s="98"/>
-      <c r="P69" s="98"/>
-      <c r="Q69" s="98"/>
-      <c r="R69" s="98"/>
-      <c r="S69" s="98"/>
-      <c r="T69" s="98"/>
-      <c r="U69" s="98"/>
-      <c r="V69" s="98"/>
-      <c r="W69" s="98"/>
-      <c r="X69" s="98"/>
-      <c r="Y69" s="98"/>
-      <c r="Z69" s="98"/>
+      <c r="O69" s="97"/>
+      <c r="P69" s="97"/>
+      <c r="Q69" s="97"/>
+      <c r="R69" s="97"/>
+      <c r="S69" s="97"/>
+      <c r="T69" s="97"/>
+      <c r="U69" s="97"/>
+      <c r="V69" s="97"/>
+      <c r="W69" s="97"/>
+      <c r="X69" s="97"/>
+      <c r="Y69" s="97"/>
+      <c r="Z69" s="97"/>
     </row>
     <row r="73" spans="3:45" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C73" s="77" t="s">
+      <c r="C73" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="D73" s="77"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="77"/>
-      <c r="G73" s="77"/>
-      <c r="H73" s="77"/>
-      <c r="I73" s="77"/>
-      <c r="J73" s="77"/>
-      <c r="K73" s="77"/>
-      <c r="M73" s="94" t="s">
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="83"/>
+      <c r="J73" s="83"/>
+      <c r="K73" s="83"/>
+      <c r="M73" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="N73" s="95"/>
-      <c r="O73" s="95"/>
-      <c r="P73" s="95"/>
-      <c r="Q73" s="95"/>
-      <c r="R73" s="95"/>
-      <c r="S73" s="95"/>
-      <c r="T73" s="95"/>
-      <c r="U73" s="95"/>
-      <c r="V73" s="95"/>
-      <c r="W73" s="95"/>
-      <c r="X73" s="95"/>
-      <c r="Y73" s="95"/>
-      <c r="Z73" s="95"/>
-      <c r="AA73" s="95"/>
-      <c r="AB73" s="95"/>
-      <c r="AC73" s="95"/>
-      <c r="AD73" s="95"/>
-      <c r="AE73" s="95"/>
-      <c r="AF73" s="95"/>
-      <c r="AG73" s="95"/>
+      <c r="N73" s="111"/>
+      <c r="O73" s="111"/>
+      <c r="P73" s="111"/>
+      <c r="Q73" s="111"/>
+      <c r="R73" s="111"/>
+      <c r="S73" s="111"/>
+      <c r="T73" s="111"/>
+      <c r="U73" s="111"/>
+      <c r="V73" s="111"/>
+      <c r="W73" s="111"/>
+      <c r="X73" s="111"/>
+      <c r="Y73" s="111"/>
+      <c r="Z73" s="111"/>
+      <c r="AA73" s="111"/>
+      <c r="AB73" s="111"/>
+      <c r="AC73" s="111"/>
+      <c r="AD73" s="111"/>
+      <c r="AE73" s="111"/>
+      <c r="AF73" s="111"/>
+      <c r="AG73" s="111"/>
     </row>
     <row r="74" spans="3:45" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C74" s="1" t="s">
@@ -5112,20 +5372,20 @@
       <c r="S74" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T74" s="81" t="s">
+      <c r="T74" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="U74" s="82"/>
-      <c r="V74" s="82"/>
-      <c r="W74" s="82"/>
-      <c r="X74" s="82"/>
-      <c r="Y74" s="82"/>
-      <c r="Z74" s="82"/>
-      <c r="AA74" s="82"/>
-      <c r="AB74" s="82"/>
-      <c r="AC74" s="82"/>
-      <c r="AD74" s="82"/>
-      <c r="AE74" s="83"/>
+      <c r="U74" s="99"/>
+      <c r="V74" s="99"/>
+      <c r="W74" s="99"/>
+      <c r="X74" s="99"/>
+      <c r="Y74" s="99"/>
+      <c r="Z74" s="99"/>
+      <c r="AA74" s="99"/>
+      <c r="AB74" s="99"/>
+      <c r="AC74" s="99"/>
+      <c r="AD74" s="99"/>
+      <c r="AE74" s="100"/>
       <c r="AF74" s="1"/>
       <c r="AG74" s="1" t="s">
         <v>9</v>
@@ -5422,14 +5682,14 @@
       <c r="C78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="84"/>
-      <c r="E78" s="85"/>
-      <c r="F78" s="85"/>
-      <c r="G78" s="85"/>
-      <c r="H78" s="85"/>
-      <c r="I78" s="85"/>
-      <c r="J78" s="85"/>
-      <c r="K78" s="86"/>
+      <c r="D78" s="85"/>
+      <c r="E78" s="86"/>
+      <c r="F78" s="86"/>
+      <c r="G78" s="86"/>
+      <c r="H78" s="86"/>
+      <c r="I78" s="86"/>
+      <c r="J78" s="86"/>
+      <c r="K78" s="87"/>
       <c r="M78" s="1" t="s">
         <v>31</v>
       </c>
@@ -5456,21 +5716,53 @@
       <c r="AH78" s="63"/>
     </row>
     <row r="79" spans="3:45" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AL79" s="71" t="s">
+      <c r="AL79" s="89" t="s">
         <v>342</v>
       </c>
-      <c r="AM79" s="72"/>
-      <c r="AN79" s="72"/>
-      <c r="AO79" s="72"/>
-      <c r="AP79" s="72"/>
-      <c r="AQ79" s="72"/>
-      <c r="AR79" s="72"/>
-      <c r="AS79" s="72"/>
+      <c r="AM79" s="90"/>
+      <c r="AN79" s="90"/>
+      <c r="AO79" s="90"/>
+      <c r="AP79" s="90"/>
+      <c r="AQ79" s="90"/>
+      <c r="AR79" s="90"/>
+      <c r="AS79" s="90"/>
     </row>
     <row r="80" spans="3:45" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AC80" s="42">
-        <f>SUM(设置协议!J5:U5)</f>
-        <v>14</v>
+      <c r="T80" s="76" t="s">
+        <v>377</v>
+      </c>
+      <c r="U80" s="74" t="s">
+        <v>375</v>
+      </c>
+      <c r="V80" s="74" t="s">
+        <v>377</v>
+      </c>
+      <c r="W80" s="74" t="s">
+        <v>377</v>
+      </c>
+      <c r="X80" s="74" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y80" s="74" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z80" s="74" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA80" s="74" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB80" s="74" t="s">
+        <v>377</v>
+      </c>
+      <c r="AC80" s="74" t="s">
+        <v>377</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>378</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>378</v>
       </c>
       <c r="AL80" s="4" t="s">
         <v>56</v>
@@ -5498,6 +5790,16 @@
       </c>
     </row>
     <row r="81" spans="3:45" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="T81" s="74"/>
+      <c r="U81" s="74"/>
+      <c r="V81" s="74"/>
+      <c r="W81" s="74"/>
+      <c r="Z81" s="74"/>
+      <c r="AA81" s="74"/>
+      <c r="AB81" s="74"/>
+      <c r="AC81" s="74"/>
+      <c r="AD81" s="74"/>
+      <c r="AE81" s="74"/>
       <c r="AL81" s="28"/>
       <c r="AM81" s="28"/>
       <c r="AN81" s="28" t="s">
@@ -5520,34 +5822,34 @@
       </c>
     </row>
     <row r="82" spans="3:45" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C82" s="77" t="s">
+      <c r="C82" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="D82" s="77"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="77"/>
-      <c r="H82" s="77"/>
-      <c r="I82" s="77"/>
-      <c r="J82" s="77"/>
-      <c r="K82" s="77"/>
-      <c r="M82" s="91" t="s">
+      <c r="D82" s="83"/>
+      <c r="E82" s="83"/>
+      <c r="F82" s="83"/>
+      <c r="G82" s="83"/>
+      <c r="H82" s="83"/>
+      <c r="I82" s="83"/>
+      <c r="J82" s="83"/>
+      <c r="K82" s="83"/>
+      <c r="M82" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="N82" s="92"/>
-      <c r="O82" s="92"/>
-      <c r="P82" s="92"/>
-      <c r="Q82" s="92"/>
-      <c r="R82" s="92"/>
-      <c r="S82" s="92"/>
-      <c r="T82" s="92"/>
-      <c r="U82" s="92"/>
-      <c r="V82" s="92"/>
-      <c r="W82" s="92"/>
-      <c r="X82" s="92"/>
-      <c r="Y82" s="92"/>
-      <c r="Z82" s="92"/>
-      <c r="AA82" s="92"/>
+      <c r="N82" s="105"/>
+      <c r="O82" s="105"/>
+      <c r="P82" s="105"/>
+      <c r="Q82" s="105"/>
+      <c r="R82" s="105"/>
+      <c r="S82" s="105"/>
+      <c r="T82" s="105"/>
+      <c r="U82" s="105"/>
+      <c r="V82" s="105"/>
+      <c r="W82" s="105"/>
+      <c r="X82" s="105"/>
+      <c r="Y82" s="105"/>
+      <c r="Z82" s="105"/>
+      <c r="AA82" s="105"/>
     </row>
     <row r="83" spans="3:45" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C83" s="1" t="s">
@@ -5598,18 +5900,19 @@
       <c r="S83" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T83" s="88" t="s">
+      <c r="T83" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="U83" s="89"/>
-      <c r="V83" s="89"/>
-      <c r="W83" s="89"/>
-      <c r="X83" s="89"/>
-      <c r="Y83" s="90"/>
-      <c r="Z83" s="1" t="s">
+      <c r="U83" s="72"/>
+      <c r="V83" s="72"/>
+      <c r="W83" s="72"/>
+      <c r="X83" s="72"/>
+      <c r="Y83" s="77"/>
+      <c r="Z83" s="77"/>
+      <c r="AA83" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AA83" s="1" t="s">
+      <c r="AB83" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5672,7 +5975,7 @@
         <v>209</v>
       </c>
       <c r="W84" s="27" t="s">
-        <v>280</v>
+        <v>381</v>
       </c>
       <c r="X84" s="49" t="s">
         <v>210</v>
@@ -5680,10 +5983,13 @@
       <c r="Y84" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="Z84" s="1" t="s">
+      <c r="Z84" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA84" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AA84" s="1" t="s">
+      <c r="AB84" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5755,14 +6061,17 @@
         <v>4</v>
       </c>
       <c r="Z85" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA85" s="3">
         <v>1</v>
       </c>
+      <c r="AB85" s="3">
+        <v>1</v>
+      </c>
       <c r="AD85" s="42">
-        <f>SUM(N85:AA85)</f>
-        <v>28</v>
+        <f>SUM(N85:AB85)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="3:45" ht="17.25" x14ac:dyDescent="0.15">
@@ -5798,8 +6107,8 @@
         <v>24</v>
       </c>
       <c r="O86" s="70">
-        <f>SUM(N85:AA85)</f>
-        <v>28</v>
+        <f>SUM(N85:AB85)</f>
+        <v>32</v>
       </c>
       <c r="P86" s="31" t="s">
         <v>26</v>
@@ -5827,8 +6136,11 @@
       </c>
       <c r="X86" s="4"/>
       <c r="Y86" s="4"/>
-      <c r="Z86" s="4"/>
-      <c r="AA86" s="4">
+      <c r="Z86" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA86" s="4"/>
+      <c r="AB86" s="4">
         <v>23</v>
       </c>
     </row>
@@ -5836,68 +6148,99 @@
       <c r="C87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D87" s="84"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="85"/>
-      <c r="G87" s="85"/>
-      <c r="H87" s="85"/>
-      <c r="I87" s="85"/>
-      <c r="J87" s="85"/>
-      <c r="K87" s="86"/>
+      <c r="D87" s="85"/>
+      <c r="E87" s="86"/>
+      <c r="F87" s="86"/>
+      <c r="G87" s="86"/>
+      <c r="H87" s="86"/>
+      <c r="I87" s="86"/>
+      <c r="J87" s="86"/>
+      <c r="K87" s="87"/>
       <c r="M87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N87" s="73"/>
-      <c r="O87" s="74"/>
-      <c r="P87" s="74"/>
-      <c r="Q87" s="74"/>
-      <c r="R87" s="74"/>
-      <c r="S87" s="74"/>
-      <c r="T87" s="74"/>
-      <c r="U87" s="74"/>
-      <c r="V87" s="74"/>
-      <c r="W87" s="74"/>
-      <c r="X87" s="74"/>
-      <c r="Y87" s="74"/>
-      <c r="Z87" s="74"/>
-      <c r="AA87" s="74"/>
+      <c r="N87" s="101"/>
+      <c r="O87" s="102"/>
+      <c r="P87" s="102"/>
+      <c r="Q87" s="102"/>
+      <c r="R87" s="102"/>
+      <c r="S87" s="102"/>
+      <c r="T87" s="102"/>
+      <c r="U87" s="102"/>
+      <c r="V87" s="102"/>
+      <c r="W87" s="102"/>
+      <c r="X87" s="102"/>
+      <c r="Y87" s="102"/>
+      <c r="Z87" s="102"/>
+      <c r="AA87" s="102"/>
     </row>
     <row r="88" spans="3:45" x14ac:dyDescent="0.15">
-      <c r="Y88" s="42">
-        <f>SUM(T85:Y85)</f>
-        <v>20</v>
+      <c r="Y88" s="75"/>
+    </row>
+    <row r="89" spans="3:45" x14ac:dyDescent="0.15">
+      <c r="T89" s="74" t="s">
+        <v>379</v>
+      </c>
+      <c r="U89" s="74" t="s">
+        <v>380</v>
+      </c>
+      <c r="V89" s="74" t="s">
+        <v>383</v>
+      </c>
+      <c r="W89" s="74" t="s">
+        <v>382</v>
+      </c>
+      <c r="X89" s="74" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y89" s="74" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="90" spans="3:45" x14ac:dyDescent="0.15">
+      <c r="V90" s="74" t="s">
+        <v>390</v>
+      </c>
+      <c r="W90" s="74" t="s">
+        <v>390</v>
+      </c>
+      <c r="X90" s="74" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y90" s="74" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="3:45" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C91" s="77" t="s">
+      <c r="C91" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="D91" s="77"/>
-      <c r="E91" s="77"/>
-      <c r="F91" s="77"/>
-      <c r="G91" s="77"/>
-      <c r="H91" s="77"/>
-      <c r="I91" s="77"/>
-      <c r="J91" s="77"/>
-      <c r="K91" s="77"/>
-      <c r="M91" s="91" t="s">
+      <c r="D91" s="83"/>
+      <c r="E91" s="83"/>
+      <c r="F91" s="83"/>
+      <c r="G91" s="83"/>
+      <c r="H91" s="83"/>
+      <c r="I91" s="83"/>
+      <c r="J91" s="83"/>
+      <c r="K91" s="83"/>
+      <c r="M91" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="N91" s="92"/>
-      <c r="O91" s="92"/>
-      <c r="P91" s="92"/>
-      <c r="Q91" s="92"/>
-      <c r="R91" s="92"/>
-      <c r="S91" s="92"/>
-      <c r="T91" s="92"/>
-      <c r="U91" s="92"/>
-      <c r="V91" s="92"/>
-      <c r="W91" s="92"/>
-      <c r="X91" s="92"/>
-      <c r="Y91" s="92"/>
-      <c r="Z91" s="92"/>
-      <c r="AA91" s="92"/>
-      <c r="AB91" s="93"/>
+      <c r="N91" s="105"/>
+      <c r="O91" s="105"/>
+      <c r="P91" s="105"/>
+      <c r="Q91" s="105"/>
+      <c r="R91" s="105"/>
+      <c r="S91" s="105"/>
+      <c r="T91" s="105"/>
+      <c r="U91" s="105"/>
+      <c r="V91" s="105"/>
+      <c r="W91" s="105"/>
+      <c r="X91" s="105"/>
+      <c r="Y91" s="105"/>
+      <c r="Z91" s="105"/>
+      <c r="AA91" s="105"/>
+      <c r="AB91" s="106"/>
     </row>
     <row r="92" spans="3:45" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C92" s="1" t="s">
@@ -5948,15 +6291,15 @@
       <c r="S92" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T92" s="88" t="s">
+      <c r="T92" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="U92" s="89"/>
-      <c r="V92" s="89"/>
-      <c r="W92" s="89"/>
-      <c r="X92" s="89"/>
-      <c r="Y92" s="89"/>
-      <c r="Z92" s="90"/>
+      <c r="U92" s="79"/>
+      <c r="V92" s="79"/>
+      <c r="W92" s="79"/>
+      <c r="X92" s="79"/>
+      <c r="Y92" s="79"/>
+      <c r="Z92" s="80"/>
       <c r="AA92" s="1" t="s">
         <v>9</v>
       </c>
@@ -6186,7 +6529,7 @@
         <v>118</v>
       </c>
       <c r="Y95" s="31" t="s">
-        <v>111</v>
+        <v>286</v>
       </c>
       <c r="Z95" s="31" t="s">
         <v>357</v>
@@ -6200,14 +6543,14 @@
       <c r="C96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D96" s="84"/>
-      <c r="E96" s="85"/>
-      <c r="F96" s="85"/>
-      <c r="G96" s="85"/>
-      <c r="H96" s="85"/>
-      <c r="I96" s="85"/>
-      <c r="J96" s="85"/>
-      <c r="K96" s="86"/>
+      <c r="D96" s="85"/>
+      <c r="E96" s="86"/>
+      <c r="F96" s="86"/>
+      <c r="G96" s="86"/>
+      <c r="H96" s="86"/>
+      <c r="I96" s="86"/>
+      <c r="J96" s="86"/>
+      <c r="K96" s="87"/>
       <c r="M96" s="1" t="s">
         <v>31</v>
       </c>
@@ -6228,41 +6571,60 @@
       <c r="AB96" s="62"/>
     </row>
     <row r="98" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="Y98" s="42">
-        <f>SUM(T94:Y94)</f>
-        <v>18</v>
+      <c r="V98" s="74" t="s">
+        <v>386</v>
+      </c>
+      <c r="W98" s="74" t="s">
+        <v>388</v>
+      </c>
+      <c r="X98" s="74" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y98" s="42" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="V99" s="74" t="s">
+        <v>390</v>
+      </c>
+      <c r="W99" s="74" t="s">
+        <v>390</v>
+      </c>
+      <c r="X99" s="74" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="100" spans="3:30" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C100" s="77" t="s">
+      <c r="C100" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="D100" s="77"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="77"/>
-      <c r="H100" s="77"/>
-      <c r="I100" s="77"/>
-      <c r="J100" s="77"/>
-      <c r="K100" s="77"/>
-      <c r="M100" s="78" t="s">
+      <c r="D100" s="83"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="83"/>
+      <c r="H100" s="83"/>
+      <c r="I100" s="83"/>
+      <c r="J100" s="83"/>
+      <c r="K100" s="83"/>
+      <c r="M100" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="N100" s="79"/>
-      <c r="O100" s="79"/>
-      <c r="P100" s="79"/>
-      <c r="Q100" s="79"/>
-      <c r="R100" s="79"/>
-      <c r="S100" s="79"/>
-      <c r="T100" s="79"/>
-      <c r="U100" s="79"/>
-      <c r="V100" s="79"/>
-      <c r="W100" s="79"/>
-      <c r="X100" s="79"/>
-      <c r="Y100" s="79"/>
-      <c r="Z100" s="79"/>
-      <c r="AA100" s="79"/>
-      <c r="AB100" s="80"/>
+      <c r="N100" s="108"/>
+      <c r="O100" s="108"/>
+      <c r="P100" s="108"/>
+      <c r="Q100" s="108"/>
+      <c r="R100" s="108"/>
+      <c r="S100" s="108"/>
+      <c r="T100" s="108"/>
+      <c r="U100" s="108"/>
+      <c r="V100" s="108"/>
+      <c r="W100" s="108"/>
+      <c r="X100" s="108"/>
+      <c r="Y100" s="108"/>
+      <c r="Z100" s="108"/>
+      <c r="AA100" s="108"/>
+      <c r="AB100" s="109"/>
     </row>
     <row r="101" spans="3:30" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C101" s="1" t="s">
@@ -6313,15 +6675,15 @@
       <c r="S101" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T101" s="81" t="s">
+      <c r="T101" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="U101" s="82"/>
-      <c r="V101" s="82"/>
-      <c r="W101" s="82"/>
-      <c r="X101" s="82"/>
-      <c r="Y101" s="82"/>
-      <c r="Z101" s="83"/>
+      <c r="U101" s="99"/>
+      <c r="V101" s="99"/>
+      <c r="W101" s="99"/>
+      <c r="X101" s="99"/>
+      <c r="Y101" s="99"/>
+      <c r="Z101" s="100"/>
       <c r="AA101" s="1" t="s">
         <v>9</v>
       </c>
@@ -6536,10 +6898,10 @@
         <v>123</v>
       </c>
       <c r="T104" s="31" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="U104" s="31" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="V104" s="31" t="s">
         <v>115</v>
@@ -6565,48 +6927,110 @@
       <c r="C105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D105" s="84"/>
-      <c r="E105" s="85"/>
-      <c r="F105" s="85"/>
-      <c r="G105" s="85"/>
-      <c r="H105" s="85"/>
-      <c r="I105" s="85"/>
-      <c r="J105" s="85"/>
-      <c r="K105" s="86"/>
+      <c r="D105" s="85"/>
+      <c r="E105" s="86"/>
+      <c r="F105" s="86"/>
+      <c r="G105" s="86"/>
+      <c r="H105" s="86"/>
+      <c r="I105" s="86"/>
+      <c r="J105" s="86"/>
+      <c r="K105" s="87"/>
       <c r="M105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N105" s="73"/>
-      <c r="O105" s="74"/>
-      <c r="P105" s="74"/>
-      <c r="Q105" s="74"/>
-      <c r="R105" s="74"/>
-      <c r="S105" s="74"/>
-      <c r="T105" s="74"/>
-      <c r="U105" s="74"/>
-      <c r="V105" s="74"/>
-      <c r="W105" s="74"/>
-      <c r="X105" s="74"/>
-      <c r="Y105" s="74"/>
-      <c r="Z105" s="74"/>
-      <c r="AA105" s="74"/>
-      <c r="AB105" s="87"/>
+      <c r="N105" s="101"/>
+      <c r="O105" s="102"/>
+      <c r="P105" s="102"/>
+      <c r="Q105" s="102"/>
+      <c r="R105" s="102"/>
+      <c r="S105" s="102"/>
+      <c r="T105" s="102"/>
+      <c r="U105" s="102"/>
+      <c r="V105" s="102"/>
+      <c r="W105" s="102"/>
+      <c r="X105" s="102"/>
+      <c r="Y105" s="102"/>
+      <c r="Z105" s="102"/>
+      <c r="AA105" s="102"/>
+      <c r="AB105" s="103"/>
+    </row>
+    <row r="107" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="T107" s="74" t="s">
+        <v>394</v>
+      </c>
+      <c r="U107" s="74" t="s">
+        <v>395</v>
+      </c>
+      <c r="V107" s="74" t="s">
+        <v>391</v>
+      </c>
+      <c r="W107" s="74" t="s">
+        <v>389</v>
+      </c>
+      <c r="X107" s="74" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y107" s="74" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z107" s="74" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="108" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="T108" t="s">
+        <v>390</v>
+      </c>
+      <c r="U108" t="s">
+        <v>390</v>
+      </c>
+      <c r="V108" s="74" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y108" s="74" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="110" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="W110" s="42">
-        <f>SUM(T103:Z103)</f>
-        <v>24</v>
-      </c>
+      <c r="W110" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="T10:AB10"/>
-    <mergeCell ref="N14:AD14"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="M2:V2"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="C9:K9"/>
+  <mergeCells count="50">
+    <mergeCell ref="AL79:AS79"/>
+    <mergeCell ref="N30:X30"/>
+    <mergeCell ref="N22:AA22"/>
+    <mergeCell ref="N42:Y42"/>
+    <mergeCell ref="C100:K100"/>
+    <mergeCell ref="M100:AB100"/>
+    <mergeCell ref="C82:K82"/>
+    <mergeCell ref="D87:K87"/>
+    <mergeCell ref="M82:AA82"/>
+    <mergeCell ref="N87:AA87"/>
+    <mergeCell ref="C73:K73"/>
+    <mergeCell ref="D78:K78"/>
+    <mergeCell ref="T74:AE74"/>
+    <mergeCell ref="M73:AG73"/>
+    <mergeCell ref="AA57:AH57"/>
+    <mergeCell ref="C64:K64"/>
+    <mergeCell ref="T101:Z101"/>
+    <mergeCell ref="D105:K105"/>
+    <mergeCell ref="N105:AB105"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="D96:K96"/>
+    <mergeCell ref="T92:Z92"/>
+    <mergeCell ref="M91:AB91"/>
+    <mergeCell ref="M64:Z64"/>
+    <mergeCell ref="T65:X65"/>
+    <mergeCell ref="D69:K69"/>
+    <mergeCell ref="N69:Z69"/>
+    <mergeCell ref="AA39:AH39"/>
+    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="AA45:AH45"/>
+    <mergeCell ref="AA51:AH51"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="M37:Y37"/>
+    <mergeCell ref="T38:W38"/>
     <mergeCell ref="D22:K22"/>
     <mergeCell ref="C25:K25"/>
     <mergeCell ref="T26:V26"/>
@@ -6615,42 +7039,13 @@
     <mergeCell ref="C17:K17"/>
     <mergeCell ref="M17:AA17"/>
     <mergeCell ref="T18:Y18"/>
-    <mergeCell ref="AA39:AH39"/>
-    <mergeCell ref="D42:K42"/>
-    <mergeCell ref="AA45:AH45"/>
-    <mergeCell ref="AA51:AH51"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="M37:Y37"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="C64:K64"/>
-    <mergeCell ref="M64:Z64"/>
-    <mergeCell ref="T65:X65"/>
-    <mergeCell ref="D69:K69"/>
-    <mergeCell ref="N69:Z69"/>
-    <mergeCell ref="T101:Z101"/>
-    <mergeCell ref="D105:K105"/>
-    <mergeCell ref="N105:AB105"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="D96:K96"/>
-    <mergeCell ref="T92:Z92"/>
-    <mergeCell ref="M91:AB91"/>
-    <mergeCell ref="AL79:AS79"/>
-    <mergeCell ref="N30:X30"/>
-    <mergeCell ref="N22:AA22"/>
-    <mergeCell ref="N42:Y42"/>
-    <mergeCell ref="C100:K100"/>
-    <mergeCell ref="M100:AB100"/>
-    <mergeCell ref="C82:K82"/>
-    <mergeCell ref="D87:K87"/>
-    <mergeCell ref="T83:Y83"/>
-    <mergeCell ref="M82:AA82"/>
-    <mergeCell ref="N87:AA87"/>
-    <mergeCell ref="C73:K73"/>
-    <mergeCell ref="D78:K78"/>
-    <mergeCell ref="T74:AE74"/>
-    <mergeCell ref="M73:AG73"/>
-    <mergeCell ref="AA57:AH57"/>
+    <mergeCell ref="T10:AB10"/>
+    <mergeCell ref="N14:AD14"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="M2:V2"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="C9:K9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6662,8 +7057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:AJ40"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6675,30 +7070,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:36" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113"/>
+      <c r="X2" s="113"/>
       <c r="AA2" s="68" t="s">
         <v>126</v>
       </c>
@@ -6734,21 +7129,21 @@
       <c r="I3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="81" t="s">
+      <c r="J3" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
       <c r="W3" s="1" t="s">
         <v>9</v>
       </c>
@@ -6982,7 +7377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:36" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:36" ht="34.5" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
@@ -7067,8 +7462,8 @@
       <c r="AG6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AH6" s="4" t="s">
-        <v>130</v>
+      <c r="AH6" s="28" t="s">
+        <v>373</v>
       </c>
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4">
@@ -7079,23 +7474,23 @@
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="97"/>
       <c r="AA7" s="1" t="s">
         <v>31</v>
       </c>
@@ -7113,30 +7508,30 @@
     </row>
     <row r="8" spans="3:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="3:36" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="114" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="N9" s="108" t="s">
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="N9" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="108"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="108"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="115"/>
+      <c r="S9" s="115"/>
+      <c r="T9" s="115"/>
+      <c r="U9" s="115"/>
+      <c r="V9" s="115"/>
+      <c r="W9" s="115"/>
     </row>
     <row r="10" spans="3:36" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
@@ -7384,58 +7779,58 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
       <c r="N14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="98"/>
-      <c r="S14" s="98"/>
-      <c r="T14" s="98"/>
-      <c r="U14" s="98"/>
-      <c r="V14" s="98"/>
-      <c r="W14" s="98"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="97"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="97"/>
+      <c r="W14" s="97"/>
     </row>
     <row r="16" spans="3:36" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C16" s="105" t="s">
+      <c r="C16" s="116" t="s">
         <v>354</v>
       </c>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="107"/>
-      <c r="S16" s="108" t="s">
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="118"/>
+      <c r="S16" s="115" t="s">
         <v>355</v>
       </c>
-      <c r="T16" s="108"/>
-      <c r="U16" s="108"/>
-      <c r="V16" s="108"/>
-      <c r="W16" s="108"/>
-      <c r="X16" s="108"/>
-      <c r="Y16" s="108"/>
-      <c r="Z16" s="108"/>
-      <c r="AA16" s="108"/>
-      <c r="AB16" s="108"/>
+      <c r="T16" s="115"/>
+      <c r="U16" s="115"/>
+      <c r="V16" s="115"/>
+      <c r="W16" s="115"/>
+      <c r="X16" s="115"/>
+      <c r="Y16" s="115"/>
+      <c r="Z16" s="115"/>
+      <c r="AA16" s="115"/>
+      <c r="AB16" s="115"/>
     </row>
     <row r="17" spans="3:30" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
@@ -7658,7 +8053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:30" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:30" ht="34.5" x14ac:dyDescent="0.15">
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
@@ -7720,8 +8115,8 @@
       <c r="Y20" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="Z20" s="4" t="s">
-        <v>130</v>
+      <c r="Z20" s="28" t="s">
+        <v>373</v>
       </c>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4">
@@ -7732,53 +8127,53 @@
       <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="87"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="103"/>
       <c r="S21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T21" s="98"/>
-      <c r="U21" s="98"/>
-      <c r="V21" s="98"/>
-      <c r="W21" s="98"/>
-      <c r="X21" s="98"/>
-      <c r="Y21" s="98"/>
-      <c r="Z21" s="98"/>
-      <c r="AA21" s="98"/>
-      <c r="AB21" s="98"/>
+      <c r="T21" s="97"/>
+      <c r="U21" s="97"/>
+      <c r="V21" s="97"/>
+      <c r="W21" s="97"/>
+      <c r="X21" s="97"/>
+      <c r="Y21" s="97"/>
+      <c r="Z21" s="97"/>
+      <c r="AA21" s="97"/>
+      <c r="AB21" s="97"/>
     </row>
     <row r="22" spans="3:30" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="3:30" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C25" s="105" t="s">
+      <c r="C25" s="116" t="s">
         <v>356</v>
       </c>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="107"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="117"/>
+      <c r="Q25" s="117"/>
+      <c r="R25" s="118"/>
       <c r="U25" s="68" t="s">
         <v>355</v>
       </c>
@@ -8020,7 +8415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:30" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:30" ht="34.5" x14ac:dyDescent="0.15">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -8089,8 +8484,8 @@
       <c r="AA29" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="AB29" s="4" t="s">
-        <v>130</v>
+      <c r="AB29" s="28" t="s">
+        <v>373</v>
       </c>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4">
@@ -8101,65 +8496,65 @@
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="87"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="102"/>
+      <c r="O30" s="102"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="102"/>
+      <c r="R30" s="103"/>
       <c r="U30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V30" s="73"/>
-      <c r="W30" s="74"/>
-      <c r="X30" s="74"/>
-      <c r="Y30" s="74"/>
-      <c r="Z30" s="74"/>
-      <c r="AA30" s="74"/>
-      <c r="AB30" s="74"/>
-      <c r="AC30" s="74"/>
-      <c r="AD30" s="87"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="102"/>
+      <c r="X30" s="102"/>
+      <c r="Y30" s="102"/>
+      <c r="Z30" s="102"/>
+      <c r="AA30" s="102"/>
+      <c r="AB30" s="102"/>
+      <c r="AC30" s="102"/>
+      <c r="AD30" s="103"/>
     </row>
     <row r="35" spans="3:30" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C35" s="105" t="s">
+      <c r="C35" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="106"/>
-      <c r="M35" s="106"/>
-      <c r="N35" s="106"/>
-      <c r="O35" s="106"/>
-      <c r="P35" s="106"/>
-      <c r="Q35" s="106"/>
-      <c r="R35" s="107"/>
-      <c r="U35" s="108" t="s">
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="117"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="117"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="117"/>
+      <c r="Q35" s="117"/>
+      <c r="R35" s="118"/>
+      <c r="U35" s="115" t="s">
         <v>355</v>
       </c>
-      <c r="V35" s="108"/>
-      <c r="W35" s="108"/>
-      <c r="X35" s="108"/>
-      <c r="Y35" s="108"/>
-      <c r="Z35" s="108"/>
-      <c r="AA35" s="108"/>
-      <c r="AB35" s="108"/>
-      <c r="AC35" s="108"/>
-      <c r="AD35" s="108"/>
+      <c r="V35" s="115"/>
+      <c r="W35" s="115"/>
+      <c r="X35" s="115"/>
+      <c r="Y35" s="115"/>
+      <c r="Z35" s="115"/>
+      <c r="AA35" s="115"/>
+      <c r="AB35" s="115"/>
+      <c r="AC35" s="115"/>
+      <c r="AD35" s="115"/>
     </row>
     <row r="36" spans="3:30" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C36" s="1" t="s">
@@ -8389,7 +8784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="3:30" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:30" ht="34.5" x14ac:dyDescent="0.15">
       <c r="C39" s="1" t="s">
         <v>23</v>
       </c>
@@ -8458,8 +8853,8 @@
       <c r="AA39" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="AB39" s="4" t="s">
-        <v>130</v>
+      <c r="AB39" s="28" t="s">
+        <v>373</v>
       </c>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4">
@@ -8470,43 +8865,36 @@
       <c r="C40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="73"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="74"/>
-      <c r="Q40" s="74"/>
-      <c r="R40" s="87"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="102"/>
+      <c r="L40" s="102"/>
+      <c r="M40" s="102"/>
+      <c r="N40" s="102"/>
+      <c r="O40" s="102"/>
+      <c r="P40" s="102"/>
+      <c r="Q40" s="102"/>
+      <c r="R40" s="103"/>
       <c r="U40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V40" s="98"/>
-      <c r="W40" s="98"/>
-      <c r="X40" s="98"/>
-      <c r="Y40" s="98"/>
-      <c r="Z40" s="98"/>
-      <c r="AA40" s="98"/>
-      <c r="AB40" s="98"/>
-      <c r="AC40" s="98"/>
-      <c r="AD40" s="98"/>
+      <c r="V40" s="97"/>
+      <c r="W40" s="97"/>
+      <c r="X40" s="97"/>
+      <c r="Y40" s="97"/>
+      <c r="Z40" s="97"/>
+      <c r="AA40" s="97"/>
+      <c r="AB40" s="97"/>
+      <c r="AC40" s="97"/>
+      <c r="AD40" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J3:V3"/>
-    <mergeCell ref="C2:X2"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="N9:W9"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="O14:W14"/>
-    <mergeCell ref="D7:T7"/>
     <mergeCell ref="D40:R40"/>
     <mergeCell ref="V30:AD30"/>
     <mergeCell ref="C25:R25"/>
@@ -8518,6 +8906,13 @@
     <mergeCell ref="V40:AD40"/>
     <mergeCell ref="S16:AB16"/>
     <mergeCell ref="T21:AB21"/>
+    <mergeCell ref="J3:V3"/>
+    <mergeCell ref="C2:X2"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="N9:W9"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="O14:W14"/>
+    <mergeCell ref="D7:T7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8529,8 +8924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:AD113"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y37" sqref="Y37"/>
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S82" sqref="S82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8546,21 +8941,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="119" t="s">
         <v>269</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="123"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="121"/>
     </row>
     <row r="3" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -8584,12 +8979,12 @@
       <c r="I3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="88" t="s">
+      <c r="J3" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="90"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="80"/>
       <c r="N3" s="1" t="s">
         <v>9</v>
       </c>
@@ -8722,34 +9117,34 @@
     <row r="14" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="3:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C16" s="118" t="s">
+      <c r="C16" s="129" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="120"/>
-      <c r="N16" s="124" t="s">
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="131"/>
+      <c r="N16" s="122" t="s">
         <v>222</v>
       </c>
-      <c r="O16" s="124"/>
-      <c r="Q16" s="124" t="s">
+      <c r="O16" s="122"/>
+      <c r="Q16" s="122" t="s">
         <v>225</v>
       </c>
-      <c r="R16" s="124"/>
-      <c r="T16" s="124" t="s">
+      <c r="R16" s="122"/>
+      <c r="T16" s="122" t="s">
         <v>232</v>
       </c>
-      <c r="U16" s="124"/>
-      <c r="W16" s="124" t="s">
+      <c r="U16" s="122"/>
+      <c r="W16" s="122" t="s">
         <v>235</v>
       </c>
-      <c r="X16" s="124"/>
+      <c r="X16" s="122"/>
     </row>
     <row r="17" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
@@ -8998,18 +9393,18 @@
       </c>
     </row>
     <row r="22" spans="3:24" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="129" t="s">
         <v>227</v>
       </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="120"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="131"/>
       <c r="Q22" s="26" t="s">
         <v>231</v>
       </c>
@@ -9184,18 +9579,18 @@
       </c>
     </row>
     <row r="29" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C29" s="118" t="s">
+      <c r="C29" s="129" t="s">
         <v>228</v>
       </c>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="119"/>
-      <c r="K29" s="119"/>
-      <c r="L29" s="120"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="130"/>
+      <c r="L29" s="131"/>
     </row>
     <row r="30" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C30" s="1" t="s">
@@ -9322,18 +9717,18 @@
       </c>
     </row>
     <row r="37" spans="3:30" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C37" s="118" t="s">
+      <c r="C37" s="129" t="s">
         <v>229</v>
       </c>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="119"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="119"/>
-      <c r="K37" s="119"/>
-      <c r="L37" s="120"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="130"/>
+      <c r="F37" s="130"/>
+      <c r="G37" s="130"/>
+      <c r="H37" s="130"/>
+      <c r="I37" s="130"/>
+      <c r="J37" s="130"/>
+      <c r="K37" s="130"/>
+      <c r="L37" s="131"/>
     </row>
     <row r="38" spans="3:30" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
@@ -9460,38 +9855,38 @@
       </c>
     </row>
     <row r="43" spans="3:30" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C43" s="118" t="s">
+      <c r="C43" s="129" t="s">
         <v>368</v>
       </c>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="119"/>
-      <c r="K43" s="119"/>
-      <c r="L43" s="120"/>
-      <c r="N43" s="71" t="s">
+      <c r="D43" s="130"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="130"/>
+      <c r="I43" s="130"/>
+      <c r="J43" s="130"/>
+      <c r="K43" s="130"/>
+      <c r="L43" s="131"/>
+      <c r="N43" s="89" t="s">
         <v>370</v>
       </c>
-      <c r="O43" s="72"/>
-      <c r="P43" s="72"/>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="72"/>
-      <c r="S43" s="72"/>
-      <c r="T43" s="72"/>
-      <c r="U43" s="72"/>
-      <c r="W43" s="71" t="s">
+      <c r="O43" s="90"/>
+      <c r="P43" s="90"/>
+      <c r="Q43" s="90"/>
+      <c r="R43" s="90"/>
+      <c r="S43" s="90"/>
+      <c r="T43" s="90"/>
+      <c r="U43" s="90"/>
+      <c r="W43" s="89" t="s">
         <v>371</v>
       </c>
-      <c r="X43" s="72"/>
-      <c r="Y43" s="72"/>
-      <c r="Z43" s="72"/>
-      <c r="AA43" s="72"/>
-      <c r="AB43" s="72"/>
-      <c r="AC43" s="72"/>
-      <c r="AD43" s="72"/>
+      <c r="X43" s="90"/>
+      <c r="Y43" s="90"/>
+      <c r="Z43" s="90"/>
+      <c r="AA43" s="90"/>
+      <c r="AB43" s="90"/>
+      <c r="AC43" s="90"/>
+      <c r="AD43" s="90"/>
     </row>
     <row r="44" spans="3:30" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C44" s="1" t="s">
@@ -9706,31 +10101,31 @@
       </c>
     </row>
     <row r="51" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C51" s="112" t="s">
+      <c r="C51" s="123" t="s">
         <v>135</v>
       </c>
-      <c r="D51" s="113"/>
-      <c r="E51" s="113"/>
-      <c r="F51" s="113"/>
-      <c r="G51" s="113"/>
-      <c r="H51" s="113"/>
-      <c r="I51" s="113"/>
-      <c r="J51" s="113"/>
-      <c r="K51" s="113"/>
-      <c r="L51" s="114"/>
-      <c r="N51" s="115" t="s">
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="124"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="124"/>
+      <c r="J51" s="124"/>
+      <c r="K51" s="124"/>
+      <c r="L51" s="125"/>
+      <c r="N51" s="126" t="s">
         <v>323</v>
       </c>
-      <c r="O51" s="116"/>
-      <c r="P51" s="116"/>
-      <c r="Q51" s="116"/>
-      <c r="R51" s="116"/>
-      <c r="S51" s="116"/>
-      <c r="T51" s="116"/>
-      <c r="U51" s="116"/>
-      <c r="V51" s="116"/>
-      <c r="W51" s="116"/>
-      <c r="X51" s="117"/>
+      <c r="O51" s="127"/>
+      <c r="P51" s="127"/>
+      <c r="Q51" s="127"/>
+      <c r="R51" s="127"/>
+      <c r="S51" s="127"/>
+      <c r="T51" s="127"/>
+      <c r="U51" s="127"/>
+      <c r="V51" s="127"/>
+      <c r="W51" s="127"/>
+      <c r="X51" s="128"/>
     </row>
     <row r="52" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C52" s="1" t="s">
@@ -9973,17 +10368,17 @@
       </c>
     </row>
     <row r="57" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C57" s="118" t="s">
+      <c r="C57" s="129" t="s">
         <v>337</v>
       </c>
-      <c r="D57" s="119"/>
-      <c r="E57" s="119"/>
-      <c r="F57" s="119"/>
-      <c r="G57" s="119"/>
-      <c r="H57" s="119"/>
-      <c r="I57" s="119"/>
-      <c r="J57" s="119"/>
-      <c r="K57" s="120"/>
+      <c r="D57" s="130"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="130"/>
+      <c r="G57" s="130"/>
+      <c r="H57" s="130"/>
+      <c r="I57" s="130"/>
+      <c r="J57" s="130"/>
+      <c r="K57" s="131"/>
     </row>
     <row r="58" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C58" s="1" t="s">
@@ -10100,31 +10495,31 @@
       </c>
     </row>
     <row r="64" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C64" s="112" t="s">
+      <c r="C64" s="123" t="s">
         <v>287</v>
       </c>
-      <c r="D64" s="113"/>
-      <c r="E64" s="113"/>
-      <c r="F64" s="113"/>
-      <c r="G64" s="113"/>
-      <c r="H64" s="113"/>
-      <c r="I64" s="113"/>
-      <c r="J64" s="113"/>
-      <c r="K64" s="113"/>
-      <c r="L64" s="114"/>
-      <c r="N64" s="115" t="s">
+      <c r="D64" s="124"/>
+      <c r="E64" s="124"/>
+      <c r="F64" s="124"/>
+      <c r="G64" s="124"/>
+      <c r="H64" s="124"/>
+      <c r="I64" s="124"/>
+      <c r="J64" s="124"/>
+      <c r="K64" s="124"/>
+      <c r="L64" s="125"/>
+      <c r="N64" s="126" t="s">
         <v>290</v>
       </c>
-      <c r="O64" s="116"/>
-      <c r="P64" s="116"/>
-      <c r="Q64" s="116"/>
-      <c r="R64" s="116"/>
-      <c r="S64" s="116"/>
-      <c r="T64" s="116"/>
-      <c r="U64" s="116"/>
-      <c r="V64" s="116"/>
-      <c r="W64" s="116"/>
-      <c r="X64" s="117"/>
+      <c r="O64" s="127"/>
+      <c r="P64" s="127"/>
+      <c r="Q64" s="127"/>
+      <c r="R64" s="127"/>
+      <c r="S64" s="127"/>
+      <c r="T64" s="127"/>
+      <c r="U64" s="127"/>
+      <c r="V64" s="127"/>
+      <c r="W64" s="127"/>
+      <c r="X64" s="128"/>
     </row>
     <row r="65" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C65" s="1" t="s">
@@ -10367,31 +10762,31 @@
       </c>
     </row>
     <row r="73" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C73" s="112" t="s">
+      <c r="C73" s="123" t="s">
         <v>288</v>
       </c>
-      <c r="D73" s="113"/>
-      <c r="E73" s="113"/>
-      <c r="F73" s="113"/>
-      <c r="G73" s="113"/>
-      <c r="H73" s="113"/>
-      <c r="I73" s="113"/>
-      <c r="J73" s="113"/>
-      <c r="K73" s="113"/>
-      <c r="L73" s="114"/>
-      <c r="N73" s="115" t="s">
+      <c r="D73" s="124"/>
+      <c r="E73" s="124"/>
+      <c r="F73" s="124"/>
+      <c r="G73" s="124"/>
+      <c r="H73" s="124"/>
+      <c r="I73" s="124"/>
+      <c r="J73" s="124"/>
+      <c r="K73" s="124"/>
+      <c r="L73" s="125"/>
+      <c r="N73" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="O73" s="116"/>
-      <c r="P73" s="116"/>
-      <c r="Q73" s="116"/>
-      <c r="R73" s="116"/>
-      <c r="S73" s="116"/>
-      <c r="T73" s="116"/>
-      <c r="U73" s="116"/>
-      <c r="V73" s="116"/>
-      <c r="W73" s="116"/>
-      <c r="X73" s="117"/>
+      <c r="O73" s="127"/>
+      <c r="P73" s="127"/>
+      <c r="Q73" s="127"/>
+      <c r="R73" s="127"/>
+      <c r="S73" s="127"/>
+      <c r="T73" s="127"/>
+      <c r="U73" s="127"/>
+      <c r="V73" s="127"/>
+      <c r="W73" s="127"/>
+      <c r="X73" s="128"/>
     </row>
     <row r="74" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C74" s="1" t="s">
@@ -10634,17 +11029,17 @@
       </c>
     </row>
     <row r="81" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C81" s="118" t="s">
+      <c r="C81" s="129" t="s">
         <v>291</v>
       </c>
-      <c r="D81" s="119"/>
-      <c r="E81" s="119"/>
-      <c r="F81" s="119"/>
-      <c r="G81" s="119"/>
-      <c r="H81" s="119"/>
-      <c r="I81" s="119"/>
-      <c r="J81" s="119"/>
-      <c r="K81" s="119"/>
+      <c r="D81" s="130"/>
+      <c r="E81" s="130"/>
+      <c r="F81" s="130"/>
+      <c r="G81" s="130"/>
+      <c r="H81" s="130"/>
+      <c r="I81" s="130"/>
+      <c r="J81" s="130"/>
+      <c r="K81" s="130"/>
     </row>
     <row r="82" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C82" s="1" t="s">
@@ -10761,31 +11156,31 @@
       </c>
     </row>
     <row r="89" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C89" s="112" t="s">
+      <c r="C89" s="123" t="s">
         <v>329</v>
       </c>
-      <c r="D89" s="113"/>
-      <c r="E89" s="113"/>
-      <c r="F89" s="113"/>
-      <c r="G89" s="113"/>
-      <c r="H89" s="113"/>
-      <c r="I89" s="113"/>
-      <c r="J89" s="113"/>
-      <c r="K89" s="113"/>
-      <c r="L89" s="114"/>
-      <c r="N89" s="115" t="s">
+      <c r="D89" s="124"/>
+      <c r="E89" s="124"/>
+      <c r="F89" s="124"/>
+      <c r="G89" s="124"/>
+      <c r="H89" s="124"/>
+      <c r="I89" s="124"/>
+      <c r="J89" s="124"/>
+      <c r="K89" s="124"/>
+      <c r="L89" s="125"/>
+      <c r="N89" s="126" t="s">
         <v>336</v>
       </c>
-      <c r="O89" s="116"/>
-      <c r="P89" s="116"/>
-      <c r="Q89" s="116"/>
-      <c r="R89" s="116"/>
-      <c r="S89" s="116"/>
-      <c r="T89" s="116"/>
-      <c r="U89" s="116"/>
-      <c r="V89" s="116"/>
-      <c r="W89" s="116"/>
-      <c r="X89" s="117"/>
+      <c r="O89" s="127"/>
+      <c r="P89" s="127"/>
+      <c r="Q89" s="127"/>
+      <c r="R89" s="127"/>
+      <c r="S89" s="127"/>
+      <c r="T89" s="127"/>
+      <c r="U89" s="127"/>
+      <c r="V89" s="127"/>
+      <c r="W89" s="127"/>
+      <c r="X89" s="128"/>
     </row>
     <row r="90" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C90" s="1" t="s">
@@ -11028,17 +11423,17 @@
       </c>
     </row>
     <row r="101" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C101" s="118" t="s">
+      <c r="C101" s="129" t="s">
         <v>327</v>
       </c>
-      <c r="D101" s="119"/>
-      <c r="E101" s="119"/>
-      <c r="F101" s="119"/>
-      <c r="G101" s="119"/>
-      <c r="H101" s="119"/>
-      <c r="I101" s="119"/>
-      <c r="J101" s="119"/>
-      <c r="K101" s="119"/>
+      <c r="D101" s="130"/>
+      <c r="E101" s="130"/>
+      <c r="F101" s="130"/>
+      <c r="G101" s="130"/>
+      <c r="H101" s="130"/>
+      <c r="I101" s="130"/>
+      <c r="J101" s="130"/>
+      <c r="K101" s="130"/>
     </row>
     <row r="102" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C102" s="1" t="s">
@@ -11155,31 +11550,31 @@
       </c>
     </row>
     <row r="109" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C109" s="112" t="s">
+      <c r="C109" s="123" t="s">
         <v>338</v>
       </c>
-      <c r="D109" s="113"/>
-      <c r="E109" s="113"/>
-      <c r="F109" s="113"/>
-      <c r="G109" s="113"/>
-      <c r="H109" s="113"/>
-      <c r="I109" s="113"/>
-      <c r="J109" s="113"/>
-      <c r="K109" s="113"/>
-      <c r="L109" s="114"/>
-      <c r="N109" s="115" t="s">
-        <v>336</v>
-      </c>
-      <c r="O109" s="116"/>
-      <c r="P109" s="116"/>
-      <c r="Q109" s="116"/>
-      <c r="R109" s="116"/>
-      <c r="S109" s="116"/>
-      <c r="T109" s="116"/>
-      <c r="U109" s="116"/>
-      <c r="V109" s="116"/>
-      <c r="W109" s="116"/>
-      <c r="X109" s="117"/>
+      <c r="D109" s="124"/>
+      <c r="E109" s="124"/>
+      <c r="F109" s="124"/>
+      <c r="G109" s="124"/>
+      <c r="H109" s="124"/>
+      <c r="I109" s="124"/>
+      <c r="J109" s="124"/>
+      <c r="K109" s="124"/>
+      <c r="L109" s="125"/>
+      <c r="N109" s="126" t="s">
+        <v>374</v>
+      </c>
+      <c r="O109" s="127"/>
+      <c r="P109" s="127"/>
+      <c r="Q109" s="127"/>
+      <c r="R109" s="127"/>
+      <c r="S109" s="127"/>
+      <c r="T109" s="127"/>
+      <c r="U109" s="127"/>
+      <c r="V109" s="127"/>
+      <c r="W109" s="127"/>
+      <c r="X109" s="128"/>
     </row>
     <row r="110" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C110" s="1" t="s">
@@ -11403,7 +11798,7 @@
         <v>26</v>
       </c>
       <c r="R113" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="S113" s="22" t="s">
         <v>81</v>
@@ -11412,7 +11807,7 @@
         <v>239</v>
       </c>
       <c r="U113" s="57" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="V113" s="53" t="s">
         <v>9</v>
@@ -11423,6 +11818,17 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C109:L109"/>
+    <mergeCell ref="N109:X109"/>
+    <mergeCell ref="N73:X73"/>
+    <mergeCell ref="N64:X64"/>
+    <mergeCell ref="C101:K101"/>
+    <mergeCell ref="C57:K57"/>
+    <mergeCell ref="C81:K81"/>
+    <mergeCell ref="N89:X89"/>
+    <mergeCell ref="C64:L64"/>
+    <mergeCell ref="C73:L73"/>
+    <mergeCell ref="C89:L89"/>
     <mergeCell ref="C2:O2"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="W16:X16"/>
@@ -11438,17 +11844,6 @@
     <mergeCell ref="C43:L43"/>
     <mergeCell ref="N43:U43"/>
     <mergeCell ref="W43:AD43"/>
-    <mergeCell ref="C57:K57"/>
-    <mergeCell ref="C81:K81"/>
-    <mergeCell ref="N89:X89"/>
-    <mergeCell ref="C64:L64"/>
-    <mergeCell ref="C73:L73"/>
-    <mergeCell ref="C89:L89"/>
-    <mergeCell ref="C109:L109"/>
-    <mergeCell ref="N109:X109"/>
-    <mergeCell ref="N73:X73"/>
-    <mergeCell ref="N64:X64"/>
-    <mergeCell ref="C101:K101"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11461,7 +11856,7 @@
   <dimension ref="B2:H55"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -11475,7 +11870,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="133" t="s">
         <v>139</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -11498,7 +11893,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="127"/>
+      <c r="B4" s="134"/>
       <c r="C4" s="8" t="s">
         <v>140</v>
       </c>
@@ -11543,20 +11938,20 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="135" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
     </row>
     <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="129"/>
+      <c r="B8" s="136"/>
       <c r="C8" s="11" t="s">
         <v>27</v>
       </c>
@@ -11577,7 +11972,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="129"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="12" t="s">
         <v>147</v>
       </c>
@@ -12027,35 +12422,35 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="137" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="L1" s="130" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="L1" s="137" t="s">
         <v>249</v>
       </c>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="53" t="s">
@@ -12290,29 +12685,29 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="137" t="s">
         <v>250</v>
       </c>
-      <c r="B10" s="131"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="L10" s="130" t="s">
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="L10" s="137" t="s">
         <v>249</v>
       </c>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="131"/>
-      <c r="P10" s="131"/>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="131"/>
-      <c r="S10" s="131"/>
-      <c r="T10" s="131"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="138"/>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="138"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
     </row>
     <row r="11" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="53" t="s">
@@ -12562,25 +12957,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:K82"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="139" t="s">
         <v>247</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
     </row>
     <row r="2" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B2" s="53" t="s">
@@ -12669,7 +13064,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4" s="55">
         <v>1</v>
@@ -12707,18 +13102,18 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="139" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B8" s="53" t="s">
@@ -12845,18 +13240,18 @@
       </c>
     </row>
     <row r="13" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="139" t="s">
         <v>254</v>
       </c>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="140"/>
     </row>
     <row r="14" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B14" s="53" t="s">
@@ -12983,18 +13378,18 @@
       </c>
     </row>
     <row r="21" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B21" s="132" t="s">
+      <c r="B21" s="139" t="s">
         <v>255</v>
       </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="133"/>
-      <c r="K21" s="133"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="140"/>
     </row>
     <row r="22" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B22" s="53" t="s">
@@ -13121,18 +13516,18 @@
       </c>
     </row>
     <row r="28" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B28" s="132" t="s">
+      <c r="B28" s="139" t="s">
         <v>256</v>
       </c>
-      <c r="C28" s="133"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="133"/>
-      <c r="K28" s="133"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="140"/>
     </row>
     <row r="29" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B29" s="53" t="s">
@@ -13259,17 +13654,17 @@
       </c>
     </row>
     <row r="34" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B34" s="134" t="s">
+      <c r="B34" s="141" t="s">
         <v>243</v>
       </c>
-      <c r="C34" s="135"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="135"/>
-      <c r="J34" s="135"/>
+      <c r="C34" s="142"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="142"/>
+      <c r="J34" s="142"/>
     </row>
     <row r="35" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B35" s="53" t="s">
@@ -13386,17 +13781,17 @@
       </c>
     </row>
     <row r="40" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B40" s="134" t="s">
+      <c r="B40" s="141" t="s">
         <v>246</v>
       </c>
-      <c r="C40" s="135"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="135"/>
-      <c r="G40" s="135"/>
-      <c r="H40" s="135"/>
-      <c r="I40" s="135"/>
-      <c r="J40" s="135"/>
+      <c r="C40" s="142"/>
+      <c r="D40" s="142"/>
+      <c r="E40" s="142"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="142"/>
+      <c r="J40" s="142"/>
     </row>
     <row r="41" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B41" s="53" t="s">
@@ -13513,17 +13908,17 @@
       </c>
     </row>
     <row r="46" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B46" s="134" t="s">
+      <c r="B46" s="141" t="s">
         <v>245</v>
       </c>
-      <c r="C46" s="135"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="135"/>
-      <c r="F46" s="135"/>
-      <c r="G46" s="135"/>
-      <c r="H46" s="135"/>
-      <c r="I46" s="135"/>
-      <c r="J46" s="135"/>
+      <c r="C46" s="142"/>
+      <c r="D46" s="142"/>
+      <c r="E46" s="142"/>
+      <c r="F46" s="142"/>
+      <c r="G46" s="142"/>
+      <c r="H46" s="142"/>
+      <c r="I46" s="142"/>
+      <c r="J46" s="142"/>
     </row>
     <row r="47" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B47" s="53" t="s">
@@ -13640,17 +14035,17 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B52" s="134" t="s">
+      <c r="B52" s="141" t="s">
         <v>244</v>
       </c>
-      <c r="C52" s="135"/>
-      <c r="D52" s="135"/>
-      <c r="E52" s="135"/>
-      <c r="F52" s="135"/>
-      <c r="G52" s="135"/>
-      <c r="H52" s="135"/>
-      <c r="I52" s="135"/>
-      <c r="J52" s="135"/>
+      <c r="C52" s="142"/>
+      <c r="D52" s="142"/>
+      <c r="E52" s="142"/>
+      <c r="F52" s="142"/>
+      <c r="G52" s="142"/>
+      <c r="H52" s="142"/>
+      <c r="I52" s="142"/>
+      <c r="J52" s="142"/>
     </row>
     <row r="53" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B53" s="53" t="s">
@@ -13767,17 +14162,17 @@
       </c>
     </row>
     <row r="59" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B59" s="134" t="s">
+      <c r="B59" s="141" t="s">
         <v>248</v>
       </c>
-      <c r="C59" s="135"/>
-      <c r="D59" s="135"/>
-      <c r="E59" s="135"/>
-      <c r="F59" s="135"/>
-      <c r="G59" s="135"/>
-      <c r="H59" s="135"/>
-      <c r="I59" s="135"/>
-      <c r="J59" s="135"/>
+      <c r="C59" s="142"/>
+      <c r="D59" s="142"/>
+      <c r="E59" s="142"/>
+      <c r="F59" s="142"/>
+      <c r="G59" s="142"/>
+      <c r="H59" s="142"/>
+      <c r="I59" s="142"/>
+      <c r="J59" s="142"/>
     </row>
     <row r="60" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B60" s="53" t="s">
@@ -13894,17 +14289,17 @@
       </c>
     </row>
     <row r="65" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B65" s="134" t="s">
+      <c r="B65" s="141" t="s">
         <v>306</v>
       </c>
-      <c r="C65" s="135"/>
-      <c r="D65" s="135"/>
-      <c r="E65" s="135"/>
-      <c r="F65" s="135"/>
-      <c r="G65" s="135"/>
-      <c r="H65" s="135"/>
-      <c r="I65" s="135"/>
-      <c r="J65" s="135"/>
+      <c r="C65" s="142"/>
+      <c r="D65" s="142"/>
+      <c r="E65" s="142"/>
+      <c r="F65" s="142"/>
+      <c r="G65" s="142"/>
+      <c r="H65" s="142"/>
+      <c r="I65" s="142"/>
+      <c r="J65" s="142"/>
     </row>
     <row r="66" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B66" s="53" t="s">
@@ -14021,17 +14416,17 @@
       </c>
     </row>
     <row r="71" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B71" s="134" t="s">
+      <c r="B71" s="141" t="s">
         <v>307</v>
       </c>
-      <c r="C71" s="135"/>
-      <c r="D71" s="135"/>
-      <c r="E71" s="135"/>
-      <c r="F71" s="135"/>
-      <c r="G71" s="135"/>
-      <c r="H71" s="135"/>
-      <c r="I71" s="135"/>
-      <c r="J71" s="135"/>
+      <c r="C71" s="142"/>
+      <c r="D71" s="142"/>
+      <c r="E71" s="142"/>
+      <c r="F71" s="142"/>
+      <c r="G71" s="142"/>
+      <c r="H71" s="142"/>
+      <c r="I71" s="142"/>
+      <c r="J71" s="142"/>
     </row>
     <row r="72" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B72" s="53" t="s">
@@ -14148,17 +14543,17 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B78" s="134" t="s">
+      <c r="B78" s="141" t="s">
         <v>308</v>
       </c>
-      <c r="C78" s="135"/>
-      <c r="D78" s="135"/>
-      <c r="E78" s="135"/>
-      <c r="F78" s="135"/>
-      <c r="G78" s="135"/>
-      <c r="H78" s="135"/>
-      <c r="I78" s="135"/>
-      <c r="J78" s="135"/>
+      <c r="C78" s="142"/>
+      <c r="D78" s="142"/>
+      <c r="E78" s="142"/>
+      <c r="F78" s="142"/>
+      <c r="G78" s="142"/>
+      <c r="H78" s="142"/>
+      <c r="I78" s="142"/>
+      <c r="J78" s="142"/>
     </row>
     <row r="79" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B79" s="53" t="s">
@@ -14311,18 +14706,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="143" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="138"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="145"/>
     </row>
     <row r="3" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -14446,17 +14841,17 @@
       <c r="B7" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="139" t="s">
+      <c r="C7" s="146" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="141"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/自动封片机通讯协议.xlsx
+++ b/自动封片机通讯协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\Glass_Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C83F9FB-172D-48CC-AA0A-B15A7BFB9D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B2295A-556A-4E23-91B2-5E601F534AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="查询协议" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="404">
   <si>
     <t>查询：状态：在线状态</t>
   </si>
@@ -1810,10 +1810,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1500-2000</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>7</t>
     </r>
@@ -1942,6 +1938,121 @@
     <t>10-100</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>3000-4000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500-2500</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3a c 5c 2 1 5 1 2 17 1 79 23</t>
+  </si>
+  <si>
+    <r>
+      <t>GE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>speed</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_speed</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GCR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_speed</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_speed</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOH_speed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GOV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_speed</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1950,7 +2061,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2018,6 +2129,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2291,7 +2410,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2526,6 +2645,69 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2535,97 +2717,46 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2637,16 +2768,31 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2661,33 +2807,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2738,6 +2857,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3020,10 +3154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:AS110"/>
+  <dimension ref="C2:AS119"/>
   <sheetViews>
-    <sheetView topLeftCell="I37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH59" sqref="AH59"/>
+    <sheetView tabSelected="1" topLeftCell="N56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF84" sqref="AF84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3040,6 +3174,7 @@
     <col min="25" max="32" width="10.625" customWidth="1"/>
     <col min="33" max="33" width="11.625" customWidth="1"/>
     <col min="34" max="34" width="12" customWidth="1"/>
+    <col min="36" max="36" width="11.75" customWidth="1"/>
     <col min="40" max="40" width="13" customWidth="1"/>
     <col min="41" max="41" width="15" customWidth="1"/>
     <col min="42" max="42" width="15.375" customWidth="1"/>
@@ -3049,29 +3184,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:31" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="M2" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="M2" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
     </row>
     <row r="3" spans="3:31" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -3311,43 +3446,43 @@
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="87"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="92"/>
       <c r="M7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="88" t="s">
+      <c r="N7" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="88"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
     </row>
     <row r="9" spans="3:31" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
       <c r="M9" s="32" t="s">
         <v>35</v>
       </c>
@@ -3417,17 +3552,17 @@
       <c r="S10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="78" t="s">
+      <c r="T10" s="99" t="s">
         <v>268</v>
       </c>
-      <c r="U10" s="79"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="80"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="100"/>
+      <c r="W10" s="100"/>
+      <c r="X10" s="100"/>
+      <c r="Y10" s="100"/>
+      <c r="Z10" s="100"/>
+      <c r="AA10" s="100"/>
+      <c r="AB10" s="101"/>
       <c r="AC10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3672,66 +3807,66 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="87"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
       <c r="M14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="81"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="82"/>
-      <c r="V14" s="82"/>
-      <c r="W14" s="82"/>
-      <c r="X14" s="82"/>
-      <c r="Y14" s="82"/>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="82"/>
-      <c r="AB14" s="82"/>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="82"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="85"/>
+      <c r="AB14" s="85"/>
+      <c r="AC14" s="85"/>
+      <c r="AD14" s="85"/>
     </row>
     <row r="17" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="M17" s="91" t="s">
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="M17" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="92"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="92"/>
-      <c r="V17" s="92"/>
-      <c r="W17" s="92"/>
-      <c r="X17" s="92"/>
-      <c r="Y17" s="92"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="92"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="107"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="107"/>
+      <c r="T17" s="107"/>
+      <c r="U17" s="107"/>
+      <c r="V17" s="107"/>
+      <c r="W17" s="107"/>
+      <c r="X17" s="107"/>
+      <c r="Y17" s="107"/>
+      <c r="Z17" s="107"/>
+      <c r="AA17" s="107"/>
     </row>
     <row r="18" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C18" s="1" t="s">
@@ -3782,14 +3917,14 @@
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T18" s="78" t="s">
+      <c r="T18" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="U18" s="79"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="80"/>
+      <c r="U18" s="100"/>
+      <c r="V18" s="100"/>
+      <c r="W18" s="100"/>
+      <c r="X18" s="100"/>
+      <c r="Y18" s="101"/>
       <c r="Z18" s="1" t="s">
         <v>9</v>
       </c>
@@ -4024,45 +4159,45 @@
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="87"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="92"/>
       <c r="M22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N22" s="81"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="82"/>
-      <c r="U22" s="82"/>
-      <c r="V22" s="82"/>
-      <c r="W22" s="82"/>
-      <c r="X22" s="82"/>
-      <c r="Y22" s="82"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="82"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="85"/>
+      <c r="U22" s="85"/>
+      <c r="V22" s="85"/>
+      <c r="W22" s="85"/>
+      <c r="X22" s="85"/>
+      <c r="Y22" s="85"/>
+      <c r="Z22" s="85"/>
+      <c r="AA22" s="85"/>
     </row>
     <row r="23" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
       <c r="M25" s="33" t="s">
         <v>53</v>
       </c>
@@ -4127,11 +4262,11 @@
       <c r="S26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T26" s="93" t="s">
+      <c r="T26" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="U26" s="94"/>
-      <c r="V26" s="94"/>
+      <c r="U26" s="109"/>
+      <c r="V26" s="109"/>
       <c r="W26" s="1" t="s">
         <v>9</v>
       </c>
@@ -4203,16 +4338,16 @@
       <c r="X27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA27" s="89" t="s">
+      <c r="AA27" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="AB27" s="90"/>
-      <c r="AC27" s="90"/>
-      <c r="AD27" s="90"/>
-      <c r="AE27" s="90"/>
-      <c r="AF27" s="90"/>
-      <c r="AG27" s="90"/>
-      <c r="AH27" s="90"/>
+      <c r="AB27" s="81"/>
+      <c r="AC27" s="81"/>
+      <c r="AD27" s="81"/>
+      <c r="AE27" s="81"/>
+      <c r="AF27" s="81"/>
+      <c r="AG27" s="81"/>
+      <c r="AH27" s="81"/>
     </row>
     <row r="28" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C28" s="1" t="s">
@@ -4270,7 +4405,7 @@
         <v>1</v>
       </c>
       <c r="V28" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W28" s="3">
         <v>1</v>
@@ -4280,7 +4415,7 @@
       </c>
       <c r="Y28" s="42">
         <f>SUM(N28:X28)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA28" s="4" t="s">
         <v>56</v>
@@ -4342,7 +4477,7 @@
       </c>
       <c r="O29" s="3">
         <f>SUM(N28:X28)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>26</v>
@@ -4396,61 +4531,66 @@
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="85"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="87"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="92"/>
       <c r="M30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N30" s="101"/>
-      <c r="O30" s="102"/>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="102"/>
-      <c r="R30" s="102"/>
-      <c r="S30" s="102"/>
-      <c r="T30" s="102"/>
-      <c r="U30" s="102"/>
-      <c r="V30" s="102"/>
-      <c r="W30" s="102"/>
-      <c r="X30" s="102"/>
-    </row>
-    <row r="35" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="N30" s="82"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="83"/>
+      <c r="V30" s="83"/>
+      <c r="W30" s="83"/>
+      <c r="X30" s="83"/>
+    </row>
+    <row r="35" spans="3:36" x14ac:dyDescent="0.15">
       <c r="Y35" s="73"/>
     </row>
-    <row r="37" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C37" s="83" t="s">
+    <row r="36" spans="3:36" x14ac:dyDescent="0.15">
+      <c r="AJ36" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="37" spans="3:36" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="C37" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
-      <c r="M37" s="91" t="s">
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
+      <c r="M37" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="N37" s="92"/>
-      <c r="O37" s="92"/>
-      <c r="P37" s="92"/>
-      <c r="Q37" s="92"/>
-      <c r="R37" s="92"/>
-      <c r="S37" s="92"/>
-      <c r="T37" s="92"/>
-      <c r="U37" s="92"/>
-      <c r="V37" s="92"/>
-      <c r="W37" s="92"/>
-      <c r="X37" s="92"/>
-      <c r="Y37" s="92"/>
-    </row>
-    <row r="38" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="N37" s="107"/>
+      <c r="O37" s="107"/>
+      <c r="P37" s="107"/>
+      <c r="Q37" s="107"/>
+      <c r="R37" s="107"/>
+      <c r="S37" s="107"/>
+      <c r="T37" s="107"/>
+      <c r="U37" s="107"/>
+      <c r="V37" s="107"/>
+      <c r="W37" s="107"/>
+      <c r="X37" s="107"/>
+      <c r="Y37" s="107"/>
+    </row>
+    <row r="38" spans="3:36" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -4499,12 +4639,12 @@
       <c r="S38" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T38" s="78" t="s">
+      <c r="T38" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="U38" s="79"/>
-      <c r="V38" s="79"/>
-      <c r="W38" s="79"/>
+      <c r="U38" s="100"/>
+      <c r="V38" s="100"/>
+      <c r="W38" s="100"/>
       <c r="X38" s="1" t="s">
         <v>9</v>
       </c>
@@ -4512,7 +4652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="3:34" ht="34.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:36" ht="34.5" x14ac:dyDescent="0.15">
       <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
@@ -4579,18 +4719,18 @@
       <c r="Y39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA39" s="89" t="s">
+      <c r="AA39" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="AB39" s="90"/>
-      <c r="AC39" s="90"/>
-      <c r="AD39" s="90"/>
-      <c r="AE39" s="90"/>
-      <c r="AF39" s="90"/>
-      <c r="AG39" s="90"/>
-      <c r="AH39" s="90"/>
-    </row>
-    <row r="40" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="AB39" s="81"/>
+      <c r="AC39" s="81"/>
+      <c r="AD39" s="81"/>
+      <c r="AE39" s="81"/>
+      <c r="AF39" s="81"/>
+      <c r="AG39" s="81"/>
+      <c r="AH39" s="81"/>
+    </row>
+    <row r="40" spans="3:36" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C40" s="1" t="s">
         <v>22</v>
       </c>
@@ -4686,7 +4826,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:36" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C41" s="1" t="s">
         <v>23</v>
       </c>
@@ -4758,47 +4898,47 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:36" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="85"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="87"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="92"/>
       <c r="M42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="81"/>
-      <c r="O42" s="82"/>
-      <c r="P42" s="82"/>
-      <c r="Q42" s="82"/>
-      <c r="R42" s="82"/>
-      <c r="S42" s="82"/>
-      <c r="T42" s="82"/>
-      <c r="U42" s="82"/>
-      <c r="V42" s="82"/>
-      <c r="W42" s="82"/>
-      <c r="X42" s="82"/>
-      <c r="Y42" s="82"/>
-    </row>
-    <row r="45" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA45" s="89" t="s">
+      <c r="N42" s="84"/>
+      <c r="O42" s="85"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="85"/>
+      <c r="R42" s="85"/>
+      <c r="S42" s="85"/>
+      <c r="T42" s="85"/>
+      <c r="U42" s="85"/>
+      <c r="V42" s="85"/>
+      <c r="W42" s="85"/>
+      <c r="X42" s="85"/>
+      <c r="Y42" s="85"/>
+    </row>
+    <row r="45" spans="3:36" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="AA45" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="AB45" s="90"/>
-      <c r="AC45" s="90"/>
-      <c r="AD45" s="90"/>
-      <c r="AE45" s="90"/>
-      <c r="AF45" s="90"/>
-      <c r="AG45" s="90"/>
-      <c r="AH45" s="90"/>
-    </row>
-    <row r="46" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="AB45" s="81"/>
+      <c r="AC45" s="81"/>
+      <c r="AD45" s="81"/>
+      <c r="AE45" s="81"/>
+      <c r="AF45" s="81"/>
+      <c r="AG45" s="81"/>
+      <c r="AH45" s="81"/>
+    </row>
+    <row r="46" spans="3:36" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA46" s="4" t="s">
         <v>56</v>
       </c>
@@ -4824,7 +4964,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:36" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
@@ -4841,16 +4981,16 @@
       </c>
     </row>
     <row r="51" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA51" s="89" t="s">
+      <c r="AA51" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="AB51" s="90"/>
-      <c r="AC51" s="90"/>
-      <c r="AD51" s="90"/>
-      <c r="AE51" s="90"/>
-      <c r="AF51" s="90"/>
-      <c r="AG51" s="90"/>
-      <c r="AH51" s="90"/>
+      <c r="AB51" s="81"/>
+      <c r="AC51" s="81"/>
+      <c r="AD51" s="81"/>
+      <c r="AE51" s="81"/>
+      <c r="AF51" s="81"/>
+      <c r="AG51" s="81"/>
+      <c r="AH51" s="81"/>
     </row>
     <row r="52" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA52" s="4" t="s">
@@ -4899,16 +5039,16 @@
       </c>
     </row>
     <row r="57" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA57" s="89" t="s">
+      <c r="AA57" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="AB57" s="90"/>
-      <c r="AC57" s="90"/>
-      <c r="AD57" s="90"/>
-      <c r="AE57" s="90"/>
-      <c r="AF57" s="90"/>
-      <c r="AG57" s="90"/>
-      <c r="AH57" s="90"/>
+      <c r="AB57" s="81"/>
+      <c r="AC57" s="81"/>
+      <c r="AD57" s="81"/>
+      <c r="AE57" s="81"/>
+      <c r="AF57" s="81"/>
+      <c r="AG57" s="81"/>
+      <c r="AH57" s="81"/>
     </row>
     <row r="58" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA58" s="4" t="s">
@@ -4959,33 +5099,33 @@
       </c>
     </row>
     <row r="64" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C64" s="83" t="s">
+      <c r="C64" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="83"/>
-      <c r="H64" s="83"/>
-      <c r="I64" s="83"/>
-      <c r="J64" s="83"/>
-      <c r="K64" s="83"/>
-      <c r="M64" s="95" t="s">
+      <c r="D64" s="86"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="H64" s="86"/>
+      <c r="I64" s="86"/>
+      <c r="J64" s="86"/>
+      <c r="K64" s="86"/>
+      <c r="M64" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="N64" s="95"/>
-      <c r="O64" s="95"/>
-      <c r="P64" s="95"/>
-      <c r="Q64" s="95"/>
-      <c r="R64" s="95"/>
-      <c r="S64" s="95"/>
-      <c r="T64" s="95"/>
-      <c r="U64" s="95"/>
-      <c r="V64" s="95"/>
-      <c r="W64" s="95"/>
-      <c r="X64" s="95"/>
-      <c r="Y64" s="95"/>
-      <c r="Z64" s="95"/>
+      <c r="N64" s="103"/>
+      <c r="O64" s="103"/>
+      <c r="P64" s="103"/>
+      <c r="Q64" s="103"/>
+      <c r="R64" s="103"/>
+      <c r="S64" s="103"/>
+      <c r="T64" s="103"/>
+      <c r="U64" s="103"/>
+      <c r="V64" s="103"/>
+      <c r="W64" s="103"/>
+      <c r="X64" s="103"/>
+      <c r="Y64" s="103"/>
+      <c r="Z64" s="103"/>
     </row>
     <row r="65" spans="3:45" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C65" s="1" t="s">
@@ -5036,13 +5176,13 @@
       <c r="S65" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T65" s="96" t="s">
+      <c r="T65" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="U65" s="96"/>
-      <c r="V65" s="96"/>
-      <c r="W65" s="96"/>
-      <c r="X65" s="96"/>
+      <c r="U65" s="104"/>
+      <c r="V65" s="104"/>
+      <c r="W65" s="104"/>
+      <c r="X65" s="104"/>
       <c r="Y65" s="1" t="s">
         <v>9</v>
       </c>
@@ -5258,70 +5398,70 @@
       <c r="C69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D69" s="85" t="s">
+      <c r="D69" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E69" s="86"/>
-      <c r="F69" s="86"/>
-      <c r="G69" s="86"/>
-      <c r="H69" s="86"/>
-      <c r="I69" s="86"/>
-      <c r="J69" s="86"/>
-      <c r="K69" s="87"/>
+      <c r="E69" s="91"/>
+      <c r="F69" s="91"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="91"/>
+      <c r="I69" s="91"/>
+      <c r="J69" s="91"/>
+      <c r="K69" s="92"/>
       <c r="M69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N69" s="97" t="s">
+      <c r="N69" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="O69" s="97"/>
-      <c r="P69" s="97"/>
-      <c r="Q69" s="97"/>
-      <c r="R69" s="97"/>
-      <c r="S69" s="97"/>
-      <c r="T69" s="97"/>
-      <c r="U69" s="97"/>
-      <c r="V69" s="97"/>
-      <c r="W69" s="97"/>
-      <c r="X69" s="97"/>
-      <c r="Y69" s="97"/>
-      <c r="Z69" s="97"/>
+      <c r="O69" s="105"/>
+      <c r="P69" s="105"/>
+      <c r="Q69" s="105"/>
+      <c r="R69" s="105"/>
+      <c r="S69" s="105"/>
+      <c r="T69" s="105"/>
+      <c r="U69" s="105"/>
+      <c r="V69" s="105"/>
+      <c r="W69" s="105"/>
+      <c r="X69" s="105"/>
+      <c r="Y69" s="105"/>
+      <c r="Z69" s="105"/>
     </row>
     <row r="73" spans="3:45" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C73" s="83" t="s">
+      <c r="C73" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="83"/>
-      <c r="J73" s="83"/>
-      <c r="K73" s="83"/>
-      <c r="M73" s="110" t="s">
+      <c r="D73" s="86"/>
+      <c r="E73" s="86"/>
+      <c r="F73" s="86"/>
+      <c r="G73" s="86"/>
+      <c r="H73" s="86"/>
+      <c r="I73" s="86"/>
+      <c r="J73" s="86"/>
+      <c r="K73" s="86"/>
+      <c r="M73" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="N73" s="111"/>
-      <c r="O73" s="111"/>
-      <c r="P73" s="111"/>
-      <c r="Q73" s="111"/>
-      <c r="R73" s="111"/>
-      <c r="S73" s="111"/>
-      <c r="T73" s="111"/>
-      <c r="U73" s="111"/>
-      <c r="V73" s="111"/>
-      <c r="W73" s="111"/>
-      <c r="X73" s="111"/>
-      <c r="Y73" s="111"/>
-      <c r="Z73" s="111"/>
-      <c r="AA73" s="111"/>
-      <c r="AB73" s="111"/>
-      <c r="AC73" s="111"/>
-      <c r="AD73" s="111"/>
-      <c r="AE73" s="111"/>
-      <c r="AF73" s="111"/>
-      <c r="AG73" s="111"/>
+      <c r="N73" s="150"/>
+      <c r="O73" s="150"/>
+      <c r="P73" s="150"/>
+      <c r="Q73" s="150"/>
+      <c r="R73" s="150"/>
+      <c r="S73" s="150"/>
+      <c r="T73" s="150"/>
+      <c r="U73" s="150"/>
+      <c r="V73" s="150"/>
+      <c r="W73" s="150"/>
+      <c r="X73" s="150"/>
+      <c r="Y73" s="150"/>
+      <c r="Z73" s="150"/>
+      <c r="AA73" s="150"/>
+      <c r="AB73" s="150"/>
+      <c r="AC73" s="150"/>
+      <c r="AD73" s="150"/>
+      <c r="AE73" s="150"/>
+      <c r="AF73" s="150"/>
+      <c r="AG73" s="150"/>
     </row>
     <row r="74" spans="3:45" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C74" s="1" t="s">
@@ -5372,25 +5512,24 @@
       <c r="S74" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T74" s="98" t="s">
+      <c r="T74" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="U74" s="99"/>
-      <c r="V74" s="99"/>
-      <c r="W74" s="99"/>
-      <c r="X74" s="99"/>
-      <c r="Y74" s="99"/>
-      <c r="Z74" s="99"/>
-      <c r="AA74" s="99"/>
-      <c r="AB74" s="99"/>
-      <c r="AC74" s="99"/>
-      <c r="AD74" s="99"/>
-      <c r="AE74" s="100"/>
-      <c r="AF74" s="1"/>
+      <c r="U74" s="153"/>
+      <c r="V74" s="153"/>
+      <c r="W74" s="153"/>
+      <c r="X74" s="153"/>
+      <c r="Y74" s="153"/>
+      <c r="Z74" s="153"/>
+      <c r="AA74" s="153"/>
+      <c r="AB74" s="153"/>
+      <c r="AC74" s="153"/>
+      <c r="AD74" s="153"/>
+      <c r="AE74" s="153"/>
+      <c r="AF74" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="AG74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH74" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5443,49 +5582,36 @@
       <c r="S75" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="T75" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="U75" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="V75" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="W75" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="X75" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y75" s="49" t="s">
-        <v>214</v>
+      <c r="T75" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="U75" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="V75" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="W75" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="X75" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y75" s="27" t="s">
+        <v>403</v>
       </c>
       <c r="Z75" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA75" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB75" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC75" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD75" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE75" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF75" s="49" t="s">
         <v>342</v>
       </c>
+      <c r="AA75" s="49"/>
+      <c r="AB75" s="49"/>
+      <c r="AC75" s="49"/>
+      <c r="AD75" s="49"/>
+      <c r="AE75" s="49"/>
+      <c r="AF75" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="AG75" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH75" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5545,46 +5671,43 @@
         <v>1</v>
       </c>
       <c r="V76" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W76" s="3">
         <v>1</v>
       </c>
       <c r="X76" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y76" s="3">
-        <v>2</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB76" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC76" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD76" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE76" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF76" s="66">
+        <v>1</v>
+      </c>
+      <c r="Z76" s="151">
+        <v>1</v>
+      </c>
+      <c r="AA76" s="151">
+        <v>1</v>
+      </c>
+      <c r="AB76" s="151">
+        <v>1</v>
+      </c>
+      <c r="AC76" s="151">
+        <v>1</v>
+      </c>
+      <c r="AD76" s="151">
+        <v>1</v>
+      </c>
+      <c r="AE76" s="151">
+        <v>1</v>
+      </c>
+      <c r="AF76" s="3">
         <v>1</v>
       </c>
       <c r="AG76" s="3">
         <v>1</v>
       </c>
-      <c r="AH76" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="3:45" ht="17.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="3:45" ht="34.5" x14ac:dyDescent="0.15">
       <c r="C77" s="1" t="s">
         <v>23</v>
       </c>
@@ -5617,8 +5740,8 @@
         <v>24</v>
       </c>
       <c r="O77" s="3">
-        <f>SUM(N76:AH76)</f>
-        <v>23</v>
+        <f>SUM(N76:AG76)</f>
+        <v>21</v>
       </c>
       <c r="P77" s="4" t="s">
         <v>26</v>
@@ -5635,61 +5758,60 @@
       <c r="T77" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="U77" s="50" t="s">
+      <c r="U77" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="V77" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="W77" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="X77" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="V77" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="W77" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="X77" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y77" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="Z77" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA77" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB77" s="50" t="s">
+      <c r="Y77" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="AC77" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD77" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE77" s="50" t="s">
-        <v>190</v>
+      <c r="Z77" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA77" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB77" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC77" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="AD77" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE77" s="28" t="s">
+        <v>345</v>
       </c>
       <c r="AF77" s="4"/>
-      <c r="AG77" s="4"/>
-      <c r="AH77" s="4">
+      <c r="AG77" s="4">
         <v>23</v>
       </c>
-      <c r="AI77" s="42">
-        <f>SUM(N76:AH76)</f>
-        <v>23</v>
+      <c r="AH77" s="42">
+        <f>SUM(N76:AG76)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="3:45" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="85"/>
-      <c r="E78" s="86"/>
-      <c r="F78" s="86"/>
-      <c r="G78" s="86"/>
-      <c r="H78" s="86"/>
-      <c r="I78" s="86"/>
-      <c r="J78" s="86"/>
-      <c r="K78" s="87"/>
+      <c r="D78" s="90"/>
+      <c r="E78" s="91"/>
+      <c r="F78" s="91"/>
+      <c r="G78" s="91"/>
+      <c r="H78" s="91"/>
+      <c r="I78" s="91"/>
+      <c r="J78" s="91"/>
+      <c r="K78" s="92"/>
       <c r="M78" s="1" t="s">
         <v>31</v>
       </c>
@@ -5706,26 +5828,23 @@
       <c r="X78" s="48"/>
       <c r="Y78" s="48"/>
       <c r="Z78" s="48"/>
-      <c r="AA78" s="48"/>
-      <c r="AB78" s="48"/>
-      <c r="AC78" s="48"/>
+      <c r="AA78" s="63"/>
+      <c r="AB78" s="63"/>
+      <c r="AC78" s="63"/>
       <c r="AD78" s="63"/>
       <c r="AE78" s="63"/>
-      <c r="AF78" s="63"/>
-      <c r="AG78" s="63"/>
-      <c r="AH78" s="63"/>
     </row>
     <row r="79" spans="3:45" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AL79" s="89" t="s">
+      <c r="AL79" s="80" t="s">
         <v>342</v>
       </c>
-      <c r="AM79" s="90"/>
-      <c r="AN79" s="90"/>
-      <c r="AO79" s="90"/>
-      <c r="AP79" s="90"/>
-      <c r="AQ79" s="90"/>
-      <c r="AR79" s="90"/>
-      <c r="AS79" s="90"/>
+      <c r="AM79" s="81"/>
+      <c r="AN79" s="81"/>
+      <c r="AO79" s="81"/>
+      <c r="AP79" s="81"/>
+      <c r="AQ79" s="81"/>
+      <c r="AR79" s="81"/>
+      <c r="AS79" s="81"/>
     </row>
     <row r="80" spans="3:45" ht="17.25" x14ac:dyDescent="0.15">
       <c r="T80" s="76" t="s">
@@ -5822,34 +5941,34 @@
       </c>
     </row>
     <row r="82" spans="3:45" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C82" s="83" t="s">
+      <c r="C82" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="D82" s="83"/>
-      <c r="E82" s="83"/>
-      <c r="F82" s="83"/>
-      <c r="G82" s="83"/>
-      <c r="H82" s="83"/>
-      <c r="I82" s="83"/>
-      <c r="J82" s="83"/>
-      <c r="K82" s="83"/>
-      <c r="M82" s="104" t="s">
+      <c r="D82" s="86"/>
+      <c r="E82" s="86"/>
+      <c r="F82" s="86"/>
+      <c r="G82" s="86"/>
+      <c r="H82" s="86"/>
+      <c r="I82" s="86"/>
+      <c r="J82" s="86"/>
+      <c r="K82" s="86"/>
+      <c r="M82" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="N82" s="105"/>
-      <c r="O82" s="105"/>
-      <c r="P82" s="105"/>
-      <c r="Q82" s="105"/>
-      <c r="R82" s="105"/>
-      <c r="S82" s="105"/>
-      <c r="T82" s="105"/>
-      <c r="U82" s="105"/>
-      <c r="V82" s="105"/>
-      <c r="W82" s="105"/>
-      <c r="X82" s="105"/>
-      <c r="Y82" s="105"/>
-      <c r="Z82" s="105"/>
-      <c r="AA82" s="105"/>
+      <c r="N82" s="94"/>
+      <c r="O82" s="94"/>
+      <c r="P82" s="94"/>
+      <c r="Q82" s="94"/>
+      <c r="R82" s="94"/>
+      <c r="S82" s="94"/>
+      <c r="T82" s="94"/>
+      <c r="U82" s="94"/>
+      <c r="V82" s="94"/>
+      <c r="W82" s="94"/>
+      <c r="X82" s="94"/>
+      <c r="Y82" s="94"/>
+      <c r="Z82" s="94"/>
+      <c r="AA82" s="94"/>
     </row>
     <row r="83" spans="3:45" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C83" s="1" t="s">
@@ -5984,7 +6103,7 @@
         <v>211</v>
       </c>
       <c r="Z84" s="27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AA84" s="1" t="s">
         <v>19</v>
@@ -6148,31 +6267,31 @@
       <c r="C87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D87" s="85"/>
-      <c r="E87" s="86"/>
-      <c r="F87" s="86"/>
-      <c r="G87" s="86"/>
-      <c r="H87" s="86"/>
-      <c r="I87" s="86"/>
-      <c r="J87" s="86"/>
-      <c r="K87" s="87"/>
+      <c r="D87" s="90"/>
+      <c r="E87" s="91"/>
+      <c r="F87" s="91"/>
+      <c r="G87" s="91"/>
+      <c r="H87" s="91"/>
+      <c r="I87" s="91"/>
+      <c r="J87" s="91"/>
+      <c r="K87" s="92"/>
       <c r="M87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N87" s="101"/>
-      <c r="O87" s="102"/>
-      <c r="P87" s="102"/>
-      <c r="Q87" s="102"/>
-      <c r="R87" s="102"/>
-      <c r="S87" s="102"/>
-      <c r="T87" s="102"/>
-      <c r="U87" s="102"/>
-      <c r="V87" s="102"/>
-      <c r="W87" s="102"/>
-      <c r="X87" s="102"/>
-      <c r="Y87" s="102"/>
-      <c r="Z87" s="102"/>
-      <c r="AA87" s="102"/>
+      <c r="N87" s="82"/>
+      <c r="O87" s="83"/>
+      <c r="P87" s="83"/>
+      <c r="Q87" s="83"/>
+      <c r="R87" s="83"/>
+      <c r="S87" s="83"/>
+      <c r="T87" s="83"/>
+      <c r="U87" s="83"/>
+      <c r="V87" s="83"/>
+      <c r="W87" s="83"/>
+      <c r="X87" s="83"/>
+      <c r="Y87" s="83"/>
+      <c r="Z87" s="83"/>
+      <c r="AA87" s="83"/>
     </row>
     <row r="88" spans="3:45" x14ac:dyDescent="0.15">
       <c r="Y88" s="75"/>
@@ -6193,54 +6312,54 @@
       <c r="X89" s="74" t="s">
         <v>384</v>
       </c>
-      <c r="Y89" s="74" t="s">
-        <v>385</v>
+      <c r="Y89" s="78" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="90" spans="3:45" x14ac:dyDescent="0.15">
       <c r="V90" s="74" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="W90" s="74" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X90" s="74" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Y90" s="74" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="91" spans="3:45" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C91" s="83" t="s">
+      <c r="C91" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="D91" s="83"/>
-      <c r="E91" s="83"/>
-      <c r="F91" s="83"/>
-      <c r="G91" s="83"/>
-      <c r="H91" s="83"/>
-      <c r="I91" s="83"/>
-      <c r="J91" s="83"/>
-      <c r="K91" s="83"/>
-      <c r="M91" s="104" t="s">
+      <c r="D91" s="86"/>
+      <c r="E91" s="86"/>
+      <c r="F91" s="86"/>
+      <c r="G91" s="86"/>
+      <c r="H91" s="86"/>
+      <c r="I91" s="86"/>
+      <c r="J91" s="86"/>
+      <c r="K91" s="86"/>
+      <c r="M91" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="N91" s="105"/>
-      <c r="O91" s="105"/>
-      <c r="P91" s="105"/>
-      <c r="Q91" s="105"/>
-      <c r="R91" s="105"/>
-      <c r="S91" s="105"/>
-      <c r="T91" s="105"/>
-      <c r="U91" s="105"/>
-      <c r="V91" s="105"/>
-      <c r="W91" s="105"/>
-      <c r="X91" s="105"/>
-      <c r="Y91" s="105"/>
-      <c r="Z91" s="105"/>
-      <c r="AA91" s="105"/>
-      <c r="AB91" s="106"/>
+      <c r="N91" s="94"/>
+      <c r="O91" s="94"/>
+      <c r="P91" s="94"/>
+      <c r="Q91" s="94"/>
+      <c r="R91" s="94"/>
+      <c r="S91" s="94"/>
+      <c r="T91" s="94"/>
+      <c r="U91" s="94"/>
+      <c r="V91" s="94"/>
+      <c r="W91" s="94"/>
+      <c r="X91" s="94"/>
+      <c r="Y91" s="94"/>
+      <c r="Z91" s="94"/>
+      <c r="AA91" s="94"/>
+      <c r="AB91" s="102"/>
     </row>
     <row r="92" spans="3:45" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C92" s="1" t="s">
@@ -6291,15 +6410,15 @@
       <c r="S92" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T92" s="78" t="s">
+      <c r="T92" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="U92" s="79"/>
-      <c r="V92" s="79"/>
-      <c r="W92" s="79"/>
-      <c r="X92" s="79"/>
-      <c r="Y92" s="79"/>
-      <c r="Z92" s="80"/>
+      <c r="U92" s="100"/>
+      <c r="V92" s="100"/>
+      <c r="W92" s="100"/>
+      <c r="X92" s="100"/>
+      <c r="Y92" s="100"/>
+      <c r="Z92" s="101"/>
       <c r="AA92" s="1" t="s">
         <v>9</v>
       </c>
@@ -6543,14 +6662,14 @@
       <c r="C96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D96" s="85"/>
-      <c r="E96" s="86"/>
-      <c r="F96" s="86"/>
-      <c r="G96" s="86"/>
-      <c r="H96" s="86"/>
-      <c r="I96" s="86"/>
-      <c r="J96" s="86"/>
-      <c r="K96" s="87"/>
+      <c r="D96" s="90"/>
+      <c r="E96" s="91"/>
+      <c r="F96" s="91"/>
+      <c r="G96" s="91"/>
+      <c r="H96" s="91"/>
+      <c r="I96" s="91"/>
+      <c r="J96" s="91"/>
+      <c r="K96" s="92"/>
       <c r="M96" s="1" t="s">
         <v>31</v>
       </c>
@@ -6572,13 +6691,13 @@
     </row>
     <row r="98" spans="3:30" x14ac:dyDescent="0.15">
       <c r="V98" s="74" t="s">
+        <v>385</v>
+      </c>
+      <c r="W98" s="74" t="s">
+        <v>387</v>
+      </c>
+      <c r="X98" s="74" t="s">
         <v>386</v>
-      </c>
-      <c r="W98" s="74" t="s">
-        <v>388</v>
-      </c>
-      <c r="X98" s="74" t="s">
-        <v>387</v>
       </c>
       <c r="Y98" s="42" t="s">
         <v>378</v>
@@ -6586,45 +6705,45 @@
     </row>
     <row r="99" spans="3:30" x14ac:dyDescent="0.15">
       <c r="V99" s="74" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="W99" s="74" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X99" s="74" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="100" spans="3:30" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C100" s="83" t="s">
+      <c r="C100" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="D100" s="83"/>
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="83"/>
-      <c r="H100" s="83"/>
-      <c r="I100" s="83"/>
-      <c r="J100" s="83"/>
-      <c r="K100" s="83"/>
-      <c r="M100" s="107" t="s">
+      <c r="D100" s="86"/>
+      <c r="E100" s="86"/>
+      <c r="F100" s="86"/>
+      <c r="G100" s="86"/>
+      <c r="H100" s="86"/>
+      <c r="I100" s="86"/>
+      <c r="J100" s="86"/>
+      <c r="K100" s="86"/>
+      <c r="M100" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="N100" s="108"/>
-      <c r="O100" s="108"/>
-      <c r="P100" s="108"/>
-      <c r="Q100" s="108"/>
-      <c r="R100" s="108"/>
-      <c r="S100" s="108"/>
-      <c r="T100" s="108"/>
-      <c r="U100" s="108"/>
-      <c r="V100" s="108"/>
-      <c r="W100" s="108"/>
-      <c r="X100" s="108"/>
-      <c r="Y100" s="108"/>
-      <c r="Z100" s="108"/>
-      <c r="AA100" s="108"/>
-      <c r="AB100" s="109"/>
+      <c r="N100" s="88"/>
+      <c r="O100" s="88"/>
+      <c r="P100" s="88"/>
+      <c r="Q100" s="88"/>
+      <c r="R100" s="88"/>
+      <c r="S100" s="88"/>
+      <c r="T100" s="88"/>
+      <c r="U100" s="88"/>
+      <c r="V100" s="88"/>
+      <c r="W100" s="88"/>
+      <c r="X100" s="88"/>
+      <c r="Y100" s="88"/>
+      <c r="Z100" s="88"/>
+      <c r="AA100" s="88"/>
+      <c r="AB100" s="89"/>
     </row>
     <row r="101" spans="3:30" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C101" s="1" t="s">
@@ -6675,15 +6794,15 @@
       <c r="S101" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T101" s="98" t="s">
+      <c r="T101" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="U101" s="99"/>
-      <c r="V101" s="99"/>
-      <c r="W101" s="99"/>
-      <c r="X101" s="99"/>
-      <c r="Y101" s="99"/>
-      <c r="Z101" s="100"/>
+      <c r="U101" s="96"/>
+      <c r="V101" s="96"/>
+      <c r="W101" s="96"/>
+      <c r="X101" s="96"/>
+      <c r="Y101" s="96"/>
+      <c r="Z101" s="97"/>
       <c r="AA101" s="1" t="s">
         <v>9</v>
       </c>
@@ -6927,51 +7046,51 @@
       <c r="C105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D105" s="85"/>
-      <c r="E105" s="86"/>
-      <c r="F105" s="86"/>
-      <c r="G105" s="86"/>
-      <c r="H105" s="86"/>
-      <c r="I105" s="86"/>
-      <c r="J105" s="86"/>
-      <c r="K105" s="87"/>
+      <c r="D105" s="90"/>
+      <c r="E105" s="91"/>
+      <c r="F105" s="91"/>
+      <c r="G105" s="91"/>
+      <c r="H105" s="91"/>
+      <c r="I105" s="91"/>
+      <c r="J105" s="91"/>
+      <c r="K105" s="92"/>
       <c r="M105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N105" s="101"/>
-      <c r="O105" s="102"/>
-      <c r="P105" s="102"/>
-      <c r="Q105" s="102"/>
-      <c r="R105" s="102"/>
-      <c r="S105" s="102"/>
-      <c r="T105" s="102"/>
-      <c r="U105" s="102"/>
-      <c r="V105" s="102"/>
-      <c r="W105" s="102"/>
-      <c r="X105" s="102"/>
-      <c r="Y105" s="102"/>
-      <c r="Z105" s="102"/>
-      <c r="AA105" s="102"/>
-      <c r="AB105" s="103"/>
+      <c r="N105" s="82"/>
+      <c r="O105" s="83"/>
+      <c r="P105" s="83"/>
+      <c r="Q105" s="83"/>
+      <c r="R105" s="83"/>
+      <c r="S105" s="83"/>
+      <c r="T105" s="83"/>
+      <c r="U105" s="83"/>
+      <c r="V105" s="83"/>
+      <c r="W105" s="83"/>
+      <c r="X105" s="83"/>
+      <c r="Y105" s="83"/>
+      <c r="Z105" s="83"/>
+      <c r="AA105" s="83"/>
+      <c r="AB105" s="98"/>
     </row>
     <row r="107" spans="3:30" x14ac:dyDescent="0.15">
       <c r="T107" s="74" t="s">
+        <v>393</v>
+      </c>
+      <c r="U107" s="74" t="s">
         <v>394</v>
       </c>
-      <c r="U107" s="74" t="s">
+      <c r="V107" s="74" t="s">
+        <v>390</v>
+      </c>
+      <c r="W107" s="74" t="s">
+        <v>388</v>
+      </c>
+      <c r="X107" s="74" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y107" s="78" t="s">
         <v>395</v>
-      </c>
-      <c r="V107" s="74" t="s">
-        <v>391</v>
-      </c>
-      <c r="W107" s="74" t="s">
-        <v>389</v>
-      </c>
-      <c r="X107" s="74" t="s">
-        <v>389</v>
-      </c>
-      <c r="Y107" s="74" t="s">
-        <v>385</v>
       </c>
       <c r="Z107" s="74" t="s">
         <v>377</v>
@@ -6979,23 +7098,62 @@
     </row>
     <row r="108" spans="3:30" x14ac:dyDescent="0.15">
       <c r="T108" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U108" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="V108" s="74" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y108" s="74" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110" spans="3:30" x14ac:dyDescent="0.15">
       <c r="W110" s="42"/>
     </row>
+    <row r="119" spans="30:30" x14ac:dyDescent="0.15">
+      <c r="AD119" s="79">
+        <v>45165</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="48">
+    <mergeCell ref="T10:AB10"/>
+    <mergeCell ref="N14:AD14"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="M2:V2"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="AA27:AH27"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="M17:AA17"/>
+    <mergeCell ref="T18:Y18"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="M37:Y37"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="M64:Z64"/>
+    <mergeCell ref="T65:X65"/>
+    <mergeCell ref="D69:K69"/>
+    <mergeCell ref="N69:Z69"/>
+    <mergeCell ref="AA39:AH39"/>
+    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="AA45:AH45"/>
+    <mergeCell ref="AA51:AH51"/>
+    <mergeCell ref="T101:Z101"/>
+    <mergeCell ref="D105:K105"/>
+    <mergeCell ref="N105:AB105"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="D96:K96"/>
+    <mergeCell ref="T92:Z92"/>
+    <mergeCell ref="M91:AB91"/>
     <mergeCell ref="AL79:AS79"/>
     <mergeCell ref="N30:X30"/>
     <mergeCell ref="N22:AA22"/>
@@ -7008,44 +7166,8 @@
     <mergeCell ref="N87:AA87"/>
     <mergeCell ref="C73:K73"/>
     <mergeCell ref="D78:K78"/>
-    <mergeCell ref="T74:AE74"/>
-    <mergeCell ref="M73:AG73"/>
     <mergeCell ref="AA57:AH57"/>
     <mergeCell ref="C64:K64"/>
-    <mergeCell ref="T101:Z101"/>
-    <mergeCell ref="D105:K105"/>
-    <mergeCell ref="N105:AB105"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="D96:K96"/>
-    <mergeCell ref="T92:Z92"/>
-    <mergeCell ref="M91:AB91"/>
-    <mergeCell ref="M64:Z64"/>
-    <mergeCell ref="T65:X65"/>
-    <mergeCell ref="D69:K69"/>
-    <mergeCell ref="N69:Z69"/>
-    <mergeCell ref="AA39:AH39"/>
-    <mergeCell ref="D42:K42"/>
-    <mergeCell ref="AA45:AH45"/>
-    <mergeCell ref="AA51:AH51"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="M37:Y37"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="AA27:AH27"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="M17:AA17"/>
-    <mergeCell ref="T18:Y18"/>
-    <mergeCell ref="T10:AB10"/>
-    <mergeCell ref="N14:AD14"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="M2:V2"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="C9:K9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7057,8 +7179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:AJ40"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7070,30 +7192,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:36" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="117"/>
+      <c r="X2" s="117"/>
       <c r="AA2" s="68" t="s">
         <v>126</v>
       </c>
@@ -7129,21 +7251,21 @@
       <c r="I3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="J3" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
       <c r="W3" s="1" t="s">
         <v>9</v>
       </c>
@@ -7474,23 +7596,23 @@
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="97"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
       <c r="AA7" s="1" t="s">
         <v>31</v>
       </c>
@@ -7508,18 +7630,18 @@
     </row>
     <row r="8" spans="3:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="3:36" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="114" t="s">
+      <c r="C9" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
       <c r="N9" s="115" t="s">
         <v>133</v>
       </c>
@@ -7779,46 +7901,46 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
       <c r="N14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="97"/>
-      <c r="S14" s="97"/>
-      <c r="T14" s="97"/>
-      <c r="U14" s="97"/>
-      <c r="V14" s="97"/>
-      <c r="W14" s="97"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="105"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="105"/>
+      <c r="T14" s="105"/>
+      <c r="U14" s="105"/>
+      <c r="V14" s="105"/>
+      <c r="W14" s="105"/>
     </row>
     <row r="16" spans="3:36" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="112" t="s">
         <v>354</v>
       </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="118"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="114"/>
       <c r="S16" s="115" t="s">
         <v>355</v>
       </c>
@@ -8127,53 +8249,53 @@
       <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="102"/>
-      <c r="O21" s="102"/>
-      <c r="P21" s="102"/>
-      <c r="Q21" s="103"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="98"/>
       <c r="S21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T21" s="97"/>
-      <c r="U21" s="97"/>
-      <c r="V21" s="97"/>
-      <c r="W21" s="97"/>
-      <c r="X21" s="97"/>
-      <c r="Y21" s="97"/>
-      <c r="Z21" s="97"/>
-      <c r="AA21" s="97"/>
-      <c r="AB21" s="97"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="105"/>
+      <c r="V21" s="105"/>
+      <c r="W21" s="105"/>
+      <c r="X21" s="105"/>
+      <c r="Y21" s="105"/>
+      <c r="Z21" s="105"/>
+      <c r="AA21" s="105"/>
+      <c r="AB21" s="105"/>
     </row>
     <row r="22" spans="3:30" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="3:30" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C25" s="116" t="s">
+      <c r="C25" s="112" t="s">
         <v>356</v>
       </c>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="117"/>
-      <c r="N25" s="117"/>
-      <c r="O25" s="117"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="117"/>
-      <c r="R25" s="118"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="113"/>
+      <c r="N25" s="113"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="113"/>
+      <c r="Q25" s="113"/>
+      <c r="R25" s="114"/>
       <c r="U25" s="68" t="s">
         <v>355</v>
       </c>
@@ -8496,53 +8618,53 @@
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="101"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="102"/>
-      <c r="L30" s="102"/>
-      <c r="M30" s="102"/>
-      <c r="N30" s="102"/>
-      <c r="O30" s="102"/>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="102"/>
-      <c r="R30" s="103"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="98"/>
       <c r="U30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V30" s="101"/>
-      <c r="W30" s="102"/>
-      <c r="X30" s="102"/>
-      <c r="Y30" s="102"/>
-      <c r="Z30" s="102"/>
-      <c r="AA30" s="102"/>
-      <c r="AB30" s="102"/>
-      <c r="AC30" s="102"/>
-      <c r="AD30" s="103"/>
+      <c r="V30" s="82"/>
+      <c r="W30" s="83"/>
+      <c r="X30" s="83"/>
+      <c r="Y30" s="83"/>
+      <c r="Z30" s="83"/>
+      <c r="AA30" s="83"/>
+      <c r="AB30" s="83"/>
+      <c r="AC30" s="83"/>
+      <c r="AD30" s="98"/>
     </row>
     <row r="35" spans="3:30" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C35" s="116" t="s">
+      <c r="C35" s="112" t="s">
         <v>358</v>
       </c>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="117"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="117"/>
-      <c r="Q35" s="117"/>
-      <c r="R35" s="118"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="113"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="113"/>
+      <c r="O35" s="113"/>
+      <c r="P35" s="113"/>
+      <c r="Q35" s="113"/>
+      <c r="R35" s="114"/>
       <c r="U35" s="115" t="s">
         <v>355</v>
       </c>
@@ -8865,36 +8987,43 @@
       <c r="C40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="101"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="102"/>
-      <c r="K40" s="102"/>
-      <c r="L40" s="102"/>
-      <c r="M40" s="102"/>
-      <c r="N40" s="102"/>
-      <c r="O40" s="102"/>
-      <c r="P40" s="102"/>
-      <c r="Q40" s="102"/>
-      <c r="R40" s="103"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
+      <c r="N40" s="83"/>
+      <c r="O40" s="83"/>
+      <c r="P40" s="83"/>
+      <c r="Q40" s="83"/>
+      <c r="R40" s="98"/>
       <c r="U40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V40" s="97"/>
-      <c r="W40" s="97"/>
-      <c r="X40" s="97"/>
-      <c r="Y40" s="97"/>
-      <c r="Z40" s="97"/>
-      <c r="AA40" s="97"/>
-      <c r="AB40" s="97"/>
-      <c r="AC40" s="97"/>
-      <c r="AD40" s="97"/>
+      <c r="V40" s="105"/>
+      <c r="W40" s="105"/>
+      <c r="X40" s="105"/>
+      <c r="Y40" s="105"/>
+      <c r="Z40" s="105"/>
+      <c r="AA40" s="105"/>
+      <c r="AB40" s="105"/>
+      <c r="AC40" s="105"/>
+      <c r="AD40" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J3:V3"/>
+    <mergeCell ref="C2:X2"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="N9:W9"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="O14:W14"/>
+    <mergeCell ref="D7:T7"/>
     <mergeCell ref="D40:R40"/>
     <mergeCell ref="V30:AD30"/>
     <mergeCell ref="C25:R25"/>
@@ -8906,13 +9035,6 @@
     <mergeCell ref="V40:AD40"/>
     <mergeCell ref="S16:AB16"/>
     <mergeCell ref="T21:AB21"/>
-    <mergeCell ref="J3:V3"/>
-    <mergeCell ref="C2:X2"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="N9:W9"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="O14:W14"/>
-    <mergeCell ref="D7:T7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8924,8 +9046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:AD113"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S82" sqref="S82"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U59" sqref="U59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8941,21 +9063,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="119" t="s">
+      <c r="C2" s="128" t="s">
         <v>269</v>
       </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="121"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="130"/>
     </row>
     <row r="3" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -8979,12 +9101,12 @@
       <c r="I3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="78" t="s">
+      <c r="J3" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="80"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="101"/>
       <c r="N3" s="1" t="s">
         <v>9</v>
       </c>
@@ -9117,34 +9239,34 @@
     <row r="14" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="3:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C16" s="129" t="s">
+      <c r="C16" s="125" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="131"/>
-      <c r="N16" s="122" t="s">
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="127"/>
+      <c r="N16" s="131" t="s">
         <v>222</v>
       </c>
-      <c r="O16" s="122"/>
-      <c r="Q16" s="122" t="s">
+      <c r="O16" s="131"/>
+      <c r="Q16" s="131" t="s">
         <v>225</v>
       </c>
-      <c r="R16" s="122"/>
-      <c r="T16" s="122" t="s">
+      <c r="R16" s="131"/>
+      <c r="T16" s="131" t="s">
         <v>232</v>
       </c>
-      <c r="U16" s="122"/>
-      <c r="W16" s="122" t="s">
+      <c r="U16" s="131"/>
+      <c r="W16" s="131" t="s">
         <v>235</v>
       </c>
-      <c r="X16" s="122"/>
+      <c r="X16" s="131"/>
     </row>
     <row r="17" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
@@ -9393,18 +9515,18 @@
       </c>
     </row>
     <row r="22" spans="3:24" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="C22" s="129" t="s">
+      <c r="C22" s="125" t="s">
         <v>227</v>
       </c>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="131"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="127"/>
       <c r="Q22" s="26" t="s">
         <v>231</v>
       </c>
@@ -9579,18 +9701,18 @@
       </c>
     </row>
     <row r="29" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C29" s="129" t="s">
+      <c r="C29" s="125" t="s">
         <v>228</v>
       </c>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="130"/>
-      <c r="L29" s="131"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="126"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="127"/>
     </row>
     <row r="30" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C30" s="1" t="s">
@@ -9717,18 +9839,18 @@
       </c>
     </row>
     <row r="37" spans="3:30" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C37" s="129" t="s">
+      <c r="C37" s="125" t="s">
         <v>229</v>
       </c>
-      <c r="D37" s="130"/>
-      <c r="E37" s="130"/>
-      <c r="F37" s="130"/>
-      <c r="G37" s="130"/>
-      <c r="H37" s="130"/>
-      <c r="I37" s="130"/>
-      <c r="J37" s="130"/>
-      <c r="K37" s="130"/>
-      <c r="L37" s="131"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="126"/>
+      <c r="H37" s="126"/>
+      <c r="I37" s="126"/>
+      <c r="J37" s="126"/>
+      <c r="K37" s="126"/>
+      <c r="L37" s="127"/>
     </row>
     <row r="38" spans="3:30" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
@@ -9855,38 +9977,38 @@
       </c>
     </row>
     <row r="43" spans="3:30" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C43" s="129" t="s">
+      <c r="C43" s="125" t="s">
         <v>368</v>
       </c>
-      <c r="D43" s="130"/>
-      <c r="E43" s="130"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="130"/>
-      <c r="H43" s="130"/>
-      <c r="I43" s="130"/>
-      <c r="J43" s="130"/>
-      <c r="K43" s="130"/>
-      <c r="L43" s="131"/>
-      <c r="N43" s="89" t="s">
+      <c r="D43" s="126"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="126"/>
+      <c r="G43" s="126"/>
+      <c r="H43" s="126"/>
+      <c r="I43" s="126"/>
+      <c r="J43" s="126"/>
+      <c r="K43" s="126"/>
+      <c r="L43" s="127"/>
+      <c r="N43" s="80" t="s">
         <v>370</v>
       </c>
-      <c r="O43" s="90"/>
-      <c r="P43" s="90"/>
-      <c r="Q43" s="90"/>
-      <c r="R43" s="90"/>
-      <c r="S43" s="90"/>
-      <c r="T43" s="90"/>
-      <c r="U43" s="90"/>
-      <c r="W43" s="89" t="s">
+      <c r="O43" s="81"/>
+      <c r="P43" s="81"/>
+      <c r="Q43" s="81"/>
+      <c r="R43" s="81"/>
+      <c r="S43" s="81"/>
+      <c r="T43" s="81"/>
+      <c r="U43" s="81"/>
+      <c r="W43" s="80" t="s">
         <v>371</v>
       </c>
-      <c r="X43" s="90"/>
-      <c r="Y43" s="90"/>
-      <c r="Z43" s="90"/>
-      <c r="AA43" s="90"/>
-      <c r="AB43" s="90"/>
-      <c r="AC43" s="90"/>
-      <c r="AD43" s="90"/>
+      <c r="X43" s="81"/>
+      <c r="Y43" s="81"/>
+      <c r="Z43" s="81"/>
+      <c r="AA43" s="81"/>
+      <c r="AB43" s="81"/>
+      <c r="AC43" s="81"/>
+      <c r="AD43" s="81"/>
     </row>
     <row r="44" spans="3:30" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C44" s="1" t="s">
@@ -10101,31 +10223,31 @@
       </c>
     </row>
     <row r="51" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C51" s="123" t="s">
+      <c r="C51" s="119" t="s">
         <v>135</v>
       </c>
-      <c r="D51" s="124"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="124"/>
-      <c r="G51" s="124"/>
-      <c r="H51" s="124"/>
-      <c r="I51" s="124"/>
-      <c r="J51" s="124"/>
-      <c r="K51" s="124"/>
-      <c r="L51" s="125"/>
-      <c r="N51" s="126" t="s">
+      <c r="D51" s="120"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="120"/>
+      <c r="K51" s="120"/>
+      <c r="L51" s="121"/>
+      <c r="N51" s="122" t="s">
         <v>323</v>
       </c>
-      <c r="O51" s="127"/>
-      <c r="P51" s="127"/>
-      <c r="Q51" s="127"/>
-      <c r="R51" s="127"/>
-      <c r="S51" s="127"/>
-      <c r="T51" s="127"/>
-      <c r="U51" s="127"/>
-      <c r="V51" s="127"/>
-      <c r="W51" s="127"/>
-      <c r="X51" s="128"/>
+      <c r="O51" s="123"/>
+      <c r="P51" s="123"/>
+      <c r="Q51" s="123"/>
+      <c r="R51" s="123"/>
+      <c r="S51" s="123"/>
+      <c r="T51" s="123"/>
+      <c r="U51" s="123"/>
+      <c r="V51" s="123"/>
+      <c r="W51" s="123"/>
+      <c r="X51" s="124"/>
     </row>
     <row r="52" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C52" s="1" t="s">
@@ -10368,17 +10490,17 @@
       </c>
     </row>
     <row r="57" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C57" s="129" t="s">
+      <c r="C57" s="125" t="s">
         <v>337</v>
       </c>
-      <c r="D57" s="130"/>
-      <c r="E57" s="130"/>
-      <c r="F57" s="130"/>
-      <c r="G57" s="130"/>
-      <c r="H57" s="130"/>
-      <c r="I57" s="130"/>
-      <c r="J57" s="130"/>
-      <c r="K57" s="131"/>
+      <c r="D57" s="126"/>
+      <c r="E57" s="126"/>
+      <c r="F57" s="126"/>
+      <c r="G57" s="126"/>
+      <c r="H57" s="126"/>
+      <c r="I57" s="126"/>
+      <c r="J57" s="126"/>
+      <c r="K57" s="127"/>
     </row>
     <row r="58" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C58" s="1" t="s">
@@ -10495,31 +10617,31 @@
       </c>
     </row>
     <row r="64" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C64" s="123" t="s">
+      <c r="C64" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="D64" s="124"/>
-      <c r="E64" s="124"/>
-      <c r="F64" s="124"/>
-      <c r="G64" s="124"/>
-      <c r="H64" s="124"/>
-      <c r="I64" s="124"/>
-      <c r="J64" s="124"/>
-      <c r="K64" s="124"/>
-      <c r="L64" s="125"/>
-      <c r="N64" s="126" t="s">
+      <c r="D64" s="120"/>
+      <c r="E64" s="120"/>
+      <c r="F64" s="120"/>
+      <c r="G64" s="120"/>
+      <c r="H64" s="120"/>
+      <c r="I64" s="120"/>
+      <c r="J64" s="120"/>
+      <c r="K64" s="120"/>
+      <c r="L64" s="121"/>
+      <c r="N64" s="122" t="s">
         <v>290</v>
       </c>
-      <c r="O64" s="127"/>
-      <c r="P64" s="127"/>
-      <c r="Q64" s="127"/>
-      <c r="R64" s="127"/>
-      <c r="S64" s="127"/>
-      <c r="T64" s="127"/>
-      <c r="U64" s="127"/>
-      <c r="V64" s="127"/>
-      <c r="W64" s="127"/>
-      <c r="X64" s="128"/>
+      <c r="O64" s="123"/>
+      <c r="P64" s="123"/>
+      <c r="Q64" s="123"/>
+      <c r="R64" s="123"/>
+      <c r="S64" s="123"/>
+      <c r="T64" s="123"/>
+      <c r="U64" s="123"/>
+      <c r="V64" s="123"/>
+      <c r="W64" s="123"/>
+      <c r="X64" s="124"/>
     </row>
     <row r="65" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C65" s="1" t="s">
@@ -10762,31 +10884,31 @@
       </c>
     </row>
     <row r="73" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C73" s="123" t="s">
+      <c r="C73" s="119" t="s">
         <v>288</v>
       </c>
-      <c r="D73" s="124"/>
-      <c r="E73" s="124"/>
-      <c r="F73" s="124"/>
-      <c r="G73" s="124"/>
-      <c r="H73" s="124"/>
-      <c r="I73" s="124"/>
-      <c r="J73" s="124"/>
-      <c r="K73" s="124"/>
-      <c r="L73" s="125"/>
-      <c r="N73" s="126" t="s">
+      <c r="D73" s="120"/>
+      <c r="E73" s="120"/>
+      <c r="F73" s="120"/>
+      <c r="G73" s="120"/>
+      <c r="H73" s="120"/>
+      <c r="I73" s="120"/>
+      <c r="J73" s="120"/>
+      <c r="K73" s="120"/>
+      <c r="L73" s="121"/>
+      <c r="N73" s="122" t="s">
         <v>289</v>
       </c>
-      <c r="O73" s="127"/>
-      <c r="P73" s="127"/>
-      <c r="Q73" s="127"/>
-      <c r="R73" s="127"/>
-      <c r="S73" s="127"/>
-      <c r="T73" s="127"/>
-      <c r="U73" s="127"/>
-      <c r="V73" s="127"/>
-      <c r="W73" s="127"/>
-      <c r="X73" s="128"/>
+      <c r="O73" s="123"/>
+      <c r="P73" s="123"/>
+      <c r="Q73" s="123"/>
+      <c r="R73" s="123"/>
+      <c r="S73" s="123"/>
+      <c r="T73" s="123"/>
+      <c r="U73" s="123"/>
+      <c r="V73" s="123"/>
+      <c r="W73" s="123"/>
+      <c r="X73" s="124"/>
     </row>
     <row r="74" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C74" s="1" t="s">
@@ -11029,17 +11151,17 @@
       </c>
     </row>
     <row r="81" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C81" s="129" t="s">
+      <c r="C81" s="125" t="s">
         <v>291</v>
       </c>
-      <c r="D81" s="130"/>
-      <c r="E81" s="130"/>
-      <c r="F81" s="130"/>
-      <c r="G81" s="130"/>
-      <c r="H81" s="130"/>
-      <c r="I81" s="130"/>
-      <c r="J81" s="130"/>
-      <c r="K81" s="130"/>
+      <c r="D81" s="126"/>
+      <c r="E81" s="126"/>
+      <c r="F81" s="126"/>
+      <c r="G81" s="126"/>
+      <c r="H81" s="126"/>
+      <c r="I81" s="126"/>
+      <c r="J81" s="126"/>
+      <c r="K81" s="126"/>
     </row>
     <row r="82" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C82" s="1" t="s">
@@ -11156,31 +11278,31 @@
       </c>
     </row>
     <row r="89" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C89" s="123" t="s">
+      <c r="C89" s="119" t="s">
         <v>329</v>
       </c>
-      <c r="D89" s="124"/>
-      <c r="E89" s="124"/>
-      <c r="F89" s="124"/>
-      <c r="G89" s="124"/>
-      <c r="H89" s="124"/>
-      <c r="I89" s="124"/>
-      <c r="J89" s="124"/>
-      <c r="K89" s="124"/>
-      <c r="L89" s="125"/>
-      <c r="N89" s="126" t="s">
+      <c r="D89" s="120"/>
+      <c r="E89" s="120"/>
+      <c r="F89" s="120"/>
+      <c r="G89" s="120"/>
+      <c r="H89" s="120"/>
+      <c r="I89" s="120"/>
+      <c r="J89" s="120"/>
+      <c r="K89" s="120"/>
+      <c r="L89" s="121"/>
+      <c r="N89" s="122" t="s">
         <v>336</v>
       </c>
-      <c r="O89" s="127"/>
-      <c r="P89" s="127"/>
-      <c r="Q89" s="127"/>
-      <c r="R89" s="127"/>
-      <c r="S89" s="127"/>
-      <c r="T89" s="127"/>
-      <c r="U89" s="127"/>
-      <c r="V89" s="127"/>
-      <c r="W89" s="127"/>
-      <c r="X89" s="128"/>
+      <c r="O89" s="123"/>
+      <c r="P89" s="123"/>
+      <c r="Q89" s="123"/>
+      <c r="R89" s="123"/>
+      <c r="S89" s="123"/>
+      <c r="T89" s="123"/>
+      <c r="U89" s="123"/>
+      <c r="V89" s="123"/>
+      <c r="W89" s="123"/>
+      <c r="X89" s="124"/>
     </row>
     <row r="90" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C90" s="1" t="s">
@@ -11423,17 +11545,17 @@
       </c>
     </row>
     <row r="101" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C101" s="129" t="s">
+      <c r="C101" s="125" t="s">
         <v>327</v>
       </c>
-      <c r="D101" s="130"/>
-      <c r="E101" s="130"/>
-      <c r="F101" s="130"/>
-      <c r="G101" s="130"/>
-      <c r="H101" s="130"/>
-      <c r="I101" s="130"/>
-      <c r="J101" s="130"/>
-      <c r="K101" s="130"/>
+      <c r="D101" s="126"/>
+      <c r="E101" s="126"/>
+      <c r="F101" s="126"/>
+      <c r="G101" s="126"/>
+      <c r="H101" s="126"/>
+      <c r="I101" s="126"/>
+      <c r="J101" s="126"/>
+      <c r="K101" s="126"/>
     </row>
     <row r="102" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C102" s="1" t="s">
@@ -11550,31 +11672,31 @@
       </c>
     </row>
     <row r="109" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C109" s="123" t="s">
+      <c r="C109" s="119" t="s">
         <v>338</v>
       </c>
-      <c r="D109" s="124"/>
-      <c r="E109" s="124"/>
-      <c r="F109" s="124"/>
-      <c r="G109" s="124"/>
-      <c r="H109" s="124"/>
-      <c r="I109" s="124"/>
-      <c r="J109" s="124"/>
-      <c r="K109" s="124"/>
-      <c r="L109" s="125"/>
-      <c r="N109" s="126" t="s">
+      <c r="D109" s="120"/>
+      <c r="E109" s="120"/>
+      <c r="F109" s="120"/>
+      <c r="G109" s="120"/>
+      <c r="H109" s="120"/>
+      <c r="I109" s="120"/>
+      <c r="J109" s="120"/>
+      <c r="K109" s="120"/>
+      <c r="L109" s="121"/>
+      <c r="N109" s="122" t="s">
         <v>374</v>
       </c>
-      <c r="O109" s="127"/>
-      <c r="P109" s="127"/>
-      <c r="Q109" s="127"/>
-      <c r="R109" s="127"/>
-      <c r="S109" s="127"/>
-      <c r="T109" s="127"/>
-      <c r="U109" s="127"/>
-      <c r="V109" s="127"/>
-      <c r="W109" s="127"/>
-      <c r="X109" s="128"/>
+      <c r="O109" s="123"/>
+      <c r="P109" s="123"/>
+      <c r="Q109" s="123"/>
+      <c r="R109" s="123"/>
+      <c r="S109" s="123"/>
+      <c r="T109" s="123"/>
+      <c r="U109" s="123"/>
+      <c r="V109" s="123"/>
+      <c r="W109" s="123"/>
+      <c r="X109" s="124"/>
     </row>
     <row r="110" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C110" s="1" t="s">
@@ -11818,17 +11940,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C109:L109"/>
-    <mergeCell ref="N109:X109"/>
-    <mergeCell ref="N73:X73"/>
-    <mergeCell ref="N64:X64"/>
-    <mergeCell ref="C101:K101"/>
-    <mergeCell ref="C57:K57"/>
-    <mergeCell ref="C81:K81"/>
-    <mergeCell ref="N89:X89"/>
-    <mergeCell ref="C64:L64"/>
-    <mergeCell ref="C73:L73"/>
-    <mergeCell ref="C89:L89"/>
     <mergeCell ref="C2:O2"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="W16:X16"/>
@@ -11844,6 +11955,17 @@
     <mergeCell ref="C43:L43"/>
     <mergeCell ref="N43:U43"/>
     <mergeCell ref="W43:AD43"/>
+    <mergeCell ref="C57:K57"/>
+    <mergeCell ref="C81:K81"/>
+    <mergeCell ref="N89:X89"/>
+    <mergeCell ref="C64:L64"/>
+    <mergeCell ref="C73:L73"/>
+    <mergeCell ref="C89:L89"/>
+    <mergeCell ref="C109:L109"/>
+    <mergeCell ref="N109:X109"/>
+    <mergeCell ref="N73:X73"/>
+    <mergeCell ref="N64:X64"/>
+    <mergeCell ref="C101:K101"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11855,8 +11977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -12422,7 +12544,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12957,8 +13079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14694,7 +14816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>

--- a/自动封片机通讯协议.xlsx
+++ b/自动封片机通讯协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\Glass_Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04856DA-3818-4E7E-88FB-1A7DBABD3AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98A846D-DD4A-4845-BCA5-3B057E808184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="查询协议" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="388">
   <si>
     <t>查询：状态：在线状态</t>
   </si>
@@ -699,53 +699,6 @@
     <t>mm</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-300</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000-2000</t>
-    </r>
-  </si>
-  <si>
-    <t>1000-1600</t>
-  </si>
-  <si>
     <t>600-800</t>
   </si>
   <si>
@@ -1908,15 +1861,23 @@
     <t>200~10000</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>0-2000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000-1800</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1978,6 +1939,22 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2249,7 +2226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2259,7 +2236,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2277,16 +2254,16 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2313,7 +2290,7 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2355,7 +2332,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2382,7 +2359,7 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2391,7 +2368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2481,7 +2458,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2562,6 +2539,18 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2574,18 +2563,6 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2697,7 +2674,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2983,8 +2963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AS119"/>
   <sheetViews>
-    <sheetView topLeftCell="N79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y107" sqref="Y107"/>
+    <sheetView tabSelected="1" topLeftCell="N79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH88" sqref="AH88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6107,42 +6087,42 @@
       <c r="Y88" s="77"/>
     </row>
     <row r="89" spans="3:45" x14ac:dyDescent="0.15">
-      <c r="T89" s="36" t="s">
+      <c r="T89" s="149" t="s">
+        <v>386</v>
+      </c>
+      <c r="U89" s="149" t="s">
+        <v>386</v>
+      </c>
+      <c r="V89" s="149" t="s">
+        <v>387</v>
+      </c>
+      <c r="W89" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="U89" s="36" t="s">
+      <c r="X89" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="V89" s="36" t="s">
+      <c r="Y89" s="150" t="s">
         <v>145</v>
-      </c>
-      <c r="W89" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="X89" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y89" s="78" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="90" spans="3:45" x14ac:dyDescent="0.15">
       <c r="V90" s="36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="W90" s="36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="X90" s="36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Y90" s="36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="3:45" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C91" s="80" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D91" s="80"/>
       <c r="E91" s="80"/>
@@ -6153,7 +6133,7 @@
       <c r="J91" s="80"/>
       <c r="K91" s="80"/>
       <c r="M91" s="102" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N91" s="103"/>
       <c r="O91" s="103"/>
@@ -6169,7 +6149,7 @@
       <c r="Y91" s="103"/>
       <c r="Z91" s="103"/>
       <c r="AA91" s="103"/>
-      <c r="AB91" s="104"/>
+      <c r="AB91" s="108"/>
     </row>
     <row r="92" spans="3:45" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C92" s="1" t="s">
@@ -6286,25 +6266,25 @@
         <v>18</v>
       </c>
       <c r="T93" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="U93" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="V93" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="W93" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="U93" s="41" t="s">
+      <c r="X93" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="V93" s="41" t="s">
+      <c r="Y93" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="W93" s="18" t="s">
+      <c r="Z93" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="X93" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y93" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z93" s="18" t="s">
-        <v>158</v>
       </c>
       <c r="AA93" s="1" t="s">
         <v>19</v>
@@ -6443,10 +6423,10 @@
         <v>84</v>
       </c>
       <c r="T95" s="40" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="U95" s="40" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="V95" s="40" t="s">
         <v>142</v>
@@ -6455,7 +6435,7 @@
         <v>142</v>
       </c>
       <c r="X95" s="40" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Y95" s="40" t="s">
         <v>122</v>
@@ -6501,35 +6481,35 @@
     </row>
     <row r="98" spans="3:30" x14ac:dyDescent="0.15">
       <c r="V98" s="36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W98" s="36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="X98" s="36" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Y98" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Z98" s="149" t="s">
-        <v>384</v>
+      <c r="Z98" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="99" spans="3:30" x14ac:dyDescent="0.15">
       <c r="V99" s="36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="W99" s="36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="X99" s="36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" spans="3:30" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C100" s="80" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D100" s="80"/>
       <c r="E100" s="80"/>
@@ -6539,24 +6519,24 @@
       <c r="I100" s="80"/>
       <c r="J100" s="80"/>
       <c r="K100" s="80"/>
-      <c r="M100" s="105" t="s">
-        <v>165</v>
-      </c>
-      <c r="N100" s="106"/>
-      <c r="O100" s="106"/>
-      <c r="P100" s="106"/>
-      <c r="Q100" s="106"/>
-      <c r="R100" s="106"/>
-      <c r="S100" s="106"/>
-      <c r="T100" s="106"/>
-      <c r="U100" s="106"/>
-      <c r="V100" s="106"/>
-      <c r="W100" s="106"/>
-      <c r="X100" s="106"/>
-      <c r="Y100" s="106"/>
-      <c r="Z100" s="106"/>
-      <c r="AA100" s="106"/>
-      <c r="AB100" s="107"/>
+      <c r="M100" s="109" t="s">
+        <v>162</v>
+      </c>
+      <c r="N100" s="110"/>
+      <c r="O100" s="110"/>
+      <c r="P100" s="110"/>
+      <c r="Q100" s="110"/>
+      <c r="R100" s="110"/>
+      <c r="S100" s="110"/>
+      <c r="T100" s="110"/>
+      <c r="U100" s="110"/>
+      <c r="V100" s="110"/>
+      <c r="W100" s="110"/>
+      <c r="X100" s="110"/>
+      <c r="Y100" s="110"/>
+      <c r="Z100" s="110"/>
+      <c r="AA100" s="110"/>
+      <c r="AB100" s="111"/>
     </row>
     <row r="101" spans="3:30" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C101" s="1" t="s">
@@ -6607,15 +6587,15 @@
       <c r="S101" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="T101" s="108" t="s">
+      <c r="T101" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="U101" s="109"/>
-      <c r="V101" s="109"/>
-      <c r="W101" s="109"/>
-      <c r="X101" s="109"/>
-      <c r="Y101" s="109"/>
-      <c r="Z101" s="110"/>
+      <c r="U101" s="105"/>
+      <c r="V101" s="105"/>
+      <c r="W101" s="105"/>
+      <c r="X101" s="105"/>
+      <c r="Y101" s="105"/>
+      <c r="Z101" s="106"/>
       <c r="AA101" s="1" t="s">
         <v>9</v>
       </c>
@@ -6673,25 +6653,25 @@
         <v>18</v>
       </c>
       <c r="T102" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="U102" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="V102" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="W102" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="U102" s="18" t="s">
+      <c r="X102" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="V102" s="18" t="s">
+      <c r="Y102" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="W102" s="42" t="s">
+      <c r="Z102" s="43" t="s">
         <v>169</v>
-      </c>
-      <c r="X102" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y102" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z102" s="43" t="s">
-        <v>172</v>
       </c>
       <c r="AA102" s="1" t="s">
         <v>19</v>
@@ -6801,7 +6781,7 @@
         <v>27</v>
       </c>
       <c r="I104" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4">
@@ -6827,7 +6807,7 @@
         <v>27</v>
       </c>
       <c r="S104" s="60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="T104" s="40" t="s">
         <v>142</v>
@@ -6839,10 +6819,10 @@
         <v>142</v>
       </c>
       <c r="W104" s="40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="X104" s="40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Y104" s="45" t="s">
         <v>142</v>
@@ -6884,26 +6864,26 @@
       <c r="Y105" s="98"/>
       <c r="Z105" s="98"/>
       <c r="AA105" s="98"/>
-      <c r="AB105" s="111"/>
+      <c r="AB105" s="107"/>
     </row>
     <row r="107" spans="3:30" x14ac:dyDescent="0.15">
       <c r="T107" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="U107" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="V107" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="W107" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="U107" s="36" t="s">
+      <c r="X107" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y107" s="78" t="s">
         <v>177</v>
-      </c>
-      <c r="V107" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="W107" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="X107" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y107" s="78" t="s">
-        <v>180</v>
       </c>
       <c r="Z107" s="36" t="s">
         <v>130</v>
@@ -6911,16 +6891,16 @@
     </row>
     <row r="108" spans="3:30" x14ac:dyDescent="0.15">
       <c r="T108" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="U108" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="V108" s="36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Y108" s="36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="110" spans="3:30" x14ac:dyDescent="0.15">
@@ -6985,7 +6965,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7007,7 +6987,7 @@
   <sheetData>
     <row r="2" spans="3:36" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C2" s="112" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D2" s="113"/>
       <c r="E2" s="113"/>
@@ -7031,7 +7011,7 @@
       <c r="W2" s="113"/>
       <c r="X2" s="113"/>
       <c r="AA2" s="38" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AB2" s="38"/>
       <c r="AC2" s="38"/>
@@ -7065,21 +7045,21 @@
       <c r="I3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="108" t="s">
+      <c r="J3" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
       <c r="W3" s="1" t="s">
         <v>9</v>
       </c>
@@ -7140,40 +7120,40 @@
         <v>18</v>
       </c>
       <c r="J4" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M4" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="N4" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="O4" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="P4" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="Q4" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="R4" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="S4" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="T4" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="U4" s="18" t="s">
         <v>192</v>
-      </c>
-      <c r="S4" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="T4" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="U4" s="18" t="s">
-        <v>195</v>
       </c>
       <c r="V4" s="18" t="s">
         <v>120</v>
@@ -7206,7 +7186,7 @@
         <v>18</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AI4" s="1" t="s">
         <v>19</v>
@@ -7384,13 +7364,13 @@
         <v>24</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AD6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AE6" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AF6" s="15" t="s">
         <v>27</v>
@@ -7399,7 +7379,7 @@
         <v>26</v>
       </c>
       <c r="AH6" s="20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4">
@@ -7431,7 +7411,7 @@
         <v>29</v>
       </c>
       <c r="AB7" s="37" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AC7" s="37"/>
       <c r="AD7" s="37"/>
@@ -7445,7 +7425,7 @@
     <row r="8" spans="3:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="3:36" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C9" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D9" s="114"/>
       <c r="E9" s="114"/>
@@ -7457,7 +7437,7 @@
       <c r="K9" s="114"/>
       <c r="L9" s="114"/>
       <c r="N9" s="115" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O9" s="115"/>
       <c r="P9" s="115"/>
@@ -7554,7 +7534,7 @@
         <v>18</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>19</v>
@@ -7584,7 +7564,7 @@
         <v>18</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>19</v>
@@ -7663,7 +7643,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>25</v>
@@ -7689,13 +7669,13 @@
         <v>24</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="R13" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S13" s="15" t="s">
         <v>27</v>
@@ -7704,7 +7684,7 @@
         <v>49</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="V13" s="4"/>
       <c r="W13" s="4">
@@ -7739,7 +7719,7 @@
     </row>
     <row r="16" spans="3:36" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C16" s="116" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D16" s="117"/>
       <c r="E16" s="117"/>
@@ -7756,7 +7736,7 @@
       <c r="P16" s="117"/>
       <c r="Q16" s="118"/>
       <c r="S16" s="115" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="T16" s="115"/>
       <c r="U16" s="115"/>
@@ -7867,7 +7847,7 @@
         <v>137</v>
       </c>
       <c r="M18" s="18" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N18" s="18" t="s">
         <v>139</v>
@@ -7903,7 +7883,7 @@
         <v>18</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AA18" s="1" t="s">
         <v>19</v>
@@ -8010,7 +7990,7 @@
         <v>27</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J20" s="40" t="s">
         <v>50</v>
@@ -8037,22 +8017,22 @@
         <v>24</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="V20" s="4" t="s">
         <v>25</v>
       </c>
       <c r="W20" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="X20" s="15" t="s">
         <v>27</v>
       </c>
       <c r="Y20" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z20" s="20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4">
@@ -8076,7 +8056,7 @@
       <c r="N21" s="98"/>
       <c r="O21" s="98"/>
       <c r="P21" s="98"/>
-      <c r="Q21" s="111"/>
+      <c r="Q21" s="107"/>
       <c r="S21" s="1" t="s">
         <v>29</v>
       </c>
@@ -8093,7 +8073,7 @@
     <row r="22" spans="3:30" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="3:30" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C25" s="116" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D25" s="117"/>
       <c r="E25" s="117"/>
@@ -8111,7 +8091,7 @@
       <c r="Q25" s="117"/>
       <c r="R25" s="118"/>
       <c r="U25" s="38" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="V25" s="38"/>
       <c r="W25" s="38"/>
@@ -8214,25 +8194,25 @@
         <v>18</v>
       </c>
       <c r="J27" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="K27" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="L27" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="M27" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="K27" s="41" t="s">
+      <c r="N27" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="L27" s="41" t="s">
+      <c r="O27" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="M27" s="18" t="s">
+      <c r="P27" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="N27" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="O27" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="P27" s="18" t="s">
-        <v>158</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>19</v>
@@ -8262,7 +8242,7 @@
         <v>18</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>19</v>
@@ -8375,10 +8355,10 @@
         <v>83</v>
       </c>
       <c r="J29" s="40" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K29" s="40" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L29" s="40" t="s">
         <v>142</v>
@@ -8387,7 +8367,7 @@
         <v>142</v>
       </c>
       <c r="N29" s="40" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O29" s="40" t="s">
         <v>121</v>
@@ -8406,13 +8386,13 @@
         <v>24</v>
       </c>
       <c r="W29" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="X29" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Y29" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z29" s="15" t="s">
         <v>27</v>
@@ -8421,7 +8401,7 @@
         <v>83</v>
       </c>
       <c r="AB29" s="20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4">
@@ -8446,7 +8426,7 @@
       <c r="O30" s="98"/>
       <c r="P30" s="98"/>
       <c r="Q30" s="98"/>
-      <c r="R30" s="111"/>
+      <c r="R30" s="107"/>
       <c r="U30" s="1" t="s">
         <v>29</v>
       </c>
@@ -8458,11 +8438,11 @@
       <c r="AA30" s="98"/>
       <c r="AB30" s="98"/>
       <c r="AC30" s="98"/>
-      <c r="AD30" s="111"/>
+      <c r="AD30" s="107"/>
     </row>
     <row r="35" spans="3:30" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C35" s="116" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D35" s="117"/>
       <c r="E35" s="117"/>
@@ -8480,7 +8460,7 @@
       <c r="Q35" s="117"/>
       <c r="R35" s="118"/>
       <c r="U35" s="115" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="V35" s="115"/>
       <c r="W35" s="115"/>
@@ -8583,25 +8563,25 @@
         <v>18</v>
       </c>
       <c r="J37" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L37" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M37" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="K37" s="18" t="s">
+      <c r="N37" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="L37" s="18" t="s">
+      <c r="O37" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="M37" s="42" t="s">
+      <c r="P37" s="43" t="s">
         <v>169</v>
-      </c>
-      <c r="N37" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="O37" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="P37" s="43" t="s">
-        <v>172</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>19</v>
@@ -8631,7 +8611,7 @@
         <v>18</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>19</v>
@@ -8741,22 +8721,22 @@
         <v>27</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J39" s="40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K39" s="40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L39" s="40" t="s">
         <v>142</v>
       </c>
       <c r="M39" s="40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N39" s="40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O39" s="45" t="s">
         <v>142</v>
@@ -8775,22 +8755,22 @@
         <v>24</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="X39" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Y39" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z39" s="15" t="s">
         <v>27</v>
       </c>
       <c r="AA39" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AB39" s="20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4">
@@ -8815,7 +8795,7 @@
       <c r="O40" s="98"/>
       <c r="P40" s="98"/>
       <c r="Q40" s="98"/>
-      <c r="R40" s="111"/>
+      <c r="R40" s="107"/>
       <c r="U40" s="1" t="s">
         <v>29</v>
       </c>
@@ -8860,8 +8840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:AD113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M102" sqref="M102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8878,7 +8858,7 @@
   <sheetData>
     <row r="2" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C2" s="119" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D2" s="120"/>
       <c r="E2" s="120"/>
@@ -8951,16 +8931,16 @@
         <v>18</v>
       </c>
       <c r="J4" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="M4" s="18" t="s">
         <v>212</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>215</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>19</v>
@@ -9028,7 +9008,7 @@
         <v>83</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>26</v>
@@ -9044,16 +9024,16 @@
     </row>
     <row r="7" spans="3:24" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J7" s="79" t="s">
+        <v>382</v>
+      </c>
+      <c r="K7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L7" t="s">
+        <v>384</v>
+      </c>
+      <c r="M7" t="s">
         <v>385</v>
-      </c>
-      <c r="K7" t="s">
-        <v>386</v>
-      </c>
-      <c r="L7" t="s">
-        <v>387</v>
-      </c>
-      <c r="M7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="8" spans="3:24" x14ac:dyDescent="0.15">
@@ -9067,7 +9047,7 @@
     <row r="15" spans="3:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C16" s="122" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D16" s="123"/>
       <c r="E16" s="123"/>
@@ -9079,19 +9059,19 @@
       <c r="K16" s="123"/>
       <c r="L16" s="124"/>
       <c r="N16" s="125" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O16" s="125"/>
       <c r="Q16" s="125" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="R16" s="125"/>
       <c r="T16" s="125" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="U16" s="125"/>
       <c r="W16" s="125" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="X16" s="125"/>
     </row>
@@ -9127,25 +9107,25 @@
         <v>10</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O17" s="17">
         <v>0</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="R17" s="17">
         <v>0</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="U17" s="17">
         <v>0</v>
       </c>
       <c r="W17" s="17" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="X17" s="17">
         <v>0</v>
@@ -9174,7 +9154,7 @@
         <v>18</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>19</v>
@@ -9183,25 +9163,25 @@
         <v>20</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O18" s="17">
         <v>5</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="R18" s="17">
         <v>7</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="U18" s="17">
         <v>7</v>
       </c>
       <c r="W18" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="X18" s="17">
         <v>8</v>
@@ -9239,25 +9219,25 @@
         <v>1</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O19" s="17">
         <v>6</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="R19" s="17">
         <v>8</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="U19" s="17">
         <v>8</v>
       </c>
       <c r="W19" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="X19" s="17">
         <v>9</v>
@@ -9271,7 +9251,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>25</v>
@@ -9280,7 +9260,7 @@
         <v>83</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>27</v>
@@ -9291,25 +9271,25 @@
         <v>23</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O20" s="17">
         <v>7</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="R20" s="17">
         <v>9</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="U20" s="17">
         <v>9</v>
       </c>
       <c r="W20" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="X20" s="17">
         <v>10</v>
@@ -9317,25 +9297,25 @@
     </row>
     <row r="21" spans="3:24" ht="34.5" x14ac:dyDescent="0.15">
       <c r="N21" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O21" s="17">
         <v>8</v>
       </c>
       <c r="Q21" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="R21" s="17">
         <v>10</v>
       </c>
       <c r="T21" s="17" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="U21" s="17">
         <v>10</v>
       </c>
       <c r="W21" s="17" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="X21" s="17">
         <v>11</v>
@@ -9343,7 +9323,7 @@
     </row>
     <row r="22" spans="3:24" ht="34.5" x14ac:dyDescent="0.15">
       <c r="C22" s="122" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D22" s="123"/>
       <c r="E22" s="123"/>
@@ -9355,19 +9335,19 @@
       <c r="K22" s="123"/>
       <c r="L22" s="124"/>
       <c r="Q22" s="17" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="R22" s="17">
         <v>11</v>
       </c>
       <c r="T22" s="17" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="U22" s="17">
         <v>11</v>
       </c>
       <c r="W22" s="17" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="X22" s="17">
         <v>12</v>
@@ -9405,13 +9385,13 @@
         <v>10</v>
       </c>
       <c r="Q23" s="17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="R23" s="17">
         <v>12</v>
       </c>
       <c r="T23" s="17" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="U23" s="17">
         <v>12</v>
@@ -9440,7 +9420,7 @@
         <v>18</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>19</v>
@@ -9449,13 +9429,13 @@
         <v>20</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="R24" s="17">
         <v>13</v>
       </c>
       <c r="T24" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="U24" s="17">
         <v>13</v>
@@ -9493,7 +9473,7 @@
         <v>1</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="U25" s="17">
         <v>14</v>
@@ -9507,7 +9487,7 @@
         <v>24</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>25</v>
@@ -9516,7 +9496,7 @@
         <v>83</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>49</v>
@@ -9529,7 +9509,7 @@
     </row>
     <row r="29" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C29" s="122" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D29" s="123"/>
       <c r="E29" s="123"/>
@@ -9596,7 +9576,7 @@
         <v>18</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>19</v>
@@ -9645,7 +9625,7 @@
         <v>24</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>25</v>
@@ -9654,10 +9634,10 @@
         <v>83</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J33" s="20"/>
       <c r="K33" s="4"/>
@@ -9667,7 +9647,7 @@
     </row>
     <row r="37" spans="3:30" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C37" s="122" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D37" s="123"/>
       <c r="E37" s="123"/>
@@ -9711,7 +9691,7 @@
         <v>10</v>
       </c>
       <c r="O38" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P38">
         <v>10</v>
@@ -9740,7 +9720,7 @@
         <v>18</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>19</v>
@@ -9789,7 +9769,7 @@
         <v>24</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>25</v>
@@ -9798,7 +9778,7 @@
         <v>83</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I41" s="16" t="s">
         <v>83</v>
@@ -9811,7 +9791,7 @@
     </row>
     <row r="43" spans="3:30" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C43" s="122" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D43" s="123"/>
       <c r="E43" s="123"/>
@@ -9823,7 +9803,7 @@
       <c r="K43" s="123"/>
       <c r="L43" s="124"/>
       <c r="N43" s="95" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O43" s="96"/>
       <c r="P43" s="96"/>
@@ -9833,7 +9813,7 @@
       <c r="T43" s="96"/>
       <c r="U43" s="96"/>
       <c r="W43" s="95" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="X43" s="96"/>
       <c r="Y43" s="96"/>
@@ -9906,16 +9886,16 @@
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
       <c r="AA44" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB44" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC44" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD44" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="AB44" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC44" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="AD44" s="4" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="45" spans="3:30" ht="34.5" x14ac:dyDescent="0.15">
@@ -9941,10 +9921,10 @@
         <v>18</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K45" s="36" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>19</v>
@@ -9959,38 +9939,38 @@
         <v>95</v>
       </c>
       <c r="P45" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="S45" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="Q45" s="4" t="s">
+      <c r="T45" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="R45" s="4" t="s">
+      <c r="U45" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="S45" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="T45" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="U45" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
       <c r="AA45" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB45" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC45" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD45" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="AB45" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="AC45" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD45" s="4" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="46" spans="3:30" ht="17.25" x14ac:dyDescent="0.15">
@@ -10036,7 +10016,7 @@
         <v>24</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>25</v>
@@ -10045,10 +10025,10 @@
         <v>83</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J47" s="20"/>
       <c r="L47" s="4"/>
@@ -10058,7 +10038,7 @@
     </row>
     <row r="48" spans="3:30" x14ac:dyDescent="0.15">
       <c r="J48" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K48">
         <v>10</v>
@@ -10066,7 +10046,7 @@
     </row>
     <row r="51" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C51" s="126" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D51" s="127"/>
       <c r="E51" s="127"/>
@@ -10078,7 +10058,7 @@
       <c r="K51" s="127"/>
       <c r="L51" s="128"/>
       <c r="N51" s="129" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O51" s="130"/>
       <c r="P51" s="130"/>
@@ -10170,7 +10150,7 @@
         <v>18</v>
       </c>
       <c r="J53" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>19</v>
@@ -10200,7 +10180,7 @@
         <v>18</v>
       </c>
       <c r="U53" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
@@ -10279,7 +10259,7 @@
         <v>24</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>25</v>
@@ -10294,7 +10274,7 @@
         <v>26</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4">
@@ -10307,13 +10287,13 @@
         <v>24</v>
       </c>
       <c r="P55" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q55" s="13" t="s">
         <v>25</v>
       </c>
       <c r="R55" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S55" s="15" t="s">
         <v>83</v>
@@ -10322,7 +10302,7 @@
         <v>26</v>
       </c>
       <c r="U55" s="21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="V55" s="5" t="s">
         <v>9</v>
@@ -10333,7 +10313,7 @@
     </row>
     <row r="57" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C57" s="122" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D57" s="123"/>
       <c r="E57" s="123"/>
@@ -10460,7 +10440,7 @@
     </row>
     <row r="64" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C64" s="126" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D64" s="127"/>
       <c r="E64" s="127"/>
@@ -10472,7 +10452,7 @@
       <c r="K64" s="127"/>
       <c r="L64" s="128"/>
       <c r="N64" s="129" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O64" s="130"/>
       <c r="P64" s="130"/>
@@ -10564,7 +10544,7 @@
         <v>18</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>19</v>
@@ -10594,7 +10574,7 @@
         <v>18</v>
       </c>
       <c r="U66" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="67" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
@@ -10673,7 +10653,7 @@
         <v>24</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>25</v>
@@ -10688,7 +10668,7 @@
         <v>49</v>
       </c>
       <c r="J68" s="20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="4">
@@ -10701,13 +10681,13 @@
         <v>24</v>
       </c>
       <c r="P68" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q68" s="13" t="s">
         <v>25</v>
       </c>
       <c r="R68" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S68" s="15" t="s">
         <v>83</v>
@@ -10716,7 +10696,7 @@
         <v>49</v>
       </c>
       <c r="U68" s="21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="V68" s="5" t="s">
         <v>9</v>
@@ -10727,7 +10707,7 @@
     </row>
     <row r="73" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C73" s="126" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D73" s="127"/>
       <c r="E73" s="127"/>
@@ -10739,7 +10719,7 @@
       <c r="K73" s="127"/>
       <c r="L73" s="128"/>
       <c r="N73" s="129" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O73" s="130"/>
       <c r="P73" s="130"/>
@@ -10831,7 +10811,7 @@
         <v>18</v>
       </c>
       <c r="J75" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>19</v>
@@ -10861,7 +10841,7 @@
         <v>18</v>
       </c>
       <c r="U75" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="76" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
@@ -10940,7 +10920,7 @@
         <v>24</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>25</v>
@@ -10952,10 +10932,10 @@
         <v>83</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J77" s="20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K77" s="4"/>
       <c r="L77" s="4">
@@ -10968,22 +10948,22 @@
         <v>24</v>
       </c>
       <c r="P77" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q77" s="13" t="s">
         <v>25</v>
       </c>
       <c r="R77" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S77" s="15" t="s">
         <v>83</v>
       </c>
       <c r="T77" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="U77" s="21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="V77" s="5" t="s">
         <v>9</v>
@@ -10994,7 +10974,7 @@
     </row>
     <row r="81" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C81" s="122" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D81" s="123"/>
       <c r="E81" s="123"/>
@@ -11121,7 +11101,7 @@
     </row>
     <row r="89" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C89" s="126" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D89" s="127"/>
       <c r="E89" s="127"/>
@@ -11133,7 +11113,7 @@
       <c r="K89" s="127"/>
       <c r="L89" s="128"/>
       <c r="N89" s="129" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O89" s="130"/>
       <c r="P89" s="130"/>
@@ -11225,7 +11205,7 @@
         <v>18</v>
       </c>
       <c r="J91" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>19</v>
@@ -11255,7 +11235,7 @@
         <v>18</v>
       </c>
       <c r="U91" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="92" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
@@ -11334,7 +11314,7 @@
         <v>24</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>25</v>
@@ -11346,10 +11326,10 @@
         <v>83</v>
       </c>
       <c r="I93" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J93" s="20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K93" s="4"/>
       <c r="L93" s="4">
@@ -11362,22 +11342,22 @@
         <v>24</v>
       </c>
       <c r="P93" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q93" s="13" t="s">
         <v>25</v>
       </c>
       <c r="R93" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S93" s="15" t="s">
         <v>83</v>
       </c>
       <c r="T93" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="U93" s="21" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="V93" s="5" t="s">
         <v>9</v>
@@ -11388,7 +11368,7 @@
     </row>
     <row r="101" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C101" s="122" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D101" s="123"/>
       <c r="E101" s="123"/>
@@ -11506,7 +11486,7 @@
         <v>83</v>
       </c>
       <c r="I105" s="16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4">
@@ -11515,7 +11495,7 @@
     </row>
     <row r="109" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C109" s="126" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D109" s="127"/>
       <c r="E109" s="127"/>
@@ -11527,7 +11507,7 @@
       <c r="K109" s="127"/>
       <c r="L109" s="128"/>
       <c r="N109" s="129" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O109" s="130"/>
       <c r="P109" s="130"/>
@@ -11619,7 +11599,7 @@
         <v>18</v>
       </c>
       <c r="J111" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K111" s="1" t="s">
         <v>19</v>
@@ -11649,7 +11629,7 @@
         <v>18</v>
       </c>
       <c r="U111" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="112" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
@@ -11728,7 +11708,7 @@
         <v>24</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>25</v>
@@ -11743,7 +11723,7 @@
         <v>110</v>
       </c>
       <c r="J113" s="20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K113" s="4"/>
       <c r="L113" s="4">
@@ -11756,13 +11736,13 @@
         <v>24</v>
       </c>
       <c r="P113" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q113" s="13" t="s">
         <v>25</v>
       </c>
       <c r="R113" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S113" s="15" t="s">
         <v>83</v>
@@ -11771,7 +11751,7 @@
         <v>110</v>
       </c>
       <c r="U113" s="21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="V113" s="5" t="s">
         <v>9</v>
@@ -11819,8 +11799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -11835,7 +11815,7 @@
     <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="133" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>26</v>
@@ -11847,48 +11827,48 @@
         <v>49</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>83</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="134"/>
       <c r="C4" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="G4" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>291</v>
-      </c>
       <c r="H4" s="26" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="27"/>
       <c r="C5" s="27" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H5" s="27"/>
     </row>
@@ -11903,10 +11883,10 @@
     </row>
     <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="135" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C7" s="132" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D7" s="132"/>
       <c r="E7" s="132"/>
@@ -11926,34 +11906,34 @@
         <v>49</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>83</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="136"/>
       <c r="C9" s="29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D9" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="G9" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="H9" s="29" t="s">
         <v>297</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11961,22 +11941,22 @@
         <v>26</v>
       </c>
       <c r="C10" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="F10" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="G10" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="H10" s="26" t="s">
         <v>303</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>305</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11984,22 +11964,22 @@
         <v>27</v>
       </c>
       <c r="C11" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="F11" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="G11" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="H11" s="26" t="s">
         <v>309</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12007,41 +11987,41 @@
         <v>49</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="31" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="31" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12049,54 +12029,54 @@
         <v>83</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="31" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="31" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="30" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="34"/>
       <c r="E16" s="32"/>
       <c r="F16" s="33"/>
-      <c r="G16" s="31" t="s">
-        <v>331</v>
+      <c r="G16" s="26" t="s">
+        <v>328</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12108,39 +12088,39 @@
       <c r="E17" s="32"/>
       <c r="F17" s="33"/>
       <c r="G17" s="31" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="33"/>
       <c r="H18" s="26" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="30" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="33"/>
       <c r="H19" s="26" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="30" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="34"/>
@@ -12148,12 +12128,12 @@
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="26" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="30" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="34"/>
@@ -12161,12 +12141,12 @@
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
       <c r="H21" s="26" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="30" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
@@ -12174,12 +12154,12 @@
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
       <c r="H22" s="26" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="30" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
@@ -12189,7 +12169,7 @@
     </row>
     <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="30" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
@@ -12199,7 +12179,7 @@
     </row>
     <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="30" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="34"/>
@@ -12209,7 +12189,7 @@
     </row>
     <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="30" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C26" s="32"/>
       <c r="D26" s="34"/>
@@ -12219,7 +12199,7 @@
     </row>
     <row r="27" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="30" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C27" s="32"/>
       <c r="D27" s="34"/>
@@ -12229,7 +12209,7 @@
     </row>
     <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="30" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C28" s="32"/>
       <c r="D28" s="34"/>
@@ -12239,7 +12219,7 @@
     </row>
     <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="30" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C29" s="32"/>
       <c r="D29" s="34"/>
@@ -12250,7 +12230,7 @@
     </row>
     <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="30" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C30" s="32"/>
       <c r="D30" s="34"/>
@@ -12261,7 +12241,7 @@
     </row>
     <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="30" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C31" s="32"/>
       <c r="D31" s="34"/>
@@ -12272,7 +12252,7 @@
     </row>
     <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="30" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="34"/>
@@ -12283,7 +12263,7 @@
     </row>
     <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="30" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C33" s="32"/>
       <c r="D33" s="34"/>
@@ -12294,7 +12274,7 @@
     </row>
     <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C34" s="32"/>
       <c r="D34" s="34"/>
@@ -12305,7 +12285,7 @@
     </row>
     <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="30" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C35" s="32"/>
       <c r="D35" s="34"/>
@@ -12316,7 +12296,7 @@
     </row>
     <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="30" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C36" s="32"/>
       <c r="E36" s="32"/>
@@ -12326,7 +12306,7 @@
     </row>
     <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="30" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C37" s="32"/>
       <c r="E37" s="32"/>
@@ -12336,7 +12316,7 @@
     </row>
     <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="30" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C38" s="32"/>
       <c r="E38" s="32"/>
@@ -12393,7 +12373,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="137" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -12405,7 +12385,7 @@
       <c r="I1" s="138"/>
       <c r="J1" s="138"/>
       <c r="L1" s="137" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M1" s="138"/>
       <c r="N1" s="138"/>
@@ -12498,7 +12478,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I3" s="19" t="s">
         <v>19</v>
@@ -12616,7 +12596,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21">
@@ -12635,7 +12615,7 @@
         <v>25</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q5" s="15" t="s">
         <v>49</v>
@@ -12650,7 +12630,7 @@
     </row>
     <row r="10" spans="1:20" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A10" s="137" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B10" s="138"/>
       <c r="C10" s="138"/>
@@ -12662,7 +12642,7 @@
       <c r="I10" s="138"/>
       <c r="J10" s="138"/>
       <c r="L10" s="137" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M10" s="138"/>
       <c r="N10" s="138"/>
@@ -12755,7 +12735,7 @@
         <v>18</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I12" s="19" t="s">
         <v>19</v>
@@ -12873,7 +12853,7 @@
         <v>27</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="21">
@@ -12892,7 +12872,7 @@
         <v>25</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="15" t="s">
         <v>49</v>
@@ -12929,7 +12909,7 @@
   <sheetData>
     <row r="1" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B1" s="139" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C1" s="140"/>
       <c r="D1" s="140"/>
@@ -12996,7 +12976,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J3" s="19" t="s">
         <v>19</v>
@@ -13045,16 +13025,16 @@
         <v>24</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>26</v>
@@ -13067,7 +13047,7 @@
     </row>
     <row r="7" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B7" s="139" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C7" s="140"/>
       <c r="D7" s="140"/>
@@ -13134,7 +13114,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J9" s="19" t="s">
         <v>19</v>
@@ -13183,16 +13163,16 @@
         <v>24</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>27</v>
@@ -13205,7 +13185,7 @@
     </row>
     <row r="13" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B13" s="139" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C13" s="140"/>
       <c r="D13" s="140"/>
@@ -13272,7 +13252,7 @@
         <v>18</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>19</v>
@@ -13321,16 +13301,16 @@
         <v>24</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H17" s="16" t="s">
         <v>49</v>
@@ -13343,7 +13323,7 @@
     </row>
     <row r="21" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B21" s="139" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C21" s="140"/>
       <c r="D21" s="140"/>
@@ -13410,7 +13390,7 @@
         <v>18</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>19</v>
@@ -13459,19 +13439,19 @@
         <v>24</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="21"/>
@@ -13481,7 +13461,7 @@
     </row>
     <row r="28" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B28" s="139" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C28" s="140"/>
       <c r="D28" s="140"/>
@@ -13548,7 +13528,7 @@
         <v>18</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J30" s="19" t="s">
         <v>19</v>
@@ -13597,16 +13577,16 @@
         <v>24</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H32" s="16" t="s">
         <v>83</v>
@@ -13619,7 +13599,7 @@
     </row>
     <row r="34" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B34" s="141" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C34" s="142"/>
       <c r="D34" s="142"/>
@@ -13731,13 +13711,13 @@
         <v>25</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I38" s="21"/>
       <c r="J38" s="21">
@@ -13746,7 +13726,7 @@
     </row>
     <row r="40" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B40" s="141" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C40" s="142"/>
       <c r="D40" s="142"/>
@@ -13858,13 +13838,13 @@
         <v>25</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I44" s="21"/>
       <c r="J44" s="21">
@@ -13873,7 +13853,7 @@
     </row>
     <row r="46" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B46" s="141" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C46" s="142"/>
       <c r="D46" s="142"/>
@@ -13985,10 +13965,10 @@
         <v>25</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H50" s="16" t="s">
         <v>110</v>
@@ -14000,7 +13980,7 @@
     </row>
     <row r="52" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B52" s="141" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C52" s="142"/>
       <c r="D52" s="142"/>
@@ -14112,13 +14092,13 @@
         <v>25</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I56" s="21"/>
       <c r="J56" s="21">
@@ -14127,7 +14107,7 @@
     </row>
     <row r="59" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B59" s="141" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C59" s="142"/>
       <c r="D59" s="142"/>
@@ -14239,13 +14219,13 @@
         <v>25</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I63" s="21"/>
       <c r="J63" s="21">
@@ -14254,7 +14234,7 @@
     </row>
     <row r="65" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B65" s="141" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C65" s="142"/>
       <c r="D65" s="142"/>
@@ -14366,13 +14346,13 @@
         <v>25</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I69" s="21"/>
       <c r="J69" s="21">
@@ -14381,7 +14361,7 @@
     </row>
     <row r="71" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B71" s="141" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C71" s="142"/>
       <c r="D71" s="142"/>
@@ -14493,13 +14473,13 @@
         <v>25</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H75" s="16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I75" s="21"/>
       <c r="J75" s="21">
@@ -14508,7 +14488,7 @@
     </row>
     <row r="78" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B78" s="141" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C78" s="142"/>
       <c r="D78" s="142"/>
@@ -14620,13 +14600,13 @@
         <v>25</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I82" s="21"/>
       <c r="J82" s="21">
@@ -14671,7 +14651,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="143" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C2" s="144"/>
       <c r="D2" s="144"/>
@@ -14685,7 +14665,7 @@
     </row>
     <row r="3" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -14706,7 +14686,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>9</v>
@@ -14738,7 +14718,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
@@ -14770,7 +14750,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -14794,7 +14774,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
@@ -14803,10 +14783,10 @@
     </row>
     <row r="7" spans="2:11" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C7" s="146" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D7" s="147"/>
       <c r="E7" s="147"/>

--- a/自动封片机通讯协议.xlsx
+++ b/自动封片机通讯协议.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\Glass_Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98A846D-DD4A-4845-BCA5-3B057E808184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0C9F99-63D7-4973-892A-A98AB3156501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="查询协议" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="399">
   <si>
     <t>查询：状态：在线状态</t>
   </si>
@@ -165,6 +165,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>G</t>
@@ -174,6 +175,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>C_ver_pos</t>
@@ -185,6 +187,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>G</t>
@@ -194,6 +197,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>C_rot_pos</t>
@@ -205,6 +209,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>G</t>
@@ -214,6 +219,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>P_pos</t>
@@ -276,6 +282,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -285,6 +292,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -353,6 +361,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -362,6 +371,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -461,6 +471,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>GE</t>
@@ -470,6 +481,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_</t>
@@ -479,6 +491,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>speed</t>
@@ -490,6 +503,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>GC</t>
@@ -499,6 +513,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>V</t>
@@ -508,6 +523,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_speed</t>
@@ -519,6 +535,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>GCR</t>
@@ -528,6 +545,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_speed</t>
@@ -539,6 +557,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>GP</t>
@@ -548,6 +567,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_speed</t>
@@ -562,6 +582,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>GOV</t>
@@ -571,6 +592,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_speed</t>
@@ -585,6 +607,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -594,6 +617,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>m/s</t>
@@ -632,6 +656,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -642,6 +667,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -681,6 +707,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>夹手下降封片位置GCV</t>
@@ -690,6 +717,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_package_pos</t>
@@ -725,6 +753,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>盖片延时后d</t>
@@ -734,6 +763,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>elay_after</t>
@@ -748,6 +778,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>喷胶位置s</t>
@@ -757,6 +788,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>pray_pos</t>
@@ -768,6 +800,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>喷胶长度s</t>
@@ -777,6 +810,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>pray_len</t>
@@ -797,6 +831,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -806,6 +841,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -817,6 +853,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -827,6 +864,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -839,6 +877,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -849,6 +888,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -861,6 +901,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -871,6 +912,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -907,6 +949,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>装载槽扫片速度G</t>
@@ -916,6 +959,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>E_box_speed</t>
@@ -930,6 +974,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -939,6 +984,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>6</t>
@@ -959,6 +1005,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -969,6 +1016,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -981,6 +1029,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -991,6 +1040,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1006,6 +1056,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1016,6 +1067,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1034,6 +1086,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>GE_</t>
@@ -1043,6 +1096,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>max_</t>
@@ -1052,6 +1106,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>speed</t>
@@ -1066,6 +1121,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>GC</t>
@@ -1075,6 +1131,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>V_max</t>
@@ -1084,6 +1141,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_speed</t>
@@ -1095,6 +1153,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>GCV_min</t>
@@ -1104,6 +1163,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_speed</t>
@@ -1115,6 +1175,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>GCR</t>
@@ -1124,6 +1185,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_</t>
@@ -1133,6 +1195,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>max_speed</t>
@@ -1144,6 +1207,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>GCR</t>
@@ -1153,6 +1217,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_</t>
@@ -1162,6 +1227,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>min_speed</t>
@@ -1173,6 +1239,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>GP</t>
@@ -1182,6 +1249,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_max_speed</t>
@@ -1193,6 +1261,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>G</t>
@@ -1202,6 +1271,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>P_min_speed</t>
@@ -1216,6 +1286,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>G</t>
@@ -1225,6 +1296,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>OH_min_speed</t>
@@ -1236,6 +1308,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>GOV</t>
@@ -1245,6 +1318,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_max_speed</t>
@@ -1256,6 +1330,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>G</t>
@@ -1265,6 +1340,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>OV_min_speed</t>
@@ -1867,6 +1943,50 @@
   </si>
   <si>
     <t>1000-1800</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警设置</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置：参数：报警设置</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸取失败暂停</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸取失败蜂鸣器</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少盖玻片</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储盒满</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少喷胶头</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行完成</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制应答：运行：运行完成</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>09</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1889,35 +2009,41 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1926,6 +2052,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1933,12 +2060,14 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2467,6 +2596,12 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2563,6 +2698,15 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2574,15 +2718,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2673,12 +2808,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2963,7 +3092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AS119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="N91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AH88" sqref="AH88"/>
     </sheetView>
   </sheetViews>
@@ -2991,29 +3120,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:31" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="M2" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="M2" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
     </row>
     <row r="3" spans="3:31" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -3253,43 +3382,43 @@
       <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="84"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="86"/>
       <c r="M7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="85" t="s">
+      <c r="N7" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="85"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="87"/>
     </row>
     <row r="9" spans="3:31" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
       <c r="M9" s="50" t="s">
         <v>33</v>
       </c>
@@ -3359,17 +3488,17 @@
       <c r="S10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="86" t="s">
+      <c r="T10" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="88"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="90"/>
       <c r="AC10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3614,66 +3743,66 @@
       <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="84"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="86"/>
       <c r="M14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N14" s="89"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="90"/>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="90"/>
-      <c r="AC14" s="90"/>
-      <c r="AD14" s="90"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="92"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="92"/>
+      <c r="V14" s="92"/>
+      <c r="W14" s="92"/>
+      <c r="X14" s="92"/>
+      <c r="Y14" s="92"/>
+      <c r="Z14" s="92"/>
+      <c r="AA14" s="92"/>
+      <c r="AB14" s="92"/>
+      <c r="AC14" s="92"/>
+      <c r="AD14" s="92"/>
     </row>
     <row r="17" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="M17" s="91" t="s">
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="M17" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="92"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="92"/>
-      <c r="V17" s="92"/>
-      <c r="W17" s="92"/>
-      <c r="X17" s="92"/>
-      <c r="Y17" s="92"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="92"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="94"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="94"/>
+      <c r="Z17" s="94"/>
+      <c r="AA17" s="94"/>
     </row>
     <row r="18" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C18" s="1" t="s">
@@ -3724,14 +3853,14 @@
       <c r="S18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="T18" s="86" t="s">
+      <c r="T18" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="U18" s="87"/>
-      <c r="V18" s="87"/>
-      <c r="W18" s="87"/>
-      <c r="X18" s="87"/>
-      <c r="Y18" s="88"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="90"/>
       <c r="Z18" s="1" t="s">
         <v>9</v>
       </c>
@@ -3966,45 +4095,45 @@
       <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="86"/>
       <c r="M22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N22" s="89"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="90"/>
-      <c r="Y22" s="90"/>
-      <c r="Z22" s="90"/>
-      <c r="AA22" s="90"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="92"/>
+      <c r="W22" s="92"/>
+      <c r="X22" s="92"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="92"/>
     </row>
     <row r="23" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
       <c r="M25" s="53" t="s">
         <v>52</v>
       </c>
@@ -4069,11 +4198,11 @@
       <c r="S26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="T26" s="93" t="s">
+      <c r="T26" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="U26" s="94"/>
-      <c r="V26" s="94"/>
+      <c r="U26" s="96"/>
+      <c r="V26" s="96"/>
       <c r="W26" s="1" t="s">
         <v>9</v>
       </c>
@@ -4145,16 +4274,16 @@
       <c r="X27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA27" s="95" t="s">
+      <c r="AA27" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="AB27" s="96"/>
-      <c r="AC27" s="96"/>
-      <c r="AD27" s="96"/>
-      <c r="AE27" s="96"/>
-      <c r="AF27" s="96"/>
-      <c r="AG27" s="96"/>
-      <c r="AH27" s="96"/>
+      <c r="AB27" s="98"/>
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="98"/>
+      <c r="AE27" s="98"/>
+      <c r="AF27" s="98"/>
+      <c r="AG27" s="98"/>
+      <c r="AH27" s="98"/>
     </row>
     <row r="28" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C28" s="1" t="s">
@@ -4338,28 +4467,28 @@
       <c r="C30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="82"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="86"/>
       <c r="M30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N30" s="97"/>
-      <c r="O30" s="98"/>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="98"/>
-      <c r="R30" s="98"/>
-      <c r="S30" s="98"/>
-      <c r="T30" s="98"/>
-      <c r="U30" s="98"/>
-      <c r="V30" s="98"/>
-      <c r="W30" s="98"/>
-      <c r="X30" s="98"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="100"/>
+      <c r="R30" s="100"/>
+      <c r="S30" s="100"/>
+      <c r="T30" s="100"/>
+      <c r="U30" s="100"/>
+      <c r="V30" s="100"/>
+      <c r="W30" s="100"/>
+      <c r="X30" s="100"/>
     </row>
     <row r="35" spans="3:36" x14ac:dyDescent="0.15">
       <c r="Y35" s="64"/>
@@ -4370,32 +4499,32 @@
       </c>
     </row>
     <row r="37" spans="3:36" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="M37" s="91" t="s">
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="82"/>
+      <c r="M37" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="N37" s="92"/>
-      <c r="O37" s="92"/>
-      <c r="P37" s="92"/>
-      <c r="Q37" s="92"/>
-      <c r="R37" s="92"/>
-      <c r="S37" s="92"/>
-      <c r="T37" s="92"/>
-      <c r="U37" s="92"/>
-      <c r="V37" s="92"/>
-      <c r="W37" s="92"/>
-      <c r="X37" s="92"/>
-      <c r="Y37" s="92"/>
+      <c r="N37" s="94"/>
+      <c r="O37" s="94"/>
+      <c r="P37" s="94"/>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="94"/>
+      <c r="S37" s="94"/>
+      <c r="T37" s="94"/>
+      <c r="U37" s="94"/>
+      <c r="V37" s="94"/>
+      <c r="W37" s="94"/>
+      <c r="X37" s="94"/>
+      <c r="Y37" s="94"/>
     </row>
     <row r="38" spans="3:36" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
@@ -4446,12 +4575,12 @@
       <c r="S38" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="T38" s="86" t="s">
+      <c r="T38" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="U38" s="87"/>
-      <c r="V38" s="87"/>
-      <c r="W38" s="87"/>
+      <c r="U38" s="89"/>
+      <c r="V38" s="89"/>
+      <c r="W38" s="89"/>
       <c r="X38" s="1" t="s">
         <v>9</v>
       </c>
@@ -4526,16 +4655,16 @@
       <c r="Y39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA39" s="95" t="s">
+      <c r="AA39" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="AB39" s="96"/>
-      <c r="AC39" s="96"/>
-      <c r="AD39" s="96"/>
-      <c r="AE39" s="96"/>
-      <c r="AF39" s="96"/>
-      <c r="AG39" s="96"/>
-      <c r="AH39" s="96"/>
+      <c r="AB39" s="98"/>
+      <c r="AC39" s="98"/>
+      <c r="AD39" s="98"/>
+      <c r="AE39" s="98"/>
+      <c r="AF39" s="98"/>
+      <c r="AG39" s="98"/>
+      <c r="AH39" s="98"/>
     </row>
     <row r="40" spans="3:36" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C40" s="1" t="s">
@@ -4709,41 +4838,41 @@
       <c r="C42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="82"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="84"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="86"/>
       <c r="M42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N42" s="89"/>
-      <c r="O42" s="90"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="90"/>
-      <c r="S42" s="90"/>
-      <c r="T42" s="90"/>
-      <c r="U42" s="90"/>
-      <c r="V42" s="90"/>
-      <c r="W42" s="90"/>
-      <c r="X42" s="90"/>
-      <c r="Y42" s="90"/>
+      <c r="N42" s="91"/>
+      <c r="O42" s="92"/>
+      <c r="P42" s="92"/>
+      <c r="Q42" s="92"/>
+      <c r="R42" s="92"/>
+      <c r="S42" s="92"/>
+      <c r="T42" s="92"/>
+      <c r="U42" s="92"/>
+      <c r="V42" s="92"/>
+      <c r="W42" s="92"/>
+      <c r="X42" s="92"/>
+      <c r="Y42" s="92"/>
     </row>
     <row r="45" spans="3:36" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA45" s="95" t="s">
+      <c r="AA45" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="AB45" s="96"/>
-      <c r="AC45" s="96"/>
-      <c r="AD45" s="96"/>
-      <c r="AE45" s="96"/>
-      <c r="AF45" s="96"/>
-      <c r="AG45" s="96"/>
-      <c r="AH45" s="96"/>
+      <c r="AB45" s="98"/>
+      <c r="AC45" s="98"/>
+      <c r="AD45" s="98"/>
+      <c r="AE45" s="98"/>
+      <c r="AF45" s="98"/>
+      <c r="AG45" s="98"/>
+      <c r="AH45" s="98"/>
     </row>
     <row r="46" spans="3:36" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA46" s="4" t="s">
@@ -4788,16 +4917,16 @@
       </c>
     </row>
     <row r="51" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA51" s="95" t="s">
+      <c r="AA51" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="AB51" s="96"/>
-      <c r="AC51" s="96"/>
-      <c r="AD51" s="96"/>
-      <c r="AE51" s="96"/>
-      <c r="AF51" s="96"/>
-      <c r="AG51" s="96"/>
-      <c r="AH51" s="96"/>
+      <c r="AB51" s="98"/>
+      <c r="AC51" s="98"/>
+      <c r="AD51" s="98"/>
+      <c r="AE51" s="98"/>
+      <c r="AF51" s="98"/>
+      <c r="AG51" s="98"/>
+      <c r="AH51" s="98"/>
     </row>
     <row r="52" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA52" s="4" t="s">
@@ -4846,16 +4975,16 @@
       </c>
     </row>
     <row r="57" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA57" s="95" t="s">
+      <c r="AA57" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="AB57" s="96"/>
-      <c r="AC57" s="96"/>
-      <c r="AD57" s="96"/>
-      <c r="AE57" s="96"/>
-      <c r="AF57" s="96"/>
-      <c r="AG57" s="96"/>
-      <c r="AH57" s="96"/>
+      <c r="AB57" s="98"/>
+      <c r="AC57" s="98"/>
+      <c r="AD57" s="98"/>
+      <c r="AE57" s="98"/>
+      <c r="AF57" s="98"/>
+      <c r="AG57" s="98"/>
+      <c r="AH57" s="98"/>
     </row>
     <row r="58" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA58" s="4" t="s">
@@ -4906,33 +5035,33 @@
       </c>
     </row>
     <row r="64" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C64" s="80" t="s">
+      <c r="C64" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="D64" s="80"/>
-      <c r="E64" s="80"/>
-      <c r="F64" s="80"/>
-      <c r="G64" s="80"/>
-      <c r="H64" s="80"/>
-      <c r="I64" s="80"/>
-      <c r="J64" s="80"/>
-      <c r="K64" s="80"/>
-      <c r="M64" s="99" t="s">
+      <c r="D64" s="82"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="82"/>
+      <c r="H64" s="82"/>
+      <c r="I64" s="82"/>
+      <c r="J64" s="82"/>
+      <c r="K64" s="82"/>
+      <c r="M64" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="N64" s="99"/>
-      <c r="O64" s="99"/>
-      <c r="P64" s="99"/>
-      <c r="Q64" s="99"/>
-      <c r="R64" s="99"/>
-      <c r="S64" s="99"/>
-      <c r="T64" s="99"/>
-      <c r="U64" s="99"/>
-      <c r="V64" s="99"/>
-      <c r="W64" s="99"/>
-      <c r="X64" s="99"/>
-      <c r="Y64" s="99"/>
-      <c r="Z64" s="99"/>
+      <c r="N64" s="101"/>
+      <c r="O64" s="101"/>
+      <c r="P64" s="101"/>
+      <c r="Q64" s="101"/>
+      <c r="R64" s="101"/>
+      <c r="S64" s="101"/>
+      <c r="T64" s="101"/>
+      <c r="U64" s="101"/>
+      <c r="V64" s="101"/>
+      <c r="W64" s="101"/>
+      <c r="X64" s="101"/>
+      <c r="Y64" s="101"/>
+      <c r="Z64" s="101"/>
     </row>
     <row r="65" spans="3:45" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C65" s="1" t="s">
@@ -4983,13 +5112,13 @@
       <c r="S65" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="T65" s="100" t="s">
+      <c r="T65" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="U65" s="100"/>
-      <c r="V65" s="100"/>
-      <c r="W65" s="100"/>
-      <c r="X65" s="100"/>
+      <c r="U65" s="102"/>
+      <c r="V65" s="102"/>
+      <c r="W65" s="102"/>
+      <c r="X65" s="102"/>
       <c r="Y65" s="1" t="s">
         <v>9</v>
       </c>
@@ -5205,47 +5334,47 @@
       <c r="C69" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="82" t="s">
+      <c r="D69" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="E69" s="83"/>
-      <c r="F69" s="83"/>
-      <c r="G69" s="83"/>
-      <c r="H69" s="83"/>
-      <c r="I69" s="83"/>
-      <c r="J69" s="83"/>
-      <c r="K69" s="84"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="85"/>
+      <c r="I69" s="85"/>
+      <c r="J69" s="85"/>
+      <c r="K69" s="86"/>
       <c r="M69" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N69" s="101" t="s">
+      <c r="N69" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="O69" s="101"/>
-      <c r="P69" s="101"/>
-      <c r="Q69" s="101"/>
-      <c r="R69" s="101"/>
-      <c r="S69" s="101"/>
-      <c r="T69" s="101"/>
-      <c r="U69" s="101"/>
-      <c r="V69" s="101"/>
-      <c r="W69" s="101"/>
-      <c r="X69" s="101"/>
-      <c r="Y69" s="101"/>
-      <c r="Z69" s="101"/>
+      <c r="O69" s="103"/>
+      <c r="P69" s="103"/>
+      <c r="Q69" s="103"/>
+      <c r="R69" s="103"/>
+      <c r="S69" s="103"/>
+      <c r="T69" s="103"/>
+      <c r="U69" s="103"/>
+      <c r="V69" s="103"/>
+      <c r="W69" s="103"/>
+      <c r="X69" s="103"/>
+      <c r="Y69" s="103"/>
+      <c r="Z69" s="103"/>
     </row>
     <row r="73" spans="3:45" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C73" s="80" t="s">
+      <c r="C73" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="D73" s="80"/>
-      <c r="E73" s="80"/>
-      <c r="F73" s="80"/>
-      <c r="G73" s="80"/>
-      <c r="H73" s="80"/>
-      <c r="I73" s="80"/>
-      <c r="J73" s="80"/>
-      <c r="K73" s="80"/>
+      <c r="D73" s="82"/>
+      <c r="E73" s="82"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="82"/>
+      <c r="I73" s="82"/>
+      <c r="J73" s="82"/>
+      <c r="K73" s="82"/>
       <c r="M73" s="67" t="s">
         <v>113</v>
       </c>
@@ -5407,14 +5536,14 @@
       <c r="Y75" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="Z75" s="86" t="s">
+      <c r="Z75" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="AA75" s="87"/>
-      <c r="AB75" s="87"/>
-      <c r="AC75" s="87"/>
-      <c r="AD75" s="87"/>
-      <c r="AE75" s="88"/>
+      <c r="AA75" s="89"/>
+      <c r="AB75" s="89"/>
+      <c r="AC75" s="89"/>
+      <c r="AD75" s="89"/>
+      <c r="AE75" s="90"/>
       <c r="AF75" s="1" t="s">
         <v>19</v>
       </c>
@@ -5611,14 +5740,14 @@
       <c r="C78" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D78" s="82"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="83"/>
-      <c r="H78" s="83"/>
-      <c r="I78" s="83"/>
-      <c r="J78" s="83"/>
-      <c r="K78" s="84"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="85"/>
+      <c r="F78" s="85"/>
+      <c r="G78" s="85"/>
+      <c r="H78" s="85"/>
+      <c r="I78" s="85"/>
+      <c r="J78" s="85"/>
+      <c r="K78" s="86"/>
       <c r="M78" s="1" t="s">
         <v>29</v>
       </c>
@@ -5642,16 +5771,16 @@
       <c r="AE78" s="75"/>
     </row>
     <row r="79" spans="3:45" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AL79" s="95" t="s">
+      <c r="AL79" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="AM79" s="96"/>
-      <c r="AN79" s="96"/>
-      <c r="AO79" s="96"/>
-      <c r="AP79" s="96"/>
-      <c r="AQ79" s="96"/>
-      <c r="AR79" s="96"/>
-      <c r="AS79" s="96"/>
+      <c r="AM79" s="98"/>
+      <c r="AN79" s="98"/>
+      <c r="AO79" s="98"/>
+      <c r="AP79" s="98"/>
+      <c r="AQ79" s="98"/>
+      <c r="AR79" s="98"/>
+      <c r="AS79" s="98"/>
     </row>
     <row r="80" spans="3:45" ht="17.25" x14ac:dyDescent="0.15">
       <c r="T80" s="74" t="s">
@@ -5731,34 +5860,34 @@
       </c>
     </row>
     <row r="82" spans="3:45" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C82" s="80" t="s">
+      <c r="C82" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="D82" s="80"/>
-      <c r="E82" s="80"/>
-      <c r="F82" s="80"/>
-      <c r="G82" s="80"/>
-      <c r="H82" s="80"/>
-      <c r="I82" s="80"/>
-      <c r="J82" s="80"/>
-      <c r="K82" s="80"/>
-      <c r="M82" s="102" t="s">
+      <c r="D82" s="82"/>
+      <c r="E82" s="82"/>
+      <c r="F82" s="82"/>
+      <c r="G82" s="82"/>
+      <c r="H82" s="82"/>
+      <c r="I82" s="82"/>
+      <c r="J82" s="82"/>
+      <c r="K82" s="82"/>
+      <c r="M82" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="N82" s="103"/>
-      <c r="O82" s="103"/>
-      <c r="P82" s="103"/>
-      <c r="Q82" s="103"/>
-      <c r="R82" s="103"/>
-      <c r="S82" s="103"/>
-      <c r="T82" s="103"/>
-      <c r="U82" s="103"/>
-      <c r="V82" s="103"/>
-      <c r="W82" s="103"/>
-      <c r="X82" s="103"/>
-      <c r="Y82" s="103"/>
-      <c r="Z82" s="103"/>
-      <c r="AA82" s="103"/>
+      <c r="N82" s="105"/>
+      <c r="O82" s="105"/>
+      <c r="P82" s="105"/>
+      <c r="Q82" s="105"/>
+      <c r="R82" s="105"/>
+      <c r="S82" s="105"/>
+      <c r="T82" s="105"/>
+      <c r="U82" s="105"/>
+      <c r="V82" s="105"/>
+      <c r="W82" s="105"/>
+      <c r="X82" s="105"/>
+      <c r="Y82" s="105"/>
+      <c r="Z82" s="105"/>
+      <c r="AA82" s="105"/>
     </row>
     <row r="83" spans="3:45" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C83" s="1" t="s">
@@ -6057,43 +6186,43 @@
       <c r="C87" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D87" s="82"/>
-      <c r="E87" s="83"/>
-      <c r="F87" s="83"/>
-      <c r="G87" s="83"/>
-      <c r="H87" s="83"/>
-      <c r="I87" s="83"/>
-      <c r="J87" s="83"/>
-      <c r="K87" s="84"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="H87" s="85"/>
+      <c r="I87" s="85"/>
+      <c r="J87" s="85"/>
+      <c r="K87" s="86"/>
       <c r="M87" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N87" s="97"/>
-      <c r="O87" s="98"/>
-      <c r="P87" s="98"/>
-      <c r="Q87" s="98"/>
-      <c r="R87" s="98"/>
-      <c r="S87" s="98"/>
-      <c r="T87" s="98"/>
-      <c r="U87" s="98"/>
-      <c r="V87" s="98"/>
-      <c r="W87" s="98"/>
-      <c r="X87" s="98"/>
-      <c r="Y87" s="98"/>
-      <c r="Z87" s="98"/>
-      <c r="AA87" s="98"/>
+      <c r="N87" s="99"/>
+      <c r="O87" s="100"/>
+      <c r="P87" s="100"/>
+      <c r="Q87" s="100"/>
+      <c r="R87" s="100"/>
+      <c r="S87" s="100"/>
+      <c r="T87" s="100"/>
+      <c r="U87" s="100"/>
+      <c r="V87" s="100"/>
+      <c r="W87" s="100"/>
+      <c r="X87" s="100"/>
+      <c r="Y87" s="100"/>
+      <c r="Z87" s="100"/>
+      <c r="AA87" s="100"/>
     </row>
     <row r="88" spans="3:45" x14ac:dyDescent="0.15">
       <c r="Y88" s="77"/>
     </row>
     <row r="89" spans="3:45" x14ac:dyDescent="0.15">
-      <c r="T89" s="149" t="s">
+      <c r="T89" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="U89" s="149" t="s">
+      <c r="U89" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="V89" s="149" t="s">
+      <c r="V89" s="80" t="s">
         <v>387</v>
       </c>
       <c r="W89" s="36" t="s">
@@ -6102,7 +6231,7 @@
       <c r="X89" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="Y89" s="150" t="s">
+      <c r="Y89" s="81" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6121,35 +6250,35 @@
       </c>
     </row>
     <row r="91" spans="3:45" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C91" s="80" t="s">
+      <c r="C91" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="D91" s="80"/>
-      <c r="E91" s="80"/>
-      <c r="F91" s="80"/>
-      <c r="G91" s="80"/>
-      <c r="H91" s="80"/>
-      <c r="I91" s="80"/>
-      <c r="J91" s="80"/>
-      <c r="K91" s="80"/>
-      <c r="M91" s="102" t="s">
+      <c r="D91" s="82"/>
+      <c r="E91" s="82"/>
+      <c r="F91" s="82"/>
+      <c r="G91" s="82"/>
+      <c r="H91" s="82"/>
+      <c r="I91" s="82"/>
+      <c r="J91" s="82"/>
+      <c r="K91" s="82"/>
+      <c r="M91" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="N91" s="103"/>
-      <c r="O91" s="103"/>
-      <c r="P91" s="103"/>
-      <c r="Q91" s="103"/>
-      <c r="R91" s="103"/>
-      <c r="S91" s="103"/>
-      <c r="T91" s="103"/>
-      <c r="U91" s="103"/>
-      <c r="V91" s="103"/>
-      <c r="W91" s="103"/>
-      <c r="X91" s="103"/>
-      <c r="Y91" s="103"/>
-      <c r="Z91" s="103"/>
-      <c r="AA91" s="103"/>
-      <c r="AB91" s="108"/>
+      <c r="N91" s="105"/>
+      <c r="O91" s="105"/>
+      <c r="P91" s="105"/>
+      <c r="Q91" s="105"/>
+      <c r="R91" s="105"/>
+      <c r="S91" s="105"/>
+      <c r="T91" s="105"/>
+      <c r="U91" s="105"/>
+      <c r="V91" s="105"/>
+      <c r="W91" s="105"/>
+      <c r="X91" s="105"/>
+      <c r="Y91" s="105"/>
+      <c r="Z91" s="105"/>
+      <c r="AA91" s="105"/>
+      <c r="AB91" s="110"/>
     </row>
     <row r="92" spans="3:45" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C92" s="1" t="s">
@@ -6200,15 +6329,15 @@
       <c r="S92" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="T92" s="86" t="s">
+      <c r="T92" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="U92" s="87"/>
-      <c r="V92" s="87"/>
-      <c r="W92" s="87"/>
-      <c r="X92" s="87"/>
-      <c r="Y92" s="87"/>
-      <c r="Z92" s="88"/>
+      <c r="U92" s="89"/>
+      <c r="V92" s="89"/>
+      <c r="W92" s="89"/>
+      <c r="X92" s="89"/>
+      <c r="Y92" s="89"/>
+      <c r="Z92" s="90"/>
       <c r="AA92" s="1" t="s">
         <v>9</v>
       </c>
@@ -6452,14 +6581,14 @@
       <c r="C96" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D96" s="82"/>
-      <c r="E96" s="83"/>
-      <c r="F96" s="83"/>
-      <c r="G96" s="83"/>
-      <c r="H96" s="83"/>
-      <c r="I96" s="83"/>
-      <c r="J96" s="83"/>
-      <c r="K96" s="84"/>
+      <c r="D96" s="84"/>
+      <c r="E96" s="85"/>
+      <c r="F96" s="85"/>
+      <c r="G96" s="85"/>
+      <c r="H96" s="85"/>
+      <c r="I96" s="85"/>
+      <c r="J96" s="85"/>
+      <c r="K96" s="86"/>
       <c r="M96" s="1" t="s">
         <v>29</v>
       </c>
@@ -6508,35 +6637,35 @@
       </c>
     </row>
     <row r="100" spans="3:30" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C100" s="80" t="s">
+      <c r="C100" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="D100" s="80"/>
-      <c r="E100" s="80"/>
-      <c r="F100" s="80"/>
-      <c r="G100" s="80"/>
-      <c r="H100" s="80"/>
-      <c r="I100" s="80"/>
-      <c r="J100" s="80"/>
-      <c r="K100" s="80"/>
-      <c r="M100" s="109" t="s">
+      <c r="D100" s="82"/>
+      <c r="E100" s="82"/>
+      <c r="F100" s="82"/>
+      <c r="G100" s="82"/>
+      <c r="H100" s="82"/>
+      <c r="I100" s="82"/>
+      <c r="J100" s="82"/>
+      <c r="K100" s="82"/>
+      <c r="M100" s="111" t="s">
         <v>162</v>
       </c>
-      <c r="N100" s="110"/>
-      <c r="O100" s="110"/>
-      <c r="P100" s="110"/>
-      <c r="Q100" s="110"/>
-      <c r="R100" s="110"/>
-      <c r="S100" s="110"/>
-      <c r="T100" s="110"/>
-      <c r="U100" s="110"/>
-      <c r="V100" s="110"/>
-      <c r="W100" s="110"/>
-      <c r="X100" s="110"/>
-      <c r="Y100" s="110"/>
-      <c r="Z100" s="110"/>
-      <c r="AA100" s="110"/>
-      <c r="AB100" s="111"/>
+      <c r="N100" s="112"/>
+      <c r="O100" s="112"/>
+      <c r="P100" s="112"/>
+      <c r="Q100" s="112"/>
+      <c r="R100" s="112"/>
+      <c r="S100" s="112"/>
+      <c r="T100" s="112"/>
+      <c r="U100" s="112"/>
+      <c r="V100" s="112"/>
+      <c r="W100" s="112"/>
+      <c r="X100" s="112"/>
+      <c r="Y100" s="112"/>
+      <c r="Z100" s="112"/>
+      <c r="AA100" s="112"/>
+      <c r="AB100" s="113"/>
     </row>
     <row r="101" spans="3:30" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C101" s="1" t="s">
@@ -6587,15 +6716,15 @@
       <c r="S101" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="T101" s="104" t="s">
+      <c r="T101" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="U101" s="105"/>
-      <c r="V101" s="105"/>
-      <c r="W101" s="105"/>
-      <c r="X101" s="105"/>
-      <c r="Y101" s="105"/>
-      <c r="Z101" s="106"/>
+      <c r="U101" s="107"/>
+      <c r="V101" s="107"/>
+      <c r="W101" s="107"/>
+      <c r="X101" s="107"/>
+      <c r="Y101" s="107"/>
+      <c r="Z101" s="108"/>
       <c r="AA101" s="1" t="s">
         <v>9</v>
       </c>
@@ -6839,32 +6968,32 @@
       <c r="C105" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D105" s="82"/>
-      <c r="E105" s="83"/>
-      <c r="F105" s="83"/>
-      <c r="G105" s="83"/>
-      <c r="H105" s="83"/>
-      <c r="I105" s="83"/>
-      <c r="J105" s="83"/>
-      <c r="K105" s="84"/>
+      <c r="D105" s="84"/>
+      <c r="E105" s="85"/>
+      <c r="F105" s="85"/>
+      <c r="G105" s="85"/>
+      <c r="H105" s="85"/>
+      <c r="I105" s="85"/>
+      <c r="J105" s="85"/>
+      <c r="K105" s="86"/>
       <c r="M105" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N105" s="97"/>
-      <c r="O105" s="98"/>
-      <c r="P105" s="98"/>
-      <c r="Q105" s="98"/>
-      <c r="R105" s="98"/>
-      <c r="S105" s="98"/>
-      <c r="T105" s="98"/>
-      <c r="U105" s="98"/>
-      <c r="V105" s="98"/>
-      <c r="W105" s="98"/>
-      <c r="X105" s="98"/>
-      <c r="Y105" s="98"/>
-      <c r="Z105" s="98"/>
-      <c r="AA105" s="98"/>
-      <c r="AB105" s="107"/>
+      <c r="N105" s="99"/>
+      <c r="O105" s="100"/>
+      <c r="P105" s="100"/>
+      <c r="Q105" s="100"/>
+      <c r="R105" s="100"/>
+      <c r="S105" s="100"/>
+      <c r="T105" s="100"/>
+      <c r="U105" s="100"/>
+      <c r="V105" s="100"/>
+      <c r="W105" s="100"/>
+      <c r="X105" s="100"/>
+      <c r="Y105" s="100"/>
+      <c r="Z105" s="100"/>
+      <c r="AA105" s="100"/>
+      <c r="AB105" s="109"/>
     </row>
     <row r="107" spans="3:30" x14ac:dyDescent="0.15">
       <c r="T107" s="36" t="s">
@@ -6971,10 +7100,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C2:AJ40"/>
+  <dimension ref="C2:AJ48"/>
   <sheetViews>
-    <sheetView topLeftCell="H25" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6986,30 +7115,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:36" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
       <c r="AA2" s="38" t="s">
         <v>180</v>
       </c>
@@ -7045,21 +7174,21 @@
       <c r="I3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="104" t="s">
+      <c r="J3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
       <c r="W3" s="1" t="s">
         <v>9</v>
       </c>
@@ -7390,23 +7519,23 @@
       <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
       <c r="AA7" s="1" t="s">
         <v>29</v>
       </c>
@@ -7424,30 +7553,30 @@
     </row>
     <row r="8" spans="3:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="3:36" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="114" t="s">
+      <c r="C9" s="119" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-      <c r="N9" s="115" t="s">
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="N9" s="120" t="s">
         <v>199</v>
       </c>
-      <c r="O9" s="115"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="115"/>
-      <c r="S9" s="115"/>
-      <c r="T9" s="115"/>
-      <c r="U9" s="115"/>
-      <c r="V9" s="115"/>
-      <c r="W9" s="115"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="120"/>
+      <c r="T9" s="120"/>
+      <c r="U9" s="120"/>
+      <c r="V9" s="120"/>
+      <c r="W9" s="120"/>
     </row>
     <row r="10" spans="3:36" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
@@ -7695,58 +7824,58 @@
       <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
       <c r="N14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="101"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="101"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="103"/>
+      <c r="T14" s="103"/>
+      <c r="U14" s="103"/>
+      <c r="V14" s="103"/>
+      <c r="W14" s="103"/>
     </row>
     <row r="16" spans="3:36" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="114" t="s">
         <v>203</v>
       </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="118"/>
-      <c r="S16" s="115" t="s">
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="115"/>
+      <c r="O16" s="115"/>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="116"/>
+      <c r="S16" s="120" t="s">
         <v>204</v>
       </c>
-      <c r="T16" s="115"/>
-      <c r="U16" s="115"/>
-      <c r="V16" s="115"/>
-      <c r="W16" s="115"/>
-      <c r="X16" s="115"/>
-      <c r="Y16" s="115"/>
-      <c r="Z16" s="115"/>
-      <c r="AA16" s="115"/>
-      <c r="AB16" s="115"/>
+      <c r="T16" s="120"/>
+      <c r="U16" s="120"/>
+      <c r="V16" s="120"/>
+      <c r="W16" s="120"/>
+      <c r="X16" s="120"/>
+      <c r="Y16" s="120"/>
+      <c r="Z16" s="120"/>
+      <c r="AA16" s="120"/>
+      <c r="AB16" s="120"/>
     </row>
     <row r="17" spans="3:30" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
@@ -8043,53 +8172,53 @@
       <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="97"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="107"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="109"/>
       <c r="S21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T21" s="101"/>
-      <c r="U21" s="101"/>
-      <c r="V21" s="101"/>
-      <c r="W21" s="101"/>
-      <c r="X21" s="101"/>
-      <c r="Y21" s="101"/>
-      <c r="Z21" s="101"/>
-      <c r="AA21" s="101"/>
-      <c r="AB21" s="101"/>
+      <c r="T21" s="103"/>
+      <c r="U21" s="103"/>
+      <c r="V21" s="103"/>
+      <c r="W21" s="103"/>
+      <c r="X21" s="103"/>
+      <c r="Y21" s="103"/>
+      <c r="Z21" s="103"/>
+      <c r="AA21" s="103"/>
+      <c r="AB21" s="103"/>
     </row>
     <row r="22" spans="3:30" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="3:30" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C25" s="116" t="s">
+      <c r="C25" s="114" t="s">
         <v>206</v>
       </c>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="117"/>
-      <c r="N25" s="117"/>
-      <c r="O25" s="117"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="117"/>
-      <c r="R25" s="118"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="115"/>
+      <c r="O25" s="115"/>
+      <c r="P25" s="115"/>
+      <c r="Q25" s="115"/>
+      <c r="R25" s="116"/>
       <c r="U25" s="38" t="s">
         <v>204</v>
       </c>
@@ -8412,65 +8541,65 @@
       <c r="C30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="97"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="98"/>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="98"/>
-      <c r="R30" s="107"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="100"/>
+      <c r="R30" s="109"/>
       <c r="U30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V30" s="97"/>
-      <c r="W30" s="98"/>
-      <c r="X30" s="98"/>
-      <c r="Y30" s="98"/>
-      <c r="Z30" s="98"/>
-      <c r="AA30" s="98"/>
-      <c r="AB30" s="98"/>
-      <c r="AC30" s="98"/>
-      <c r="AD30" s="107"/>
+      <c r="V30" s="99"/>
+      <c r="W30" s="100"/>
+      <c r="X30" s="100"/>
+      <c r="Y30" s="100"/>
+      <c r="Z30" s="100"/>
+      <c r="AA30" s="100"/>
+      <c r="AB30" s="100"/>
+      <c r="AC30" s="100"/>
+      <c r="AD30" s="109"/>
     </row>
     <row r="35" spans="3:30" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C35" s="116" t="s">
+      <c r="C35" s="114" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="117"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="117"/>
-      <c r="Q35" s="117"/>
-      <c r="R35" s="118"/>
-      <c r="U35" s="115" t="s">
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="115"/>
+      <c r="N35" s="115"/>
+      <c r="O35" s="115"/>
+      <c r="P35" s="115"/>
+      <c r="Q35" s="115"/>
+      <c r="R35" s="116"/>
+      <c r="U35" s="120" t="s">
         <v>204</v>
       </c>
-      <c r="V35" s="115"/>
-      <c r="W35" s="115"/>
-      <c r="X35" s="115"/>
-      <c r="Y35" s="115"/>
-      <c r="Z35" s="115"/>
-      <c r="AA35" s="115"/>
-      <c r="AB35" s="115"/>
-      <c r="AC35" s="115"/>
-      <c r="AD35" s="115"/>
+      <c r="V35" s="120"/>
+      <c r="W35" s="120"/>
+      <c r="X35" s="120"/>
+      <c r="Y35" s="120"/>
+      <c r="Z35" s="120"/>
+      <c r="AA35" s="120"/>
+      <c r="AB35" s="120"/>
+      <c r="AC35" s="120"/>
+      <c r="AD35" s="120"/>
     </row>
     <row r="36" spans="3:30" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C36" s="1" t="s">
@@ -8781,54 +8910,261 @@
       <c r="C40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="97"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="98"/>
-      <c r="K40" s="98"/>
-      <c r="L40" s="98"/>
-      <c r="M40" s="98"/>
-      <c r="N40" s="98"/>
-      <c r="O40" s="98"/>
-      <c r="P40" s="98"/>
-      <c r="Q40" s="98"/>
-      <c r="R40" s="107"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
+      <c r="O40" s="100"/>
+      <c r="P40" s="100"/>
+      <c r="Q40" s="100"/>
+      <c r="R40" s="109"/>
       <c r="U40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V40" s="101"/>
-      <c r="W40" s="101"/>
-      <c r="X40" s="101"/>
-      <c r="Y40" s="101"/>
-      <c r="Z40" s="101"/>
-      <c r="AA40" s="101"/>
-      <c r="AB40" s="101"/>
-      <c r="AC40" s="101"/>
-      <c r="AD40" s="101"/>
+      <c r="V40" s="103"/>
+      <c r="W40" s="103"/>
+      <c r="X40" s="103"/>
+      <c r="Y40" s="103"/>
+      <c r="Z40" s="103"/>
+      <c r="AA40" s="103"/>
+      <c r="AB40" s="103"/>
+      <c r="AC40" s="103"/>
+      <c r="AD40" s="103"/>
+    </row>
+    <row r="43" spans="3:30" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="C43" s="114" t="s">
+        <v>389</v>
+      </c>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="115"/>
+      <c r="J43" s="115"/>
+      <c r="K43" s="115"/>
+      <c r="L43" s="115"/>
+      <c r="M43" s="115"/>
+      <c r="N43" s="115"/>
+      <c r="O43" s="115"/>
+      <c r="P43" s="115"/>
+      <c r="Q43" s="115"/>
+      <c r="R43" s="116"/>
+    </row>
+    <row r="44" spans="3:30" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="3:30" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="C45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="K45" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="L45" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="M45" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="N45" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="O45" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="3:30" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="10">
+        <v>1</v>
+      </c>
+      <c r="H46" s="11">
+        <v>1</v>
+      </c>
+      <c r="I46" s="12">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1</v>
+      </c>
+      <c r="M46" s="44">
+        <v>1</v>
+      </c>
+      <c r="N46" s="44">
+        <v>1</v>
+      </c>
+      <c r="O46" s="3">
+        <v>1</v>
+      </c>
+      <c r="P46" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:30" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="3">
+        <f>SUM(D46:Q46)</f>
+        <v>14</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="3:30" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="99"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="100"/>
+      <c r="J48" s="100"/>
+      <c r="K48" s="100"/>
+      <c r="L48" s="100"/>
+      <c r="M48" s="100"/>
+      <c r="N48" s="100"/>
+      <c r="O48" s="100"/>
+      <c r="P48" s="100"/>
+      <c r="Q48" s="100"/>
+      <c r="R48" s="109"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="D40:R40"/>
-    <mergeCell ref="V40:AD40"/>
-    <mergeCell ref="C25:R25"/>
+  <mergeCells count="20">
     <mergeCell ref="D30:R30"/>
     <mergeCell ref="V30:AD30"/>
     <mergeCell ref="C35:R35"/>
     <mergeCell ref="U35:AD35"/>
+    <mergeCell ref="C43:R43"/>
+    <mergeCell ref="D48:R48"/>
+    <mergeCell ref="C2:X2"/>
+    <mergeCell ref="J3:V3"/>
+    <mergeCell ref="D7:T7"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="N9:W9"/>
     <mergeCell ref="D14:L14"/>
     <mergeCell ref="O14:W14"/>
     <mergeCell ref="C16:Q16"/>
     <mergeCell ref="S16:AB16"/>
     <mergeCell ref="D21:Q21"/>
     <mergeCell ref="T21:AB21"/>
-    <mergeCell ref="C2:X2"/>
-    <mergeCell ref="J3:V3"/>
-    <mergeCell ref="D7:T7"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="N9:W9"/>
+    <mergeCell ref="D40:R40"/>
+    <mergeCell ref="V40:AD40"/>
+    <mergeCell ref="C25:R25"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8840,8 +9176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:AD113"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M102" sqref="M102"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z106" sqref="Z106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8857,21 +9193,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="119" t="s">
+      <c r="C2" s="121" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="121"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="123"/>
     </row>
     <row r="3" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -8895,12 +9231,12 @@
       <c r="I3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="86" t="s">
+      <c r="J3" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="88"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="90"/>
       <c r="N3" s="1" t="s">
         <v>9</v>
       </c>
@@ -9046,34 +9382,34 @@
     <row r="14" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="3:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C16" s="122" t="s">
+      <c r="C16" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="124"/>
-      <c r="N16" s="125" t="s">
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="126"/>
+      <c r="N16" s="127" t="s">
         <v>214</v>
       </c>
-      <c r="O16" s="125"/>
-      <c r="Q16" s="125" t="s">
+      <c r="O16" s="127"/>
+      <c r="Q16" s="127" t="s">
         <v>215</v>
       </c>
-      <c r="R16" s="125"/>
-      <c r="T16" s="125" t="s">
+      <c r="R16" s="127"/>
+      <c r="T16" s="127" t="s">
         <v>216</v>
       </c>
-      <c r="U16" s="125"/>
-      <c r="W16" s="125" t="s">
+      <c r="U16" s="127"/>
+      <c r="W16" s="127" t="s">
         <v>217</v>
       </c>
-      <c r="X16" s="125"/>
+      <c r="X16" s="127"/>
     </row>
     <row r="17" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
@@ -9322,18 +9658,18 @@
       </c>
     </row>
     <row r="22" spans="3:24" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="C22" s="122" t="s">
+      <c r="C22" s="124" t="s">
         <v>233</v>
       </c>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="124"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="126"/>
       <c r="Q22" s="17" t="s">
         <v>234</v>
       </c>
@@ -9508,18 +9844,18 @@
       </c>
     </row>
     <row r="29" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C29" s="122" t="s">
+      <c r="C29" s="124" t="s">
         <v>241</v>
       </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="124"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="125"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="126"/>
     </row>
     <row r="30" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C30" s="1" t="s">
@@ -9646,18 +9982,18 @@
       </c>
     </row>
     <row r="37" spans="3:30" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C37" s="122" t="s">
+      <c r="C37" s="124" t="s">
         <v>242</v>
       </c>
-      <c r="D37" s="123"/>
-      <c r="E37" s="123"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="123"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="123"/>
-      <c r="K37" s="123"/>
-      <c r="L37" s="124"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="125"/>
+      <c r="J37" s="125"/>
+      <c r="K37" s="125"/>
+      <c r="L37" s="126"/>
     </row>
     <row r="38" spans="3:30" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
@@ -9790,38 +10126,38 @@
       </c>
     </row>
     <row r="43" spans="3:30" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C43" s="122" t="s">
+      <c r="C43" s="124" t="s">
         <v>244</v>
       </c>
-      <c r="D43" s="123"/>
-      <c r="E43" s="123"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="123"/>
-      <c r="H43" s="123"/>
-      <c r="I43" s="123"/>
-      <c r="J43" s="123"/>
-      <c r="K43" s="123"/>
-      <c r="L43" s="124"/>
-      <c r="N43" s="95" t="s">
+      <c r="D43" s="125"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="125"/>
+      <c r="H43" s="125"/>
+      <c r="I43" s="125"/>
+      <c r="J43" s="125"/>
+      <c r="K43" s="125"/>
+      <c r="L43" s="126"/>
+      <c r="N43" s="97" t="s">
         <v>245</v>
       </c>
-      <c r="O43" s="96"/>
-      <c r="P43" s="96"/>
-      <c r="Q43" s="96"/>
-      <c r="R43" s="96"/>
-      <c r="S43" s="96"/>
-      <c r="T43" s="96"/>
-      <c r="U43" s="96"/>
-      <c r="W43" s="95" t="s">
+      <c r="O43" s="98"/>
+      <c r="P43" s="98"/>
+      <c r="Q43" s="98"/>
+      <c r="R43" s="98"/>
+      <c r="S43" s="98"/>
+      <c r="T43" s="98"/>
+      <c r="U43" s="98"/>
+      <c r="W43" s="97" t="s">
         <v>246</v>
       </c>
-      <c r="X43" s="96"/>
-      <c r="Y43" s="96"/>
-      <c r="Z43" s="96"/>
-      <c r="AA43" s="96"/>
-      <c r="AB43" s="96"/>
-      <c r="AC43" s="96"/>
-      <c r="AD43" s="96"/>
+      <c r="X43" s="98"/>
+      <c r="Y43" s="98"/>
+      <c r="Z43" s="98"/>
+      <c r="AA43" s="98"/>
+      <c r="AB43" s="98"/>
+      <c r="AC43" s="98"/>
+      <c r="AD43" s="98"/>
     </row>
     <row r="44" spans="3:30" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C44" s="1" t="s">
@@ -10045,31 +10381,31 @@
       </c>
     </row>
     <row r="51" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C51" s="126" t="s">
+      <c r="C51" s="128" t="s">
         <v>264</v>
       </c>
-      <c r="D51" s="127"/>
-      <c r="E51" s="127"/>
-      <c r="F51" s="127"/>
-      <c r="G51" s="127"/>
-      <c r="H51" s="127"/>
-      <c r="I51" s="127"/>
-      <c r="J51" s="127"/>
-      <c r="K51" s="127"/>
-      <c r="L51" s="128"/>
-      <c r="N51" s="129" t="s">
+      <c r="D51" s="129"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="129"/>
+      <c r="G51" s="129"/>
+      <c r="H51" s="129"/>
+      <c r="I51" s="129"/>
+      <c r="J51" s="129"/>
+      <c r="K51" s="129"/>
+      <c r="L51" s="130"/>
+      <c r="N51" s="131" t="s">
         <v>265</v>
       </c>
-      <c r="O51" s="130"/>
-      <c r="P51" s="130"/>
-      <c r="Q51" s="130"/>
-      <c r="R51" s="130"/>
-      <c r="S51" s="130"/>
-      <c r="T51" s="130"/>
-      <c r="U51" s="130"/>
-      <c r="V51" s="130"/>
-      <c r="W51" s="130"/>
-      <c r="X51" s="131"/>
+      <c r="O51" s="132"/>
+      <c r="P51" s="132"/>
+      <c r="Q51" s="132"/>
+      <c r="R51" s="132"/>
+      <c r="S51" s="132"/>
+      <c r="T51" s="132"/>
+      <c r="U51" s="132"/>
+      <c r="V51" s="132"/>
+      <c r="W51" s="132"/>
+      <c r="X51" s="133"/>
     </row>
     <row r="52" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C52" s="1" t="s">
@@ -10312,17 +10648,17 @@
       </c>
     </row>
     <row r="57" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C57" s="122" t="s">
+      <c r="C57" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="D57" s="123"/>
-      <c r="E57" s="123"/>
-      <c r="F57" s="123"/>
-      <c r="G57" s="123"/>
-      <c r="H57" s="123"/>
-      <c r="I57" s="123"/>
-      <c r="J57" s="123"/>
-      <c r="K57" s="124"/>
+      <c r="D57" s="125"/>
+      <c r="E57" s="125"/>
+      <c r="F57" s="125"/>
+      <c r="G57" s="125"/>
+      <c r="H57" s="125"/>
+      <c r="I57" s="125"/>
+      <c r="J57" s="125"/>
+      <c r="K57" s="126"/>
     </row>
     <row r="58" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C58" s="1" t="s">
@@ -10439,31 +10775,31 @@
       </c>
     </row>
     <row r="64" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C64" s="126" t="s">
+      <c r="C64" s="128" t="s">
         <v>271</v>
       </c>
-      <c r="D64" s="127"/>
-      <c r="E64" s="127"/>
-      <c r="F64" s="127"/>
-      <c r="G64" s="127"/>
-      <c r="H64" s="127"/>
-      <c r="I64" s="127"/>
-      <c r="J64" s="127"/>
-      <c r="K64" s="127"/>
-      <c r="L64" s="128"/>
-      <c r="N64" s="129" t="s">
+      <c r="D64" s="129"/>
+      <c r="E64" s="129"/>
+      <c r="F64" s="129"/>
+      <c r="G64" s="129"/>
+      <c r="H64" s="129"/>
+      <c r="I64" s="129"/>
+      <c r="J64" s="129"/>
+      <c r="K64" s="129"/>
+      <c r="L64" s="130"/>
+      <c r="N64" s="131" t="s">
         <v>272</v>
       </c>
-      <c r="O64" s="130"/>
-      <c r="P64" s="130"/>
-      <c r="Q64" s="130"/>
-      <c r="R64" s="130"/>
-      <c r="S64" s="130"/>
-      <c r="T64" s="130"/>
-      <c r="U64" s="130"/>
-      <c r="V64" s="130"/>
-      <c r="W64" s="130"/>
-      <c r="X64" s="131"/>
+      <c r="O64" s="132"/>
+      <c r="P64" s="132"/>
+      <c r="Q64" s="132"/>
+      <c r="R64" s="132"/>
+      <c r="S64" s="132"/>
+      <c r="T64" s="132"/>
+      <c r="U64" s="132"/>
+      <c r="V64" s="132"/>
+      <c r="W64" s="132"/>
+      <c r="X64" s="133"/>
     </row>
     <row r="65" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C65" s="1" t="s">
@@ -10706,31 +11042,31 @@
       </c>
     </row>
     <row r="73" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C73" s="126" t="s">
+      <c r="C73" s="128" t="s">
         <v>273</v>
       </c>
-      <c r="D73" s="127"/>
-      <c r="E73" s="127"/>
-      <c r="F73" s="127"/>
-      <c r="G73" s="127"/>
-      <c r="H73" s="127"/>
-      <c r="I73" s="127"/>
-      <c r="J73" s="127"/>
-      <c r="K73" s="127"/>
-      <c r="L73" s="128"/>
-      <c r="N73" s="129" t="s">
+      <c r="D73" s="129"/>
+      <c r="E73" s="129"/>
+      <c r="F73" s="129"/>
+      <c r="G73" s="129"/>
+      <c r="H73" s="129"/>
+      <c r="I73" s="129"/>
+      <c r="J73" s="129"/>
+      <c r="K73" s="129"/>
+      <c r="L73" s="130"/>
+      <c r="N73" s="131" t="s">
         <v>274</v>
       </c>
-      <c r="O73" s="130"/>
-      <c r="P73" s="130"/>
-      <c r="Q73" s="130"/>
-      <c r="R73" s="130"/>
-      <c r="S73" s="130"/>
-      <c r="T73" s="130"/>
-      <c r="U73" s="130"/>
-      <c r="V73" s="130"/>
-      <c r="W73" s="130"/>
-      <c r="X73" s="131"/>
+      <c r="O73" s="132"/>
+      <c r="P73" s="132"/>
+      <c r="Q73" s="132"/>
+      <c r="R73" s="132"/>
+      <c r="S73" s="132"/>
+      <c r="T73" s="132"/>
+      <c r="U73" s="132"/>
+      <c r="V73" s="132"/>
+      <c r="W73" s="132"/>
+      <c r="X73" s="133"/>
     </row>
     <row r="74" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C74" s="1" t="s">
@@ -10973,17 +11309,17 @@
       </c>
     </row>
     <row r="81" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C81" s="122" t="s">
+      <c r="C81" s="124" t="s">
         <v>275</v>
       </c>
-      <c r="D81" s="123"/>
-      <c r="E81" s="123"/>
-      <c r="F81" s="123"/>
-      <c r="G81" s="123"/>
-      <c r="H81" s="123"/>
-      <c r="I81" s="123"/>
-      <c r="J81" s="123"/>
-      <c r="K81" s="123"/>
+      <c r="D81" s="125"/>
+      <c r="E81" s="125"/>
+      <c r="F81" s="125"/>
+      <c r="G81" s="125"/>
+      <c r="H81" s="125"/>
+      <c r="I81" s="125"/>
+      <c r="J81" s="125"/>
+      <c r="K81" s="125"/>
     </row>
     <row r="82" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C82" s="1" t="s">
@@ -11100,31 +11436,31 @@
       </c>
     </row>
     <row r="89" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C89" s="126" t="s">
+      <c r="C89" s="128" t="s">
         <v>276</v>
       </c>
-      <c r="D89" s="127"/>
-      <c r="E89" s="127"/>
-      <c r="F89" s="127"/>
-      <c r="G89" s="127"/>
-      <c r="H89" s="127"/>
-      <c r="I89" s="127"/>
-      <c r="J89" s="127"/>
-      <c r="K89" s="127"/>
-      <c r="L89" s="128"/>
-      <c r="N89" s="129" t="s">
+      <c r="D89" s="129"/>
+      <c r="E89" s="129"/>
+      <c r="F89" s="129"/>
+      <c r="G89" s="129"/>
+      <c r="H89" s="129"/>
+      <c r="I89" s="129"/>
+      <c r="J89" s="129"/>
+      <c r="K89" s="129"/>
+      <c r="L89" s="130"/>
+      <c r="N89" s="131" t="s">
         <v>277</v>
       </c>
-      <c r="O89" s="130"/>
-      <c r="P89" s="130"/>
-      <c r="Q89" s="130"/>
-      <c r="R89" s="130"/>
-      <c r="S89" s="130"/>
-      <c r="T89" s="130"/>
-      <c r="U89" s="130"/>
-      <c r="V89" s="130"/>
-      <c r="W89" s="130"/>
-      <c r="X89" s="131"/>
+      <c r="O89" s="132"/>
+      <c r="P89" s="132"/>
+      <c r="Q89" s="132"/>
+      <c r="R89" s="132"/>
+      <c r="S89" s="132"/>
+      <c r="T89" s="132"/>
+      <c r="U89" s="132"/>
+      <c r="V89" s="132"/>
+      <c r="W89" s="132"/>
+      <c r="X89" s="133"/>
     </row>
     <row r="90" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C90" s="1" t="s">
@@ -11367,17 +11703,30 @@
       </c>
     </row>
     <row r="101" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C101" s="122" t="s">
+      <c r="C101" s="124" t="s">
         <v>279</v>
       </c>
-      <c r="D101" s="123"/>
-      <c r="E101" s="123"/>
-      <c r="F101" s="123"/>
-      <c r="G101" s="123"/>
-      <c r="H101" s="123"/>
-      <c r="I101" s="123"/>
-      <c r="J101" s="123"/>
-      <c r="K101" s="123"/>
+      <c r="D101" s="125"/>
+      <c r="E101" s="125"/>
+      <c r="F101" s="125"/>
+      <c r="G101" s="125"/>
+      <c r="H101" s="125"/>
+      <c r="I101" s="125"/>
+      <c r="J101" s="125"/>
+      <c r="K101" s="125"/>
+      <c r="N101" s="131" t="s">
+        <v>396</v>
+      </c>
+      <c r="O101" s="132"/>
+      <c r="P101" s="132"/>
+      <c r="Q101" s="132"/>
+      <c r="R101" s="132"/>
+      <c r="S101" s="132"/>
+      <c r="T101" s="132"/>
+      <c r="U101" s="132"/>
+      <c r="V101" s="132"/>
+      <c r="W101" s="132"/>
+      <c r="X101" s="133"/>
     </row>
     <row r="102" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C102" s="1" t="s">
@@ -11407,6 +11756,27 @@
       <c r="K102" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N102" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O102" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S102" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T102" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="103" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C103" s="1" t="s">
@@ -11436,6 +11806,27 @@
       <c r="K103" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N103" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O103" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P103" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q103" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R103" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S103" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T103" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="104" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C104" s="1" t="s">
@@ -11465,6 +11856,36 @@
       <c r="K104" s="3">
         <v>1</v>
       </c>
+      <c r="N104" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O104" s="9">
+        <v>1</v>
+      </c>
+      <c r="P104" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="9">
+        <v>1</v>
+      </c>
+      <c r="R104" s="10">
+        <v>1</v>
+      </c>
+      <c r="S104" s="11">
+        <v>1</v>
+      </c>
+      <c r="T104" s="12">
+        <v>1</v>
+      </c>
+      <c r="U104" s="9">
+        <v>1</v>
+      </c>
+      <c r="V104" s="9">
+        <v>1</v>
+      </c>
+      <c r="W104" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C105" s="1" t="s">
@@ -11492,33 +11913,60 @@
       <c r="K105" s="4">
         <v>23</v>
       </c>
+      <c r="N105" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O105" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P105" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q105" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="R105" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="S105" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="T105" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="U105" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="V105" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="109" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C109" s="126" t="s">
+      <c r="C109" s="128" t="s">
         <v>281</v>
       </c>
-      <c r="D109" s="127"/>
-      <c r="E109" s="127"/>
-      <c r="F109" s="127"/>
-      <c r="G109" s="127"/>
-      <c r="H109" s="127"/>
-      <c r="I109" s="127"/>
-      <c r="J109" s="127"/>
-      <c r="K109" s="127"/>
-      <c r="L109" s="128"/>
-      <c r="N109" s="129" t="s">
+      <c r="D109" s="129"/>
+      <c r="E109" s="129"/>
+      <c r="F109" s="129"/>
+      <c r="G109" s="129"/>
+      <c r="H109" s="129"/>
+      <c r="I109" s="129"/>
+      <c r="J109" s="129"/>
+      <c r="K109" s="129"/>
+      <c r="L109" s="130"/>
+      <c r="N109" s="131" t="s">
         <v>282</v>
       </c>
-      <c r="O109" s="130"/>
-      <c r="P109" s="130"/>
-      <c r="Q109" s="130"/>
-      <c r="R109" s="130"/>
-      <c r="S109" s="130"/>
-      <c r="T109" s="130"/>
-      <c r="U109" s="130"/>
-      <c r="V109" s="130"/>
-      <c r="W109" s="130"/>
-      <c r="X109" s="131"/>
+      <c r="O109" s="132"/>
+      <c r="P109" s="132"/>
+      <c r="Q109" s="132"/>
+      <c r="R109" s="132"/>
+      <c r="S109" s="132"/>
+      <c r="T109" s="132"/>
+      <c r="U109" s="132"/>
+      <c r="V109" s="132"/>
+      <c r="W109" s="132"/>
+      <c r="X109" s="133"/>
     </row>
     <row r="110" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C110" s="1" t="s">
@@ -11761,13 +12209,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
     <mergeCell ref="C81:K81"/>
     <mergeCell ref="C89:L89"/>
     <mergeCell ref="N89:X89"/>
     <mergeCell ref="C101:K101"/>
     <mergeCell ref="C109:L109"/>
     <mergeCell ref="N109:X109"/>
+    <mergeCell ref="N101:X101"/>
     <mergeCell ref="C57:K57"/>
     <mergeCell ref="C64:L64"/>
     <mergeCell ref="N64:X64"/>
@@ -11799,8 +12248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -11814,7 +12263,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="135" t="s">
         <v>283</v>
       </c>
       <c r="C3" s="23" t="s">
@@ -11837,7 +12286,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="134"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="25" t="s">
         <v>284</v>
       </c>
@@ -11882,20 +12331,20 @@
       <c r="H6" s="27"/>
     </row>
     <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="137" t="s">
         <v>291</v>
       </c>
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="134" t="s">
         <v>292</v>
       </c>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
     </row>
     <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="136"/>
+      <c r="B8" s="138"/>
       <c r="C8" s="28" t="s">
         <v>26</v>
       </c>
@@ -11916,7 +12365,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="136"/>
+      <c r="B9" s="138"/>
       <c r="C9" s="29" t="s">
         <v>252</v>
       </c>
@@ -12069,7 +12518,9 @@
         <v>280</v>
       </c>
       <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
+      <c r="D16" s="31" t="s">
+        <v>388</v>
+      </c>
       <c r="E16" s="32"/>
       <c r="F16" s="33"/>
       <c r="G16" s="26" t="s">
@@ -12372,29 +12823,29 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="139" t="s">
         <v>355</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="L1" s="137" t="s">
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="L1" s="139" t="s">
         <v>355</v>
       </c>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="138"/>
-      <c r="T1" s="138"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="140"/>
+      <c r="T1" s="140"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -12629,29 +13080,29 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="137" t="s">
+      <c r="A10" s="139" t="s">
         <v>356</v>
       </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="L10" s="137" t="s">
+      <c r="B10" s="140"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+      <c r="L10" s="139" t="s">
         <v>355</v>
       </c>
-      <c r="M10" s="138"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="138"/>
-      <c r="P10" s="138"/>
-      <c r="Q10" s="138"/>
-      <c r="R10" s="138"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="138"/>
+      <c r="M10" s="140"/>
+      <c r="N10" s="140"/>
+      <c r="O10" s="140"/>
+      <c r="P10" s="140"/>
+      <c r="Q10" s="140"/>
+      <c r="R10" s="140"/>
+      <c r="S10" s="140"/>
+      <c r="T10" s="140"/>
     </row>
     <row r="11" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
@@ -12908,18 +13359,18 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="141" t="s">
         <v>357</v>
       </c>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
     </row>
     <row r="2" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
@@ -13046,18 +13497,18 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="141" t="s">
         <v>359</v>
       </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="142"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
@@ -13184,18 +13635,18 @@
       </c>
     </row>
     <row r="13" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B13" s="139" t="s">
+      <c r="B13" s="141" t="s">
         <v>361</v>
       </c>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="140"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="142"/>
     </row>
     <row r="14" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
@@ -13322,18 +13773,18 @@
       </c>
     </row>
     <row r="21" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B21" s="139" t="s">
+      <c r="B21" s="141" t="s">
         <v>362</v>
       </c>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="140"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="142"/>
     </row>
     <row r="22" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B22" s="5" t="s">
@@ -13460,18 +13911,18 @@
       </c>
     </row>
     <row r="28" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B28" s="139" t="s">
+      <c r="B28" s="141" t="s">
         <v>363</v>
       </c>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="140"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="142"/>
+      <c r="K28" s="142"/>
     </row>
     <row r="29" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
@@ -13598,17 +14049,17 @@
       </c>
     </row>
     <row r="34" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B34" s="141" t="s">
+      <c r="B34" s="143" t="s">
         <v>364</v>
       </c>
-      <c r="C34" s="142"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
-      <c r="I34" s="142"/>
-      <c r="J34" s="142"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="144"/>
     </row>
     <row r="35" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B35" s="5" t="s">
@@ -13725,17 +14176,17 @@
       </c>
     </row>
     <row r="40" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B40" s="141" t="s">
+      <c r="B40" s="143" t="s">
         <v>365</v>
       </c>
-      <c r="C40" s="142"/>
-      <c r="D40" s="142"/>
-      <c r="E40" s="142"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="142"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="142"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="144"/>
+      <c r="E40" s="144"/>
+      <c r="F40" s="144"/>
+      <c r="G40" s="144"/>
+      <c r="H40" s="144"/>
+      <c r="I40" s="144"/>
+      <c r="J40" s="144"/>
     </row>
     <row r="41" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B41" s="5" t="s">
@@ -13852,17 +14303,17 @@
       </c>
     </row>
     <row r="46" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B46" s="141" t="s">
+      <c r="B46" s="143" t="s">
         <v>366</v>
       </c>
-      <c r="C46" s="142"/>
-      <c r="D46" s="142"/>
-      <c r="E46" s="142"/>
-      <c r="F46" s="142"/>
-      <c r="G46" s="142"/>
-      <c r="H46" s="142"/>
-      <c r="I46" s="142"/>
-      <c r="J46" s="142"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="144"/>
+      <c r="I46" s="144"/>
+      <c r="J46" s="144"/>
     </row>
     <row r="47" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B47" s="5" t="s">
@@ -13979,17 +14430,17 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B52" s="141" t="s">
+      <c r="B52" s="143" t="s">
         <v>367</v>
       </c>
-      <c r="C52" s="142"/>
-      <c r="D52" s="142"/>
-      <c r="E52" s="142"/>
-      <c r="F52" s="142"/>
-      <c r="G52" s="142"/>
-      <c r="H52" s="142"/>
-      <c r="I52" s="142"/>
-      <c r="J52" s="142"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="144"/>
+      <c r="F52" s="144"/>
+      <c r="G52" s="144"/>
+      <c r="H52" s="144"/>
+      <c r="I52" s="144"/>
+      <c r="J52" s="144"/>
     </row>
     <row r="53" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B53" s="5" t="s">
@@ -14106,17 +14557,17 @@
       </c>
     </row>
     <row r="59" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B59" s="141" t="s">
+      <c r="B59" s="143" t="s">
         <v>368</v>
       </c>
-      <c r="C59" s="142"/>
-      <c r="D59" s="142"/>
-      <c r="E59" s="142"/>
-      <c r="F59" s="142"/>
-      <c r="G59" s="142"/>
-      <c r="H59" s="142"/>
-      <c r="I59" s="142"/>
-      <c r="J59" s="142"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="144"/>
+      <c r="E59" s="144"/>
+      <c r="F59" s="144"/>
+      <c r="G59" s="144"/>
+      <c r="H59" s="144"/>
+      <c r="I59" s="144"/>
+      <c r="J59" s="144"/>
     </row>
     <row r="60" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B60" s="5" t="s">
@@ -14233,17 +14684,17 @@
       </c>
     </row>
     <row r="65" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B65" s="141" t="s">
+      <c r="B65" s="143" t="s">
         <v>369</v>
       </c>
-      <c r="C65" s="142"/>
-      <c r="D65" s="142"/>
-      <c r="E65" s="142"/>
-      <c r="F65" s="142"/>
-      <c r="G65" s="142"/>
-      <c r="H65" s="142"/>
-      <c r="I65" s="142"/>
-      <c r="J65" s="142"/>
+      <c r="C65" s="144"/>
+      <c r="D65" s="144"/>
+      <c r="E65" s="144"/>
+      <c r="F65" s="144"/>
+      <c r="G65" s="144"/>
+      <c r="H65" s="144"/>
+      <c r="I65" s="144"/>
+      <c r="J65" s="144"/>
     </row>
     <row r="66" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B66" s="5" t="s">
@@ -14360,17 +14811,17 @@
       </c>
     </row>
     <row r="71" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B71" s="141" t="s">
+      <c r="B71" s="143" t="s">
         <v>371</v>
       </c>
-      <c r="C71" s="142"/>
-      <c r="D71" s="142"/>
-      <c r="E71" s="142"/>
-      <c r="F71" s="142"/>
-      <c r="G71" s="142"/>
-      <c r="H71" s="142"/>
-      <c r="I71" s="142"/>
-      <c r="J71" s="142"/>
+      <c r="C71" s="144"/>
+      <c r="D71" s="144"/>
+      <c r="E71" s="144"/>
+      <c r="F71" s="144"/>
+      <c r="G71" s="144"/>
+      <c r="H71" s="144"/>
+      <c r="I71" s="144"/>
+      <c r="J71" s="144"/>
     </row>
     <row r="72" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B72" s="5" t="s">
@@ -14487,17 +14938,17 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B78" s="141" t="s">
+      <c r="B78" s="143" t="s">
         <v>372</v>
       </c>
-      <c r="C78" s="142"/>
-      <c r="D78" s="142"/>
-      <c r="E78" s="142"/>
-      <c r="F78" s="142"/>
-      <c r="G78" s="142"/>
-      <c r="H78" s="142"/>
-      <c r="I78" s="142"/>
-      <c r="J78" s="142"/>
+      <c r="C78" s="144"/>
+      <c r="D78" s="144"/>
+      <c r="E78" s="144"/>
+      <c r="F78" s="144"/>
+      <c r="G78" s="144"/>
+      <c r="H78" s="144"/>
+      <c r="I78" s="144"/>
+      <c r="J78" s="144"/>
     </row>
     <row r="79" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B79" s="5" t="s">
@@ -14650,18 +15101,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="145" t="s">
         <v>374</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="145"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="147"/>
     </row>
     <row r="3" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -14785,17 +15236,17 @@
       <c r="B7" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C7" s="146" t="s">
+      <c r="C7" s="148" t="s">
         <v>380</v>
       </c>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="148"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="2">
